--- a/BackTest/2020-01-23 BackTest MTL.xlsx
+++ b/BackTest/2020-01-23 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M329"/>
+  <dimension ref="A1:M330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>288.2</v>
+        <v>288.1</v>
       </c>
       <c r="C2" t="n">
-        <v>288.2</v>
+        <v>288.1</v>
       </c>
       <c r="D2" t="n">
-        <v>288.2</v>
+        <v>288.1</v>
       </c>
       <c r="E2" t="n">
-        <v>288.2</v>
+        <v>288.1</v>
       </c>
       <c r="F2" t="n">
-        <v>3239</v>
+        <v>2456.5135</v>
       </c>
       <c r="G2" t="n">
-        <v>286.8183333333331</v>
+        <v>286.7583333333331</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>288.2</v>
       </c>
       <c r="F3" t="n">
-        <v>335.6176</v>
+        <v>3239</v>
       </c>
       <c r="G3" t="n">
-        <v>286.9383333333332</v>
+        <v>286.8183333333331</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>289.4</v>
+        <v>288.2</v>
       </c>
       <c r="C4" t="n">
-        <v>289.4</v>
+        <v>288.2</v>
       </c>
       <c r="D4" t="n">
-        <v>289.4</v>
+        <v>288.2</v>
       </c>
       <c r="E4" t="n">
-        <v>289.4</v>
+        <v>288.2</v>
       </c>
       <c r="F4" t="n">
-        <v>6055.4866</v>
+        <v>335.6176</v>
       </c>
       <c r="G4" t="n">
-        <v>287.0466666666665</v>
+        <v>286.9383333333332</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>289.4</v>
       </c>
       <c r="F5" t="n">
-        <v>800</v>
+        <v>6055.4866</v>
       </c>
       <c r="G5" t="n">
-        <v>287.1866666666665</v>
+        <v>287.0466666666665</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>290</v>
+        <v>289.4</v>
       </c>
       <c r="C6" t="n">
-        <v>290</v>
+        <v>289.4</v>
       </c>
       <c r="D6" t="n">
-        <v>290</v>
+        <v>289.4</v>
       </c>
       <c r="E6" t="n">
-        <v>290</v>
+        <v>289.4</v>
       </c>
       <c r="F6" t="n">
-        <v>3487.4222</v>
+        <v>800</v>
       </c>
       <c r="G6" t="n">
-        <v>287.3099999999998</v>
+        <v>287.1866666666665</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>290</v>
       </c>
       <c r="F7" t="n">
-        <v>878.22</v>
+        <v>3487.4222</v>
       </c>
       <c r="G7" t="n">
-        <v>287.4416666666665</v>
+        <v>287.3099999999998</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>290</v>
       </c>
       <c r="C8" t="n">
-        <v>289.4</v>
+        <v>290</v>
       </c>
       <c r="D8" t="n">
         <v>290</v>
       </c>
       <c r="E8" t="n">
-        <v>289.4</v>
+        <v>290</v>
       </c>
       <c r="F8" t="n">
-        <v>600</v>
+        <v>878.22</v>
       </c>
       <c r="G8" t="n">
-        <v>287.5649999999999</v>
+        <v>287.4416666666665</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>290.2</v>
+        <v>290</v>
       </c>
       <c r="C9" t="n">
         <v>289.4</v>
       </c>
       <c r="D9" t="n">
-        <v>290.2</v>
+        <v>290</v>
       </c>
       <c r="E9" t="n">
         <v>289.4</v>
       </c>
       <c r="F9" t="n">
-        <v>2766.49357684</v>
+        <v>600</v>
       </c>
       <c r="G9" t="n">
-        <v>287.6883333333333</v>
+        <v>287.5649999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>289.4</v>
+        <v>290.2</v>
       </c>
       <c r="C10" t="n">
         <v>289.4</v>
       </c>
       <c r="D10" t="n">
-        <v>289.4</v>
+        <v>290.2</v>
       </c>
       <c r="E10" t="n">
         <v>289.4</v>
       </c>
       <c r="F10" t="n">
-        <v>455.0699</v>
+        <v>2766.49357684</v>
       </c>
       <c r="G10" t="n">
-        <v>287.8116666666666</v>
+        <v>287.6883333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,28 +748,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>289.7</v>
+        <v>289.4</v>
       </c>
       <c r="C11" t="n">
-        <v>290.2</v>
+        <v>289.4</v>
       </c>
       <c r="D11" t="n">
-        <v>290.2</v>
+        <v>289.4</v>
       </c>
       <c r="E11" t="n">
-        <v>289.7</v>
+        <v>289.4</v>
       </c>
       <c r="F11" t="n">
-        <v>7940.2723</v>
+        <v>455.0699</v>
       </c>
       <c r="G11" t="n">
-        <v>287.9483333333333</v>
+        <v>287.8116666666666</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -783,28 +783,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>290.9</v>
+        <v>289.7</v>
       </c>
       <c r="C12" t="n">
-        <v>290.9</v>
+        <v>290.2</v>
       </c>
       <c r="D12" t="n">
-        <v>290.9</v>
+        <v>290.2</v>
       </c>
       <c r="E12" t="n">
-        <v>290.9</v>
+        <v>289.7</v>
       </c>
       <c r="F12" t="n">
-        <v>4262.8176</v>
+        <v>7940.2723</v>
       </c>
       <c r="G12" t="n">
-        <v>288.0483333333333</v>
+        <v>287.9483333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -818,28 +818,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>291</v>
+        <v>290.9</v>
       </c>
       <c r="C13" t="n">
-        <v>291</v>
+        <v>290.9</v>
       </c>
       <c r="D13" t="n">
-        <v>291</v>
+        <v>290.9</v>
       </c>
       <c r="E13" t="n">
-        <v>291</v>
+        <v>290.9</v>
       </c>
       <c r="F13" t="n">
-        <v>2899.688</v>
+        <v>4262.8176</v>
       </c>
       <c r="G13" t="n">
-        <v>288.1483333333333</v>
+        <v>288.0483333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -856,25 +856,25 @@
         <v>291</v>
       </c>
       <c r="C14" t="n">
-        <v>290.5</v>
+        <v>291</v>
       </c>
       <c r="D14" t="n">
         <v>291</v>
       </c>
       <c r="E14" t="n">
-        <v>290.5</v>
+        <v>291</v>
       </c>
       <c r="F14" t="n">
-        <v>1641.2196</v>
+        <v>2899.688</v>
       </c>
       <c r="G14" t="n">
-        <v>288.2166666666666</v>
+        <v>288.1483333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>290.5</v>
+        <v>291</v>
       </c>
       <c r="C15" t="n">
         <v>290.5</v>
       </c>
       <c r="D15" t="n">
-        <v>290.5</v>
+        <v>291</v>
       </c>
       <c r="E15" t="n">
         <v>290.5</v>
       </c>
       <c r="F15" t="n">
-        <v>2419.1596</v>
+        <v>1641.2196</v>
       </c>
       <c r="G15" t="n">
-        <v>288.2766666666666</v>
+        <v>288.2166666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>290.5</v>
       </c>
       <c r="F16" t="n">
-        <v>2551.097</v>
+        <v>2419.1596</v>
       </c>
       <c r="G16" t="n">
-        <v>288.3366666666665</v>
+        <v>288.2766666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,16 +970,16 @@
         <v>290.5</v>
       </c>
       <c r="F17" t="n">
-        <v>5367.7246</v>
+        <v>2551.097</v>
       </c>
       <c r="G17" t="n">
-        <v>288.4016666666666</v>
+        <v>288.3366666666665</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1005,16 +1005,16 @@
         <v>290.5</v>
       </c>
       <c r="F18" t="n">
-        <v>717.88</v>
+        <v>5367.7246</v>
       </c>
       <c r="G18" t="n">
-        <v>288.4683333333332</v>
+        <v>288.4016666666666</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1028,28 +1028,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>291.2</v>
+        <v>290.5</v>
       </c>
       <c r="C19" t="n">
-        <v>291.2</v>
+        <v>290.5</v>
       </c>
       <c r="D19" t="n">
-        <v>291.2</v>
+        <v>290.5</v>
       </c>
       <c r="E19" t="n">
-        <v>291.2</v>
+        <v>290.5</v>
       </c>
       <c r="F19" t="n">
-        <v>533.00137362</v>
+        <v>717.88</v>
       </c>
       <c r="G19" t="n">
-        <v>288.5399999999999</v>
+        <v>288.4683333333332</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1075,16 +1075,16 @@
         <v>291.2</v>
       </c>
       <c r="F20" t="n">
-        <v>3.49931318</v>
+        <v>533.00137362</v>
       </c>
       <c r="G20" t="n">
-        <v>288.6116666666666</v>
+        <v>288.5399999999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1101,25 +1101,25 @@
         <v>291.2</v>
       </c>
       <c r="C21" t="n">
-        <v>290.6</v>
+        <v>291.2</v>
       </c>
       <c r="D21" t="n">
         <v>291.2</v>
       </c>
       <c r="E21" t="n">
-        <v>290.6</v>
+        <v>291.2</v>
       </c>
       <c r="F21" t="n">
-        <v>6092.9652</v>
+        <v>3.49931318</v>
       </c>
       <c r="G21" t="n">
-        <v>288.6933333333332</v>
+        <v>288.6116666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1136,25 +1136,25 @@
         <v>291.2</v>
       </c>
       <c r="C22" t="n">
-        <v>292.4</v>
+        <v>290.6</v>
       </c>
       <c r="D22" t="n">
-        <v>292.4</v>
+        <v>291.2</v>
       </c>
       <c r="E22" t="n">
-        <v>291.2</v>
+        <v>290.6</v>
       </c>
       <c r="F22" t="n">
-        <v>4301.2992</v>
+        <v>6092.9652</v>
       </c>
       <c r="G22" t="n">
-        <v>288.7833333333332</v>
+        <v>288.6933333333332</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>292.3</v>
+        <v>291.2</v>
       </c>
       <c r="C23" t="n">
-        <v>292.3</v>
+        <v>292.4</v>
       </c>
       <c r="D23" t="n">
-        <v>292.3</v>
+        <v>292.4</v>
       </c>
       <c r="E23" t="n">
-        <v>292.3</v>
+        <v>291.2</v>
       </c>
       <c r="F23" t="n">
-        <v>10.133</v>
+        <v>4301.2992</v>
       </c>
       <c r="G23" t="n">
-        <v>288.8833333333332</v>
+        <v>288.7833333333332</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>292.2</v>
+        <v>292.3</v>
       </c>
       <c r="C24" t="n">
-        <v>292.2</v>
+        <v>292.3</v>
       </c>
       <c r="D24" t="n">
-        <v>292.2</v>
+        <v>292.3</v>
       </c>
       <c r="E24" t="n">
-        <v>292.2</v>
+        <v>292.3</v>
       </c>
       <c r="F24" t="n">
-        <v>2521.8329</v>
+        <v>10.133</v>
       </c>
       <c r="G24" t="n">
-        <v>288.9549999999999</v>
+        <v>288.8833333333332</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>292.2</v>
       </c>
       <c r="C25" t="n">
-        <v>292.6</v>
+        <v>292.2</v>
       </c>
       <c r="D25" t="n">
-        <v>292.6</v>
+        <v>292.2</v>
       </c>
       <c r="E25" t="n">
         <v>292.2</v>
       </c>
       <c r="F25" t="n">
-        <v>14750.5893</v>
+        <v>2521.8329</v>
       </c>
       <c r="G25" t="n">
-        <v>289.0316666666665</v>
+        <v>288.9549999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,28 +1273,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>292.7</v>
+        <v>292.2</v>
       </c>
       <c r="C26" t="n">
-        <v>292.7</v>
+        <v>292.6</v>
       </c>
       <c r="D26" t="n">
-        <v>292.7</v>
+        <v>292.6</v>
       </c>
       <c r="E26" t="n">
-        <v>292.7</v>
+        <v>292.2</v>
       </c>
       <c r="F26" t="n">
-        <v>360.1443</v>
+        <v>14750.5893</v>
       </c>
       <c r="G26" t="n">
-        <v>289.1033333333332</v>
+        <v>289.0316666666665</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1311,25 +1311,25 @@
         <v>292.7</v>
       </c>
       <c r="C27" t="n">
-        <v>292.8</v>
+        <v>292.7</v>
       </c>
       <c r="D27" t="n">
-        <v>293</v>
+        <v>292.7</v>
       </c>
       <c r="E27" t="n">
         <v>292.7</v>
       </c>
       <c r="F27" t="n">
-        <v>2343.24173167</v>
+        <v>360.1443</v>
       </c>
       <c r="G27" t="n">
-        <v>289.1766666666664</v>
+        <v>289.1033333333332</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1346,19 +1346,19 @@
         <v>292.7</v>
       </c>
       <c r="C28" t="n">
-        <v>292.7</v>
+        <v>292.8</v>
       </c>
       <c r="D28" t="n">
-        <v>292.7</v>
+        <v>293</v>
       </c>
       <c r="E28" t="n">
         <v>292.7</v>
       </c>
       <c r="F28" t="n">
-        <v>17.08233686</v>
+        <v>2343.24173167</v>
       </c>
       <c r="G28" t="n">
-        <v>289.2316666666665</v>
+        <v>289.1766666666664</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>292.4</v>
+        <v>292.7</v>
       </c>
       <c r="C29" t="n">
-        <v>292.6</v>
+        <v>292.7</v>
       </c>
       <c r="D29" t="n">
-        <v>292.6</v>
+        <v>292.7</v>
       </c>
       <c r="E29" t="n">
-        <v>292.4</v>
+        <v>292.7</v>
       </c>
       <c r="F29" t="n">
-        <v>6733.6012</v>
+        <v>17.08233686</v>
       </c>
       <c r="G29" t="n">
-        <v>289.2983333333331</v>
+        <v>289.2316666666665</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>290.7</v>
+        <v>292.4</v>
       </c>
       <c r="C30" t="n">
-        <v>290.6</v>
+        <v>292.6</v>
       </c>
       <c r="D30" t="n">
-        <v>290.7</v>
+        <v>292.6</v>
       </c>
       <c r="E30" t="n">
-        <v>290.6</v>
+        <v>292.4</v>
       </c>
       <c r="F30" t="n">
-        <v>17090.8884</v>
+        <v>6733.6012</v>
       </c>
       <c r="G30" t="n">
-        <v>289.3449999999997</v>
+        <v>289.2983333333331</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>290.6</v>
+        <v>290.7</v>
       </c>
       <c r="C31" t="n">
         <v>290.6</v>
       </c>
       <c r="D31" t="n">
-        <v>290.6</v>
+        <v>290.7</v>
       </c>
       <c r="E31" t="n">
         <v>290.6</v>
       </c>
       <c r="F31" t="n">
-        <v>997.5661</v>
+        <v>17090.8884</v>
       </c>
       <c r="G31" t="n">
-        <v>289.3916666666664</v>
+        <v>289.3449999999997</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>290.6</v>
       </c>
       <c r="F32" t="n">
-        <v>6.2053</v>
+        <v>997.5661</v>
       </c>
       <c r="G32" t="n">
-        <v>289.4383333333331</v>
+        <v>289.3916666666664</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>290.6</v>
       </c>
       <c r="F33" t="n">
-        <v>1033.8126</v>
+        <v>6.2053</v>
       </c>
       <c r="G33" t="n">
-        <v>289.4983333333331</v>
+        <v>289.4383333333331</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1562,13 +1562,13 @@
         <v>290.6</v>
       </c>
       <c r="E34" t="n">
-        <v>290</v>
+        <v>290.6</v>
       </c>
       <c r="F34" t="n">
-        <v>1944.3504</v>
+        <v>1033.8126</v>
       </c>
       <c r="G34" t="n">
-        <v>289.5166666666664</v>
+        <v>289.4983333333331</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>291.4</v>
+        <v>290.6</v>
       </c>
       <c r="C35" t="n">
-        <v>290</v>
+        <v>290.6</v>
       </c>
       <c r="D35" t="n">
-        <v>292.2</v>
+        <v>290.6</v>
       </c>
       <c r="E35" t="n">
         <v>290</v>
       </c>
       <c r="F35" t="n">
-        <v>4444.36743305</v>
+        <v>1944.3504</v>
       </c>
       <c r="G35" t="n">
-        <v>289.5249999999997</v>
+        <v>289.5166666666664</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>290</v>
+        <v>291.4</v>
       </c>
       <c r="C36" t="n">
         <v>290</v>
       </c>
       <c r="D36" t="n">
-        <v>290</v>
+        <v>292.2</v>
       </c>
       <c r="E36" t="n">
         <v>290</v>
       </c>
       <c r="F36" t="n">
-        <v>1006</v>
+        <v>4444.36743305</v>
       </c>
       <c r="G36" t="n">
-        <v>289.5616666666664</v>
+        <v>289.5249999999997</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>290</v>
       </c>
       <c r="F37" t="n">
-        <v>95.37050000000001</v>
+        <v>1006</v>
       </c>
       <c r="G37" t="n">
-        <v>289.5983333333331</v>
+        <v>289.5616666666664</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>289.5</v>
+        <v>290</v>
       </c>
       <c r="C38" t="n">
-        <v>289.4</v>
+        <v>290</v>
       </c>
       <c r="D38" t="n">
-        <v>289.5</v>
+        <v>290</v>
       </c>
       <c r="E38" t="n">
-        <v>289.4</v>
+        <v>290</v>
       </c>
       <c r="F38" t="n">
-        <v>1484.2295</v>
+        <v>95.37050000000001</v>
       </c>
       <c r="G38" t="n">
-        <v>289.6366666666664</v>
+        <v>289.5983333333331</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>290</v>
+        <v>289.5</v>
       </c>
       <c r="C39" t="n">
-        <v>290</v>
+        <v>289.4</v>
       </c>
       <c r="D39" t="n">
-        <v>290</v>
+        <v>289.5</v>
       </c>
       <c r="E39" t="n">
-        <v>290</v>
+        <v>289.4</v>
       </c>
       <c r="F39" t="n">
-        <v>6888.3344</v>
+        <v>1484.2295</v>
       </c>
       <c r="G39" t="n">
-        <v>289.6849999999998</v>
+        <v>289.6366666666664</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>290.8</v>
+        <v>290</v>
       </c>
       <c r="C40" t="n">
-        <v>290.8</v>
+        <v>290</v>
       </c>
       <c r="D40" t="n">
-        <v>291.8</v>
+        <v>290</v>
       </c>
       <c r="E40" t="n">
-        <v>290.8</v>
+        <v>290</v>
       </c>
       <c r="F40" t="n">
-        <v>3007.50870459</v>
+        <v>6888.3344</v>
       </c>
       <c r="G40" t="n">
-        <v>289.7483333333331</v>
+        <v>289.6849999999998</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>291.7</v>
+        <v>290.8</v>
       </c>
       <c r="C41" t="n">
-        <v>291.5</v>
+        <v>290.8</v>
       </c>
       <c r="D41" t="n">
         <v>291.8</v>
       </c>
       <c r="E41" t="n">
-        <v>291.2</v>
+        <v>290.8</v>
       </c>
       <c r="F41" t="n">
-        <v>5119.55974023</v>
+        <v>3007.50870459</v>
       </c>
       <c r="G41" t="n">
-        <v>289.8233333333331</v>
+        <v>289.7483333333331</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>291.7</v>
+      </c>
+      <c r="C42" t="n">
         <v>291.5</v>
       </c>
-      <c r="C42" t="n">
-        <v>292.4</v>
-      </c>
       <c r="D42" t="n">
-        <v>292.4</v>
+        <v>291.8</v>
       </c>
       <c r="E42" t="n">
-        <v>291.5</v>
+        <v>291.2</v>
       </c>
       <c r="F42" t="n">
-        <v>16489.3806</v>
+        <v>5119.55974023</v>
       </c>
       <c r="G42" t="n">
-        <v>289.9133333333331</v>
+        <v>289.8233333333331</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>291.5</v>
+      </c>
+      <c r="C43" t="n">
         <v>292.4</v>
-      </c>
-      <c r="C43" t="n">
-        <v>292</v>
       </c>
       <c r="D43" t="n">
         <v>292.4</v>
       </c>
       <c r="E43" t="n">
-        <v>292</v>
+        <v>291.5</v>
       </c>
       <c r="F43" t="n">
-        <v>4566.3001</v>
+        <v>16489.3806</v>
       </c>
       <c r="G43" t="n">
-        <v>289.9966666666665</v>
+        <v>289.9133333333331</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>292.4</v>
+      </c>
+      <c r="C44" t="n">
         <v>292</v>
       </c>
-      <c r="C44" t="n">
-        <v>291.2</v>
-      </c>
       <c r="D44" t="n">
+        <v>292.4</v>
+      </c>
+      <c r="E44" t="n">
         <v>292</v>
       </c>
-      <c r="E44" t="n">
-        <v>291.2</v>
-      </c>
       <c r="F44" t="n">
-        <v>3682.4024</v>
+        <v>4566.3001</v>
       </c>
       <c r="G44" t="n">
-        <v>290.0499999999998</v>
+        <v>289.9966666666665</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>291.6</v>
+        <v>292</v>
       </c>
       <c r="C45" t="n">
-        <v>291.6</v>
+        <v>291.2</v>
       </c>
       <c r="D45" t="n">
-        <v>291.6</v>
+        <v>292</v>
       </c>
       <c r="E45" t="n">
-        <v>291.6</v>
+        <v>291.2</v>
       </c>
       <c r="F45" t="n">
-        <v>1300</v>
+        <v>3682.4024</v>
       </c>
       <c r="G45" t="n">
-        <v>290.1266666666664</v>
+        <v>290.0499999999998</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>291.4</v>
+        <v>291.6</v>
       </c>
       <c r="C46" t="n">
-        <v>291</v>
+        <v>291.6</v>
       </c>
       <c r="D46" t="n">
-        <v>291.4</v>
+        <v>291.6</v>
       </c>
       <c r="E46" t="n">
-        <v>291</v>
+        <v>291.6</v>
       </c>
       <c r="F46" t="n">
-        <v>559.8908</v>
+        <v>1300</v>
       </c>
       <c r="G46" t="n">
-        <v>290.1933333333331</v>
+        <v>290.1266666666664</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>291</v>
+        <v>291.4</v>
       </c>
       <c r="C47" t="n">
         <v>291</v>
       </c>
       <c r="D47" t="n">
-        <v>291</v>
+        <v>291.4</v>
       </c>
       <c r="E47" t="n">
         <v>291</v>
       </c>
       <c r="F47" t="n">
-        <v>2313.2224</v>
+        <v>559.8908</v>
       </c>
       <c r="G47" t="n">
-        <v>290.2599999999998</v>
+        <v>290.1933333333331</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>291</v>
       </c>
       <c r="F48" t="n">
-        <v>5112.4371</v>
+        <v>2313.2224</v>
       </c>
       <c r="G48" t="n">
-        <v>290.3099999999998</v>
+        <v>290.2599999999998</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>291</v>
       </c>
       <c r="F49" t="n">
-        <v>904.0039</v>
+        <v>5112.4371</v>
       </c>
       <c r="G49" t="n">
-        <v>290.3433333333331</v>
+        <v>290.3099999999998</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>292.3</v>
+        <v>291</v>
       </c>
       <c r="C50" t="n">
-        <v>292.3</v>
+        <v>291</v>
       </c>
       <c r="D50" t="n">
-        <v>292.3</v>
+        <v>291</v>
       </c>
       <c r="E50" t="n">
-        <v>292.3</v>
+        <v>291</v>
       </c>
       <c r="F50" t="n">
-        <v>8.531499999999999</v>
+        <v>904.0039</v>
       </c>
       <c r="G50" t="n">
-        <v>290.3816666666664</v>
+        <v>290.3433333333331</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>291</v>
+        <v>292.3</v>
       </c>
       <c r="C51" t="n">
-        <v>291</v>
+        <v>292.3</v>
       </c>
       <c r="D51" t="n">
-        <v>291</v>
+        <v>292.3</v>
       </c>
       <c r="E51" t="n">
-        <v>291</v>
+        <v>292.3</v>
       </c>
       <c r="F51" t="n">
-        <v>1014.0224</v>
+        <v>8.531499999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>290.4149999999998</v>
+        <v>290.3816666666664</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>291</v>
       </c>
       <c r="F52" t="n">
-        <v>618.3167</v>
+        <v>1014.0224</v>
       </c>
       <c r="G52" t="n">
-        <v>290.4716666666665</v>
+        <v>290.4149999999998</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>291.8</v>
+        <v>291</v>
       </c>
       <c r="C53" t="n">
-        <v>290.2</v>
+        <v>291</v>
       </c>
       <c r="D53" t="n">
-        <v>291.8</v>
+        <v>291</v>
       </c>
       <c r="E53" t="n">
-        <v>290.2</v>
+        <v>291</v>
       </c>
       <c r="F53" t="n">
-        <v>2240.7512</v>
+        <v>618.3167</v>
       </c>
       <c r="G53" t="n">
-        <v>290.5149999999998</v>
+        <v>290.4716666666665</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>291.9</v>
+        <v>291.8</v>
       </c>
       <c r="C54" t="n">
-        <v>291.9</v>
+        <v>290.2</v>
       </c>
       <c r="D54" t="n">
-        <v>291.9</v>
+        <v>291.8</v>
       </c>
       <c r="E54" t="n">
-        <v>291.9</v>
+        <v>290.2</v>
       </c>
       <c r="F54" t="n">
-        <v>1162.8931</v>
+        <v>2240.7512</v>
       </c>
       <c r="G54" t="n">
-        <v>290.5849999999999</v>
+        <v>290.5149999999998</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>291.9</v>
       </c>
       <c r="C55" t="n">
-        <v>290.2</v>
+        <v>291.9</v>
       </c>
       <c r="D55" t="n">
         <v>291.9</v>
       </c>
       <c r="E55" t="n">
-        <v>290.2</v>
+        <v>291.9</v>
       </c>
       <c r="F55" t="n">
-        <v>3921.5347</v>
+        <v>1162.8931</v>
       </c>
       <c r="G55" t="n">
-        <v>290.6033333333332</v>
+        <v>290.5849999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>291.9</v>
+      </c>
+      <c r="C56" t="n">
         <v>290.2</v>
       </c>
-      <c r="C56" t="n">
-        <v>290</v>
-      </c>
       <c r="D56" t="n">
+        <v>291.9</v>
+      </c>
+      <c r="E56" t="n">
         <v>290.2</v>
       </c>
-      <c r="E56" t="n">
-        <v>290</v>
-      </c>
       <c r="F56" t="n">
-        <v>3000</v>
+        <v>3921.5347</v>
       </c>
       <c r="G56" t="n">
-        <v>290.6183333333332</v>
+        <v>290.6033333333332</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>290.1</v>
+        <v>290.2</v>
       </c>
       <c r="C57" t="n">
-        <v>290.1</v>
+        <v>290</v>
       </c>
       <c r="D57" t="n">
-        <v>290.1</v>
+        <v>290.2</v>
       </c>
       <c r="E57" t="n">
-        <v>290.1</v>
+        <v>290</v>
       </c>
       <c r="F57" t="n">
-        <v>1203.4534</v>
+        <v>3000</v>
       </c>
       <c r="G57" t="n">
-        <v>290.6349999999999</v>
+        <v>290.6183333333332</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>290</v>
+        <v>290.1</v>
       </c>
       <c r="C58" t="n">
-        <v>290</v>
+        <v>290.1</v>
       </c>
       <c r="D58" t="n">
-        <v>290</v>
+        <v>290.1</v>
       </c>
       <c r="E58" t="n">
-        <v>290</v>
+        <v>290.1</v>
       </c>
       <c r="F58" t="n">
-        <v>1294.7665</v>
+        <v>1203.4534</v>
       </c>
       <c r="G58" t="n">
-        <v>290.6366666666665</v>
+        <v>290.6349999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>289.9</v>
+        <v>290</v>
       </c>
       <c r="C59" t="n">
-        <v>289.9</v>
+        <v>290</v>
       </c>
       <c r="D59" t="n">
-        <v>289.9</v>
+        <v>290</v>
       </c>
       <c r="E59" t="n">
-        <v>289.9</v>
+        <v>290</v>
       </c>
       <c r="F59" t="n">
-        <v>126.0511</v>
+        <v>1294.7665</v>
       </c>
       <c r="G59" t="n">
-        <v>290.6666666666666</v>
+        <v>290.6366666666665</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>289.7</v>
+        <v>289.9</v>
       </c>
       <c r="C60" t="n">
         <v>289.9</v>
@@ -2472,13 +2472,13 @@
         <v>289.9</v>
       </c>
       <c r="E60" t="n">
-        <v>289.6</v>
+        <v>289.9</v>
       </c>
       <c r="F60" t="n">
-        <v>2307.2785</v>
+        <v>126.0511</v>
       </c>
       <c r="G60" t="n">
-        <v>290.6966666666667</v>
+        <v>290.6666666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>289.9</v>
+        <v>289.7</v>
       </c>
       <c r="C61" t="n">
         <v>289.9</v>
@@ -2507,13 +2507,13 @@
         <v>289.9</v>
       </c>
       <c r="E61" t="n">
-        <v>289.9</v>
+        <v>289.6</v>
       </c>
       <c r="F61" t="n">
-        <v>3280</v>
+        <v>2307.2785</v>
       </c>
       <c r="G61" t="n">
-        <v>290.7266666666667</v>
+        <v>290.6966666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2536,19 +2536,19 @@
         <v>289.9</v>
       </c>
       <c r="C62" t="n">
-        <v>290</v>
+        <v>289.9</v>
       </c>
       <c r="D62" t="n">
-        <v>290</v>
+        <v>289.9</v>
       </c>
       <c r="E62" t="n">
         <v>289.9</v>
       </c>
       <c r="F62" t="n">
-        <v>4339.3016</v>
+        <v>3280</v>
       </c>
       <c r="G62" t="n">
-        <v>290.7566666666667</v>
+        <v>290.7266666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>290</v>
+        <v>289.9</v>
       </c>
       <c r="C63" t="n">
         <v>290</v>
@@ -2577,13 +2577,13 @@
         <v>290</v>
       </c>
       <c r="E63" t="n">
-        <v>290</v>
+        <v>289.9</v>
       </c>
       <c r="F63" t="n">
-        <v>173.3984</v>
+        <v>4339.3016</v>
       </c>
       <c r="G63" t="n">
-        <v>290.7866666666667</v>
+        <v>290.7566666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>291.3</v>
+        <v>290</v>
       </c>
       <c r="C64" t="n">
-        <v>291.6</v>
+        <v>290</v>
       </c>
       <c r="D64" t="n">
-        <v>291.6</v>
+        <v>290</v>
       </c>
       <c r="E64" t="n">
-        <v>291.3</v>
+        <v>290</v>
       </c>
       <c r="F64" t="n">
-        <v>5104.7971</v>
+        <v>173.3984</v>
       </c>
       <c r="G64" t="n">
-        <v>290.8233333333333</v>
+        <v>290.7866666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>291.7</v>
+        <v>291.3</v>
       </c>
       <c r="C65" t="n">
-        <v>291.9</v>
+        <v>291.6</v>
       </c>
       <c r="D65" t="n">
-        <v>291.9</v>
+        <v>291.6</v>
       </c>
       <c r="E65" t="n">
-        <v>291.7</v>
+        <v>291.3</v>
       </c>
       <c r="F65" t="n">
-        <v>10083.7518</v>
+        <v>5104.7971</v>
       </c>
       <c r="G65" t="n">
-        <v>290.865</v>
+        <v>290.8233333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>290.9</v>
+        <v>291.7</v>
       </c>
       <c r="C66" t="n">
-        <v>290.9</v>
+        <v>291.9</v>
       </c>
       <c r="D66" t="n">
-        <v>290.9</v>
+        <v>291.9</v>
       </c>
       <c r="E66" t="n">
-        <v>290.9</v>
+        <v>291.7</v>
       </c>
       <c r="F66" t="n">
-        <v>145.5436</v>
+        <v>10083.7518</v>
       </c>
       <c r="G66" t="n">
-        <v>290.88</v>
+        <v>290.865</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>290.2</v>
+        <v>290.9</v>
       </c>
       <c r="C67" t="n">
-        <v>290.2</v>
+        <v>290.9</v>
       </c>
       <c r="D67" t="n">
-        <v>290.2</v>
+        <v>290.9</v>
       </c>
       <c r="E67" t="n">
-        <v>290.2</v>
+        <v>290.9</v>
       </c>
       <c r="F67" t="n">
-        <v>843.8558</v>
+        <v>145.5436</v>
       </c>
       <c r="G67" t="n">
-        <v>290.8833333333333</v>
+        <v>290.88</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>290.2</v>
       </c>
       <c r="F68" t="n">
-        <v>4445.8038</v>
+        <v>843.8558</v>
       </c>
       <c r="G68" t="n">
-        <v>290.8966666666666</v>
+        <v>290.8833333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>290.1</v>
+        <v>290.2</v>
       </c>
       <c r="C69" t="n">
-        <v>290.1</v>
+        <v>290.2</v>
       </c>
       <c r="D69" t="n">
-        <v>290.1</v>
+        <v>290.2</v>
       </c>
       <c r="E69" t="n">
-        <v>290.1</v>
+        <v>290.2</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>4445.8038</v>
       </c>
       <c r="G69" t="n">
-        <v>290.9083333333332</v>
+        <v>290.8966666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2816,19 +2816,19 @@
         <v>290.1</v>
       </c>
       <c r="C70" t="n">
-        <v>291.8</v>
+        <v>290.1</v>
       </c>
       <c r="D70" t="n">
-        <v>291.8</v>
+        <v>290.1</v>
       </c>
       <c r="E70" t="n">
         <v>290.1</v>
       </c>
       <c r="F70" t="n">
-        <v>7300</v>
+        <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>290.9483333333332</v>
+        <v>290.9083333333332</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>291.8</v>
+        <v>290.1</v>
       </c>
       <c r="C71" t="n">
         <v>291.8</v>
@@ -2857,13 +2857,13 @@
         <v>291.8</v>
       </c>
       <c r="E71" t="n">
-        <v>291.8</v>
+        <v>290.1</v>
       </c>
       <c r="F71" t="n">
-        <v>798.3857</v>
+        <v>7300</v>
       </c>
       <c r="G71" t="n">
-        <v>290.9749999999999</v>
+        <v>290.9483333333332</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>290.3</v>
+        <v>291.8</v>
       </c>
       <c r="C72" t="n">
-        <v>290.3</v>
+        <v>291.8</v>
       </c>
       <c r="D72" t="n">
-        <v>290.3</v>
+        <v>291.8</v>
       </c>
       <c r="E72" t="n">
-        <v>290.3</v>
+        <v>291.8</v>
       </c>
       <c r="F72" t="n">
-        <v>668.2605</v>
+        <v>798.3857</v>
       </c>
       <c r="G72" t="n">
-        <v>290.9649999999999</v>
+        <v>290.9749999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>291.7</v>
+        <v>290.3</v>
       </c>
       <c r="C73" t="n">
-        <v>291.7</v>
+        <v>290.3</v>
       </c>
       <c r="D73" t="n">
-        <v>291.7</v>
+        <v>290.3</v>
       </c>
       <c r="E73" t="n">
-        <v>291.7</v>
+        <v>290.3</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>668.2605</v>
       </c>
       <c r="G73" t="n">
-        <v>290.9766666666665</v>
+        <v>290.9649999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>291.7</v>
       </c>
       <c r="F74" t="n">
-        <v>6857.1847</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>290.9966666666666</v>
+        <v>290.9766666666665</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>290.3</v>
+        <v>291.7</v>
       </c>
       <c r="C75" t="n">
-        <v>290.3</v>
+        <v>291.7</v>
       </c>
       <c r="D75" t="n">
-        <v>290.3</v>
+        <v>291.7</v>
       </c>
       <c r="E75" t="n">
-        <v>290.3</v>
+        <v>291.7</v>
       </c>
       <c r="F75" t="n">
-        <v>11616.5051</v>
+        <v>6857.1847</v>
       </c>
       <c r="G75" t="n">
-        <v>290.9933333333332</v>
+        <v>290.9966666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>291.8</v>
+        <v>290.3</v>
       </c>
       <c r="C76" t="n">
-        <v>291.9</v>
+        <v>290.3</v>
       </c>
       <c r="D76" t="n">
-        <v>291.9</v>
+        <v>290.3</v>
       </c>
       <c r="E76" t="n">
-        <v>291.8</v>
+        <v>290.3</v>
       </c>
       <c r="F76" t="n">
-        <v>1473.42492617</v>
+        <v>11616.5051</v>
       </c>
       <c r="G76" t="n">
-        <v>291.0166666666665</v>
+        <v>290.9933333333332</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,19 +3058,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>290.5</v>
+        <v>291.8</v>
       </c>
       <c r="C77" t="n">
-        <v>290.5</v>
+        <v>291.9</v>
       </c>
       <c r="D77" t="n">
-        <v>290.5</v>
+        <v>291.9</v>
       </c>
       <c r="E77" t="n">
-        <v>290.5</v>
+        <v>291.8</v>
       </c>
       <c r="F77" t="n">
-        <v>27.7692</v>
+        <v>1473.42492617</v>
       </c>
       <c r="G77" t="n">
         <v>291.0166666666665</v>
@@ -3105,7 +3105,7 @@
         <v>290.5</v>
       </c>
       <c r="F78" t="n">
-        <v>1393.7817</v>
+        <v>27.7692</v>
       </c>
       <c r="G78" t="n">
         <v>291.0166666666665</v>
@@ -3140,10 +3140,10 @@
         <v>290.5</v>
       </c>
       <c r="F79" t="n">
-        <v>704.6727</v>
+        <v>1393.7817</v>
       </c>
       <c r="G79" t="n">
-        <v>291.0049999999999</v>
+        <v>291.0166666666665</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>290.6</v>
+        <v>290.5</v>
       </c>
       <c r="C80" t="n">
-        <v>290.6</v>
+        <v>290.5</v>
       </c>
       <c r="D80" t="n">
-        <v>290.6</v>
+        <v>290.5</v>
       </c>
       <c r="E80" t="n">
-        <v>290.6</v>
+        <v>290.5</v>
       </c>
       <c r="F80" t="n">
-        <v>7027.5673</v>
+        <v>704.6727</v>
       </c>
       <c r="G80" t="n">
-        <v>290.9949999999998</v>
+        <v>291.0049999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>290.5</v>
+        <v>290.6</v>
       </c>
       <c r="C81" t="n">
-        <v>290.5</v>
+        <v>290.6</v>
       </c>
       <c r="D81" t="n">
-        <v>290.5</v>
+        <v>290.6</v>
       </c>
       <c r="E81" t="n">
-        <v>290.5</v>
+        <v>290.6</v>
       </c>
       <c r="F81" t="n">
-        <v>2384.2384</v>
+        <v>7027.5673</v>
       </c>
       <c r="G81" t="n">
-        <v>290.9933333333332</v>
+        <v>290.9949999999998</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>290.3</v>
+        <v>290.5</v>
       </c>
       <c r="C82" t="n">
-        <v>290.3</v>
+        <v>290.5</v>
       </c>
       <c r="D82" t="n">
-        <v>290.3</v>
+        <v>290.5</v>
       </c>
       <c r="E82" t="n">
-        <v>290.3</v>
+        <v>290.5</v>
       </c>
       <c r="F82" t="n">
-        <v>1910.7673</v>
+        <v>2384.2384</v>
       </c>
       <c r="G82" t="n">
-        <v>290.9583333333331</v>
+        <v>290.9933333333332</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3271,19 +3271,19 @@
         <v>290.3</v>
       </c>
       <c r="C83" t="n">
-        <v>290.1</v>
+        <v>290.3</v>
       </c>
       <c r="D83" t="n">
         <v>290.3</v>
       </c>
       <c r="E83" t="n">
-        <v>290.1</v>
+        <v>290.3</v>
       </c>
       <c r="F83" t="n">
-        <v>3021.3329</v>
+        <v>1910.7673</v>
       </c>
       <c r="G83" t="n">
-        <v>290.9216666666665</v>
+        <v>290.9583333333331</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>290</v>
+        <v>290.3</v>
       </c>
       <c r="C84" t="n">
-        <v>290</v>
+        <v>290.1</v>
       </c>
       <c r="D84" t="n">
-        <v>290</v>
+        <v>290.3</v>
       </c>
       <c r="E84" t="n">
-        <v>290</v>
+        <v>290.1</v>
       </c>
       <c r="F84" t="n">
-        <v>3021.3328</v>
+        <v>3021.3329</v>
       </c>
       <c r="G84" t="n">
-        <v>290.8849999999998</v>
+        <v>290.9216666666665</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>290.1</v>
+        <v>290</v>
       </c>
       <c r="C85" t="n">
-        <v>290.1</v>
+        <v>290</v>
       </c>
       <c r="D85" t="n">
-        <v>290.1</v>
+        <v>290</v>
       </c>
       <c r="E85" t="n">
-        <v>290.1</v>
+        <v>290</v>
       </c>
       <c r="F85" t="n">
-        <v>54.1227</v>
+        <v>3021.3328</v>
       </c>
       <c r="G85" t="n">
-        <v>290.8433333333331</v>
+        <v>290.8849999999998</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3385,10 +3385,10 @@
         <v>290.1</v>
       </c>
       <c r="F86" t="n">
-        <v>1482.031</v>
+        <v>54.1227</v>
       </c>
       <c r="G86" t="n">
-        <v>290.7999999999998</v>
+        <v>290.8433333333331</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>290.2</v>
+        <v>290.1</v>
       </c>
       <c r="C87" t="n">
-        <v>288.8</v>
+        <v>290.1</v>
       </c>
       <c r="D87" t="n">
-        <v>290.2</v>
+        <v>290.1</v>
       </c>
       <c r="E87" t="n">
-        <v>288.8</v>
+        <v>290.1</v>
       </c>
       <c r="F87" t="n">
-        <v>6436.0759</v>
+        <v>1482.031</v>
       </c>
       <c r="G87" t="n">
-        <v>290.7333333333331</v>
+        <v>290.7999999999998</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>290.5</v>
+        <v>290.2</v>
       </c>
       <c r="C88" t="n">
-        <v>290.5</v>
+        <v>288.8</v>
       </c>
       <c r="D88" t="n">
-        <v>290.5</v>
+        <v>290.2</v>
       </c>
       <c r="E88" t="n">
-        <v>290.5</v>
+        <v>288.8</v>
       </c>
       <c r="F88" t="n">
-        <v>1968.5983</v>
+        <v>6436.0759</v>
       </c>
       <c r="G88" t="n">
-        <v>290.6966666666664</v>
+        <v>290.7333333333331</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>290.5</v>
       </c>
       <c r="F89" t="n">
-        <v>1282</v>
+        <v>1968.5983</v>
       </c>
       <c r="G89" t="n">
-        <v>290.6616666666665</v>
+        <v>290.6966666666664</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>290.4</v>
+        <v>290.5</v>
       </c>
       <c r="C90" t="n">
-        <v>290.4</v>
+        <v>290.5</v>
       </c>
       <c r="D90" t="n">
-        <v>290.4</v>
+        <v>290.5</v>
       </c>
       <c r="E90" t="n">
-        <v>290.4</v>
+        <v>290.5</v>
       </c>
       <c r="F90" t="n">
-        <v>2067.7</v>
+        <v>1282</v>
       </c>
       <c r="G90" t="n">
-        <v>290.6583333333331</v>
+        <v>290.6616666666665</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>290.4</v>
       </c>
       <c r="F91" t="n">
-        <v>595.0135</v>
+        <v>2067.7</v>
       </c>
       <c r="G91" t="n">
-        <v>290.6549999999999</v>
+        <v>290.6583333333331</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>290.4</v>
       </c>
       <c r="F92" t="n">
-        <v>167.3668</v>
+        <v>595.0135</v>
       </c>
       <c r="G92" t="n">
-        <v>290.6516666666666</v>
+        <v>290.6549999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>290.8</v>
+        <v>290.4</v>
       </c>
       <c r="C93" t="n">
-        <v>290.8</v>
+        <v>290.4</v>
       </c>
       <c r="D93" t="n">
-        <v>290.8</v>
+        <v>290.4</v>
       </c>
       <c r="E93" t="n">
-        <v>290.8</v>
+        <v>290.4</v>
       </c>
       <c r="F93" t="n">
-        <v>281.0221</v>
+        <v>167.3668</v>
       </c>
       <c r="G93" t="n">
-        <v>290.6549999999999</v>
+        <v>290.6516666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>290.4</v>
+        <v>290.8</v>
       </c>
       <c r="C94" t="n">
-        <v>290.4</v>
+        <v>290.8</v>
       </c>
       <c r="D94" t="n">
-        <v>290.4</v>
+        <v>290.8</v>
       </c>
       <c r="E94" t="n">
-        <v>290.4</v>
+        <v>290.8</v>
       </c>
       <c r="F94" t="n">
-        <v>1473.4249</v>
+        <v>281.0221</v>
       </c>
       <c r="G94" t="n">
-        <v>290.6516666666666</v>
+        <v>290.6549999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>290.8</v>
+        <v>290.4</v>
       </c>
       <c r="C95" t="n">
-        <v>291.8</v>
+        <v>290.4</v>
       </c>
       <c r="D95" t="n">
-        <v>291.8</v>
+        <v>290.4</v>
       </c>
       <c r="E95" t="n">
-        <v>290.8</v>
+        <v>290.4</v>
       </c>
       <c r="F95" t="n">
-        <v>8450.2304</v>
+        <v>1473.4249</v>
       </c>
       <c r="G95" t="n">
-        <v>290.6816666666666</v>
+        <v>290.6516666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>290.8</v>
+      </c>
+      <c r="C96" t="n">
         <v>291.8</v>
-      </c>
-      <c r="C96" t="n">
-        <v>290.4</v>
       </c>
       <c r="D96" t="n">
         <v>291.8</v>
       </c>
       <c r="E96" t="n">
-        <v>290.4</v>
+        <v>290.8</v>
       </c>
       <c r="F96" t="n">
-        <v>460.3074</v>
+        <v>8450.2304</v>
       </c>
       <c r="G96" t="n">
-        <v>290.6883333333333</v>
+        <v>290.6816666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>290.4</v>
+        <v>291.8</v>
       </c>
       <c r="C97" t="n">
         <v>290.4</v>
       </c>
       <c r="D97" t="n">
-        <v>290.4</v>
+        <v>291.8</v>
       </c>
       <c r="E97" t="n">
         <v>290.4</v>
       </c>
       <c r="F97" t="n">
-        <v>1299.2897</v>
+        <v>460.3074</v>
       </c>
       <c r="G97" t="n">
-        <v>290.695</v>
+        <v>290.6883333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>290.4</v>
       </c>
       <c r="C98" t="n">
-        <v>289.1</v>
+        <v>290.4</v>
       </c>
       <c r="D98" t="n">
         <v>290.4</v>
       </c>
       <c r="E98" t="n">
-        <v>289.1</v>
+        <v>290.4</v>
       </c>
       <c r="F98" t="n">
-        <v>7957.4612</v>
+        <v>1299.2897</v>
       </c>
       <c r="G98" t="n">
-        <v>290.6899999999999</v>
+        <v>290.695</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>289.5</v>
+        <v>290.4</v>
       </c>
       <c r="C99" t="n">
-        <v>289.5</v>
+        <v>289.1</v>
       </c>
       <c r="D99" t="n">
-        <v>289.5</v>
+        <v>290.4</v>
       </c>
       <c r="E99" t="n">
-        <v>289.5</v>
+        <v>289.1</v>
       </c>
       <c r="F99" t="n">
-        <v>2351.3756</v>
+        <v>7957.4612</v>
       </c>
       <c r="G99" t="n">
-        <v>290.6816666666666</v>
+        <v>290.6899999999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>289.2</v>
+        <v>289.5</v>
       </c>
       <c r="C100" t="n">
-        <v>288.2</v>
+        <v>289.5</v>
       </c>
       <c r="D100" t="n">
-        <v>289.2</v>
+        <v>289.5</v>
       </c>
       <c r="E100" t="n">
-        <v>288.2</v>
+        <v>289.5</v>
       </c>
       <c r="F100" t="n">
-        <v>17250.7124</v>
+        <v>2351.3756</v>
       </c>
       <c r="G100" t="n">
-        <v>290.6383333333333</v>
+        <v>290.6816666666666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>289.1</v>
+        <v>289.2</v>
       </c>
       <c r="C101" t="n">
-        <v>289.1</v>
+        <v>288.2</v>
       </c>
       <c r="D101" t="n">
-        <v>289.1</v>
+        <v>289.2</v>
       </c>
       <c r="E101" t="n">
-        <v>289.1</v>
+        <v>288.2</v>
       </c>
       <c r="F101" t="n">
-        <v>4847.1038</v>
+        <v>17250.7124</v>
       </c>
       <c r="G101" t="n">
-        <v>290.5983333333333</v>
+        <v>290.6383333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>289.1</v>
       </c>
       <c r="F102" t="n">
-        <v>15.1194</v>
+        <v>4847.1038</v>
       </c>
       <c r="G102" t="n">
-        <v>290.5433333333332</v>
+        <v>290.5983333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>289.1</v>
       </c>
       <c r="F103" t="n">
-        <v>304.1639</v>
+        <v>15.1194</v>
       </c>
       <c r="G103" t="n">
-        <v>290.4949999999999</v>
+        <v>290.5433333333332</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>288.8</v>
+        <v>289.1</v>
       </c>
       <c r="C104" t="n">
-        <v>288.8</v>
+        <v>289.1</v>
       </c>
       <c r="D104" t="n">
-        <v>288.8</v>
+        <v>289.1</v>
       </c>
       <c r="E104" t="n">
-        <v>288.8</v>
+        <v>289.1</v>
       </c>
       <c r="F104" t="n">
-        <v>498.9996</v>
+        <v>304.1639</v>
       </c>
       <c r="G104" t="n">
-        <v>290.4549999999999</v>
+        <v>290.4949999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>288.8</v>
       </c>
       <c r="F105" t="n">
-        <v>1179.2137</v>
+        <v>498.9996</v>
       </c>
       <c r="G105" t="n">
-        <v>290.4083333333332</v>
+        <v>290.4549999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>288.1</v>
+        <v>288.8</v>
       </c>
       <c r="C106" t="n">
-        <v>287.6</v>
+        <v>288.8</v>
       </c>
       <c r="D106" t="n">
-        <v>288.1</v>
+        <v>288.8</v>
       </c>
       <c r="E106" t="n">
-        <v>287.6</v>
+        <v>288.8</v>
       </c>
       <c r="F106" t="n">
-        <v>4311.4322</v>
+        <v>1179.2137</v>
       </c>
       <c r="G106" t="n">
-        <v>290.3516666666665</v>
+        <v>290.4083333333332</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>288.8</v>
+        <v>288.1</v>
       </c>
       <c r="C107" t="n">
-        <v>289.1</v>
+        <v>287.6</v>
       </c>
       <c r="D107" t="n">
-        <v>289.1</v>
+        <v>288.1</v>
       </c>
       <c r="E107" t="n">
-        <v>288.8</v>
+        <v>287.6</v>
       </c>
       <c r="F107" t="n">
-        <v>3.99515748</v>
+        <v>4311.4322</v>
       </c>
       <c r="G107" t="n">
-        <v>290.3199999999998</v>
+        <v>290.3516666666665</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>289.1</v>
+        <v>288.8</v>
       </c>
       <c r="C108" t="n">
         <v>289.1</v>
@@ -4152,13 +4152,13 @@
         <v>289.1</v>
       </c>
       <c r="E108" t="n">
-        <v>289.1</v>
+        <v>288.8</v>
       </c>
       <c r="F108" t="n">
-        <v>1754.7345</v>
+        <v>3.99515748</v>
       </c>
       <c r="G108" t="n">
-        <v>290.2883333333331</v>
+        <v>290.3199999999998</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>289</v>
+        <v>289.1</v>
       </c>
       <c r="C109" t="n">
-        <v>289</v>
+        <v>289.1</v>
       </c>
       <c r="D109" t="n">
-        <v>289</v>
+        <v>289.1</v>
       </c>
       <c r="E109" t="n">
-        <v>289</v>
+        <v>289.1</v>
       </c>
       <c r="F109" t="n">
-        <v>2761.3447</v>
+        <v>1754.7345</v>
       </c>
       <c r="G109" t="n">
-        <v>290.2549999999998</v>
+        <v>290.2883333333331</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>289.6</v>
+        <v>289</v>
       </c>
       <c r="C110" t="n">
-        <v>289.6</v>
+        <v>289</v>
       </c>
       <c r="D110" t="n">
-        <v>289.6</v>
+        <v>289</v>
       </c>
       <c r="E110" t="n">
-        <v>289.6</v>
+        <v>289</v>
       </c>
       <c r="F110" t="n">
-        <v>398.4859</v>
+        <v>2761.3447</v>
       </c>
       <c r="G110" t="n">
-        <v>290.2099999999998</v>
+        <v>290.2549999999998</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4251,19 +4251,19 @@
         <v>289.6</v>
       </c>
       <c r="C111" t="n">
-        <v>289.8</v>
+        <v>289.6</v>
       </c>
       <c r="D111" t="n">
-        <v>290.6</v>
+        <v>289.6</v>
       </c>
       <c r="E111" t="n">
         <v>289.6</v>
       </c>
       <c r="F111" t="n">
-        <v>8887.194299999999</v>
+        <v>398.4859</v>
       </c>
       <c r="G111" t="n">
-        <v>290.1899999999998</v>
+        <v>290.2099999999998</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>289.9</v>
+        <v>289.6</v>
       </c>
       <c r="C112" t="n">
-        <v>290.7</v>
+        <v>289.8</v>
       </c>
       <c r="D112" t="n">
-        <v>290.7</v>
+        <v>290.6</v>
       </c>
       <c r="E112" t="n">
-        <v>289.9</v>
+        <v>289.6</v>
       </c>
       <c r="F112" t="n">
-        <v>217.24430683</v>
+        <v>8887.194299999999</v>
       </c>
       <c r="G112" t="n">
-        <v>290.1849999999998</v>
+        <v>290.1899999999998</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>290.6</v>
+        <v>289.9</v>
       </c>
       <c r="C113" t="n">
-        <v>290.6</v>
+        <v>290.7</v>
       </c>
       <c r="D113" t="n">
-        <v>290.6</v>
+        <v>290.7</v>
       </c>
       <c r="E113" t="n">
-        <v>290.6</v>
+        <v>289.9</v>
       </c>
       <c r="F113" t="n">
-        <v>499.8371</v>
+        <v>217.24430683</v>
       </c>
       <c r="G113" t="n">
-        <v>290.1916666666664</v>
+        <v>290.1849999999998</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4365,10 +4365,10 @@
         <v>290.6</v>
       </c>
       <c r="F114" t="n">
-        <v>1373.4765</v>
+        <v>499.8371</v>
       </c>
       <c r="G114" t="n">
-        <v>290.1699999999997</v>
+        <v>290.1916666666664</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,10 +4400,10 @@
         <v>290.6</v>
       </c>
       <c r="F115" t="n">
-        <v>1304.8027</v>
+        <v>1373.4765</v>
       </c>
       <c r="G115" t="n">
-        <v>290.1766666666663</v>
+        <v>290.1699999999997</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>290.5</v>
+        <v>290.6</v>
       </c>
       <c r="C116" t="n">
-        <v>290.4</v>
+        <v>290.6</v>
       </c>
       <c r="D116" t="n">
-        <v>290.5</v>
+        <v>290.6</v>
       </c>
       <c r="E116" t="n">
-        <v>290.3</v>
+        <v>290.6</v>
       </c>
       <c r="F116" t="n">
-        <v>16434.0589</v>
+        <v>1304.8027</v>
       </c>
       <c r="G116" t="n">
-        <v>290.1833333333331</v>
+        <v>290.1766666666663</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>290.4</v>
+        <v>290.5</v>
       </c>
       <c r="C117" t="n">
         <v>290.4</v>
       </c>
       <c r="D117" t="n">
-        <v>290.4</v>
+        <v>290.5</v>
       </c>
       <c r="E117" t="n">
-        <v>290.4</v>
+        <v>290.3</v>
       </c>
       <c r="F117" t="n">
-        <v>8372.834800000001</v>
+        <v>16434.0589</v>
       </c>
       <c r="G117" t="n">
-        <v>290.1883333333331</v>
+        <v>290.1833333333331</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>289</v>
+        <v>290.4</v>
       </c>
       <c r="C118" t="n">
-        <v>289</v>
+        <v>290.4</v>
       </c>
       <c r="D118" t="n">
-        <v>289</v>
+        <v>290.4</v>
       </c>
       <c r="E118" t="n">
-        <v>289</v>
+        <v>290.4</v>
       </c>
       <c r="F118" t="n">
-        <v>152.0849</v>
+        <v>8372.834800000001</v>
       </c>
       <c r="G118" t="n">
-        <v>290.1716666666664</v>
+        <v>290.1883333333331</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,10 +4540,10 @@
         <v>289</v>
       </c>
       <c r="F119" t="n">
-        <v>1068.3204</v>
+        <v>152.0849</v>
       </c>
       <c r="G119" t="n">
-        <v>290.1566666666664</v>
+        <v>290.1716666666664</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,10 +4575,10 @@
         <v>289</v>
       </c>
       <c r="F120" t="n">
-        <v>1823.1093</v>
+        <v>1068.3204</v>
       </c>
       <c r="G120" t="n">
-        <v>290.1416666666664</v>
+        <v>290.1566666666664</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4610,10 +4610,10 @@
         <v>289</v>
       </c>
       <c r="F121" t="n">
-        <v>746.7518</v>
+        <v>1823.1093</v>
       </c>
       <c r="G121" t="n">
-        <v>290.1266666666663</v>
+        <v>290.1416666666664</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4645,10 +4645,10 @@
         <v>289</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0001</v>
+        <v>746.7518</v>
       </c>
       <c r="G122" t="n">
-        <v>290.1099999999997</v>
+        <v>290.1266666666663</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>290.3</v>
+        <v>289</v>
       </c>
       <c r="C123" t="n">
-        <v>290.3</v>
+        <v>289</v>
       </c>
       <c r="D123" t="n">
-        <v>290.4</v>
+        <v>289</v>
       </c>
       <c r="E123" t="n">
-        <v>290.3</v>
+        <v>289</v>
       </c>
       <c r="F123" t="n">
-        <v>11332.96043746</v>
+        <v>0.0001</v>
       </c>
       <c r="G123" t="n">
-        <v>290.1149999999997</v>
+        <v>290.1099999999997</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>289.2</v>
+        <v>290.3</v>
       </c>
       <c r="C124" t="n">
-        <v>289.2</v>
+        <v>290.3</v>
       </c>
       <c r="D124" t="n">
-        <v>289.2</v>
+        <v>290.4</v>
       </c>
       <c r="E124" t="n">
-        <v>289.2</v>
+        <v>290.3</v>
       </c>
       <c r="F124" t="n">
-        <v>1000</v>
+        <v>11332.96043746</v>
       </c>
       <c r="G124" t="n">
-        <v>290.0749999999997</v>
+        <v>290.1149999999997</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>290.3</v>
+        <v>289.2</v>
       </c>
       <c r="C125" t="n">
-        <v>290.3</v>
+        <v>289.2</v>
       </c>
       <c r="D125" t="n">
-        <v>290.3</v>
+        <v>289.2</v>
       </c>
       <c r="E125" t="n">
-        <v>290.3</v>
+        <v>289.2</v>
       </c>
       <c r="F125" t="n">
-        <v>1449.8127</v>
+        <v>1000</v>
       </c>
       <c r="G125" t="n">
-        <v>290.048333333333</v>
+        <v>290.0749999999997</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4785,10 +4785,10 @@
         <v>290.3</v>
       </c>
       <c r="F126" t="n">
-        <v>2</v>
+        <v>1449.8127</v>
       </c>
       <c r="G126" t="n">
-        <v>290.038333333333</v>
+        <v>290.048333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4820,10 +4820,10 @@
         <v>290.3</v>
       </c>
       <c r="F127" t="n">
-        <v>1070.321</v>
+        <v>2</v>
       </c>
       <c r="G127" t="n">
-        <v>290.0399999999996</v>
+        <v>290.038333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4846,19 +4846,19 @@
         <v>290.3</v>
       </c>
       <c r="C128" t="n">
-        <v>290.4</v>
+        <v>290.3</v>
       </c>
       <c r="D128" t="n">
-        <v>290.4</v>
+        <v>290.3</v>
       </c>
       <c r="E128" t="n">
         <v>290.3</v>
       </c>
       <c r="F128" t="n">
-        <v>3862.8605</v>
+        <v>1070.321</v>
       </c>
       <c r="G128" t="n">
-        <v>290.043333333333</v>
+        <v>290.0399999999996</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>290.3</v>
+      </c>
+      <c r="C129" t="n">
         <v>290.4</v>
-      </c>
-      <c r="C129" t="n">
-        <v>289.6</v>
       </c>
       <c r="D129" t="n">
         <v>290.4</v>
       </c>
       <c r="E129" t="n">
-        <v>289.6</v>
+        <v>290.3</v>
       </c>
       <c r="F129" t="n">
-        <v>13913.6718</v>
+        <v>3862.8605</v>
       </c>
       <c r="G129" t="n">
-        <v>290.0349999999996</v>
+        <v>290.043333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>290.6</v>
+        <v>290.4</v>
       </c>
       <c r="C130" t="n">
-        <v>290.6</v>
+        <v>289.6</v>
       </c>
       <c r="D130" t="n">
-        <v>290.6</v>
+        <v>290.4</v>
       </c>
       <c r="E130" t="n">
-        <v>290.6</v>
+        <v>289.6</v>
       </c>
       <c r="F130" t="n">
-        <v>488.6986</v>
+        <v>13913.6718</v>
       </c>
       <c r="G130" t="n">
-        <v>290.0149999999996</v>
+        <v>290.0349999999996</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>290.6</v>
       </c>
       <c r="F131" t="n">
-        <v>419.1357</v>
+        <v>488.6986</v>
       </c>
       <c r="G131" t="n">
-        <v>289.9949999999996</v>
+        <v>290.0149999999996</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>289.6</v>
+        <v>290.6</v>
       </c>
       <c r="C132" t="n">
-        <v>289.8</v>
+        <v>290.6</v>
       </c>
       <c r="D132" t="n">
-        <v>289.8</v>
+        <v>290.6</v>
       </c>
       <c r="E132" t="n">
-        <v>289.6</v>
+        <v>290.6</v>
       </c>
       <c r="F132" t="n">
-        <v>4775.9456</v>
+        <v>419.1357</v>
       </c>
       <c r="G132" t="n">
-        <v>289.9866666666663</v>
+        <v>289.9949999999996</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5021,19 +5021,19 @@
         <v>289.6</v>
       </c>
       <c r="C133" t="n">
-        <v>289.6</v>
+        <v>289.8</v>
       </c>
       <c r="D133" t="n">
-        <v>289.6</v>
+        <v>289.8</v>
       </c>
       <c r="E133" t="n">
         <v>289.6</v>
       </c>
       <c r="F133" t="n">
-        <v>13.4693</v>
+        <v>4775.9456</v>
       </c>
       <c r="G133" t="n">
-        <v>289.9516666666662</v>
+        <v>289.9866666666663</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>289.5</v>
+        <v>289.6</v>
       </c>
       <c r="C134" t="n">
-        <v>289.5</v>
+        <v>289.6</v>
       </c>
       <c r="D134" t="n">
-        <v>289.5</v>
+        <v>289.6</v>
       </c>
       <c r="E134" t="n">
-        <v>289.5</v>
+        <v>289.6</v>
       </c>
       <c r="F134" t="n">
-        <v>64.90940000000001</v>
+        <v>13.4693</v>
       </c>
       <c r="G134" t="n">
-        <v>289.9149999999996</v>
+        <v>289.9516666666662</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>290.6</v>
+        <v>289.5</v>
       </c>
       <c r="C135" t="n">
-        <v>290.6</v>
+        <v>289.5</v>
       </c>
       <c r="D135" t="n">
-        <v>290.6</v>
+        <v>289.5</v>
       </c>
       <c r="E135" t="n">
-        <v>290.6</v>
+        <v>289.5</v>
       </c>
       <c r="F135" t="n">
-        <v>15.29249827</v>
+        <v>64.90940000000001</v>
       </c>
       <c r="G135" t="n">
-        <v>289.9199999999995</v>
+        <v>289.9149999999996</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>289.5</v>
+        <v>290.6</v>
       </c>
       <c r="C136" t="n">
-        <v>289.5</v>
+        <v>290.6</v>
       </c>
       <c r="D136" t="n">
-        <v>289.5</v>
+        <v>290.6</v>
       </c>
       <c r="E136" t="n">
-        <v>289.5</v>
+        <v>290.6</v>
       </c>
       <c r="F136" t="n">
-        <v>2418.3116</v>
+        <v>15.29249827</v>
       </c>
       <c r="G136" t="n">
-        <v>289.8799999999995</v>
+        <v>289.9199999999995</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>289.3</v>
+        <v>289.5</v>
       </c>
       <c r="C137" t="n">
-        <v>289</v>
+        <v>289.5</v>
       </c>
       <c r="D137" t="n">
-        <v>289.3</v>
+        <v>289.5</v>
       </c>
       <c r="E137" t="n">
-        <v>289</v>
+        <v>289.5</v>
       </c>
       <c r="F137" t="n">
-        <v>2753.3632</v>
+        <v>2418.3116</v>
       </c>
       <c r="G137" t="n">
-        <v>289.8549999999995</v>
+        <v>289.8799999999995</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>288.8</v>
+        <v>289.3</v>
       </c>
       <c r="C138" t="n">
-        <v>288.4</v>
+        <v>289</v>
       </c>
       <c r="D138" t="n">
-        <v>288.8</v>
+        <v>289.3</v>
       </c>
       <c r="E138" t="n">
-        <v>288.4</v>
+        <v>289</v>
       </c>
       <c r="F138" t="n">
-        <v>9141.9704</v>
+        <v>2753.3632</v>
       </c>
       <c r="G138" t="n">
-        <v>289.8199999999995</v>
+        <v>289.8549999999995</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>288.5</v>
+        <v>288.8</v>
       </c>
       <c r="C139" t="n">
-        <v>288.5</v>
+        <v>288.4</v>
       </c>
       <c r="D139" t="n">
-        <v>288.5</v>
+        <v>288.8</v>
       </c>
       <c r="E139" t="n">
-        <v>288.5</v>
+        <v>288.4</v>
       </c>
       <c r="F139" t="n">
-        <v>10786.3642</v>
+        <v>9141.9704</v>
       </c>
       <c r="G139" t="n">
-        <v>289.7866666666662</v>
+        <v>289.8199999999995</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5275,10 +5275,10 @@
         <v>288.5</v>
       </c>
       <c r="F140" t="n">
-        <v>170.8851</v>
+        <v>10786.3642</v>
       </c>
       <c r="G140" t="n">
-        <v>289.7516666666662</v>
+        <v>289.7866666666662</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>289.8</v>
+        <v>288.5</v>
       </c>
       <c r="C141" t="n">
-        <v>289.8</v>
+        <v>288.5</v>
       </c>
       <c r="D141" t="n">
-        <v>289.8</v>
+        <v>288.5</v>
       </c>
       <c r="E141" t="n">
-        <v>289.8</v>
+        <v>288.5</v>
       </c>
       <c r="F141" t="n">
-        <v>15.71773636</v>
+        <v>170.8851</v>
       </c>
       <c r="G141" t="n">
-        <v>289.7399999999996</v>
+        <v>289.7516666666662</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>288.6</v>
+        <v>289.8</v>
       </c>
       <c r="C142" t="n">
-        <v>288.6</v>
+        <v>289.8</v>
       </c>
       <c r="D142" t="n">
-        <v>288.6</v>
+        <v>289.8</v>
       </c>
       <c r="E142" t="n">
-        <v>288.6</v>
+        <v>289.8</v>
       </c>
       <c r="F142" t="n">
-        <v>449.2385</v>
+        <v>15.71773636</v>
       </c>
       <c r="G142" t="n">
-        <v>289.7116666666662</v>
+        <v>289.7399999999996</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5371,19 +5371,19 @@
         <v>288.6</v>
       </c>
       <c r="C143" t="n">
-        <v>288</v>
+        <v>288.6</v>
       </c>
       <c r="D143" t="n">
         <v>288.6</v>
       </c>
       <c r="E143" t="n">
-        <v>288</v>
+        <v>288.6</v>
       </c>
       <c r="F143" t="n">
-        <v>6405.5703</v>
+        <v>449.2385</v>
       </c>
       <c r="G143" t="n">
-        <v>289.6766666666662</v>
+        <v>289.7116666666662</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>289.6</v>
+        <v>288.6</v>
       </c>
       <c r="C144" t="n">
-        <v>289.6</v>
+        <v>288</v>
       </c>
       <c r="D144" t="n">
-        <v>289.6</v>
+        <v>288.6</v>
       </c>
       <c r="E144" t="n">
-        <v>289.6</v>
+        <v>288</v>
       </c>
       <c r="F144" t="n">
-        <v>853.2702</v>
+        <v>6405.5703</v>
       </c>
       <c r="G144" t="n">
-        <v>289.6699999999995</v>
+        <v>289.6766666666662</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>289.5</v>
+        <v>289.6</v>
       </c>
       <c r="C145" t="n">
-        <v>289.5</v>
+        <v>289.6</v>
       </c>
       <c r="D145" t="n">
-        <v>289.5</v>
+        <v>289.6</v>
       </c>
       <c r="E145" t="n">
-        <v>289.5</v>
+        <v>289.6</v>
       </c>
       <c r="F145" t="n">
-        <v>515.6468</v>
+        <v>853.2702</v>
       </c>
       <c r="G145" t="n">
-        <v>289.6599999999996</v>
+        <v>289.6699999999995</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5485,10 +5485,10 @@
         <v>289.5</v>
       </c>
       <c r="F146" t="n">
-        <v>1005.7031</v>
+        <v>515.6468</v>
       </c>
       <c r="G146" t="n">
-        <v>289.6499999999996</v>
+        <v>289.6599999999996</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>289.1</v>
+        <v>289.5</v>
       </c>
       <c r="C147" t="n">
-        <v>288.6</v>
+        <v>289.5</v>
       </c>
       <c r="D147" t="n">
-        <v>289.1</v>
+        <v>289.5</v>
       </c>
       <c r="E147" t="n">
-        <v>288.1</v>
+        <v>289.5</v>
       </c>
       <c r="F147" t="n">
-        <v>7482.4196</v>
+        <v>1005.7031</v>
       </c>
       <c r="G147" t="n">
-        <v>289.6466666666662</v>
+        <v>289.6499999999996</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>289.8</v>
+        <v>289.1</v>
       </c>
       <c r="C148" t="n">
-        <v>289</v>
+        <v>288.6</v>
       </c>
       <c r="D148" t="n">
-        <v>289.8</v>
+        <v>289.1</v>
       </c>
       <c r="E148" t="n">
-        <v>289</v>
+        <v>288.1</v>
       </c>
       <c r="F148" t="n">
-        <v>1973.5473</v>
+        <v>7482.4196</v>
       </c>
       <c r="G148" t="n">
-        <v>289.6216666666662</v>
+        <v>289.6466666666662</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>289</v>
+        <v>289.8</v>
       </c>
       <c r="C149" t="n">
         <v>289</v>
       </c>
       <c r="D149" t="n">
-        <v>289</v>
+        <v>289.8</v>
       </c>
       <c r="E149" t="n">
         <v>289</v>
       </c>
       <c r="F149" t="n">
-        <v>529.6488000000001</v>
+        <v>1973.5473</v>
       </c>
       <c r="G149" t="n">
-        <v>289.5966666666662</v>
+        <v>289.6216666666662</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5625,10 +5625,10 @@
         <v>289</v>
       </c>
       <c r="F150" t="n">
-        <v>647.2742</v>
+        <v>529.6488000000001</v>
       </c>
       <c r="G150" t="n">
-        <v>289.5733333333329</v>
+        <v>289.5966666666662</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>288.6</v>
+        <v>289</v>
       </c>
       <c r="C151" t="n">
-        <v>288.6</v>
+        <v>289</v>
       </c>
       <c r="D151" t="n">
-        <v>288.6</v>
+        <v>289</v>
       </c>
       <c r="E151" t="n">
-        <v>288.6</v>
+        <v>289</v>
       </c>
       <c r="F151" t="n">
-        <v>660.1387999999999</v>
+        <v>647.2742</v>
       </c>
       <c r="G151" t="n">
-        <v>289.5433333333328</v>
+        <v>289.5733333333329</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>288.5</v>
+        <v>288.6</v>
       </c>
       <c r="C152" t="n">
-        <v>288.3</v>
+        <v>288.6</v>
       </c>
       <c r="D152" t="n">
-        <v>288.5</v>
+        <v>288.6</v>
       </c>
       <c r="E152" t="n">
-        <v>288.3</v>
+        <v>288.6</v>
       </c>
       <c r="F152" t="n">
-        <v>1824.6303</v>
+        <v>660.1387999999999</v>
       </c>
       <c r="G152" t="n">
-        <v>289.5083333333328</v>
+        <v>289.5433333333328</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>288.5</v>
+      </c>
+      <c r="C153" t="n">
         <v>288.3</v>
       </c>
-      <c r="C153" t="n">
-        <v>288</v>
-      </c>
       <c r="D153" t="n">
-        <v>289.9</v>
+        <v>288.5</v>
       </c>
       <c r="E153" t="n">
-        <v>288</v>
+        <v>288.3</v>
       </c>
       <c r="F153" t="n">
-        <v>37219.4616</v>
+        <v>1824.6303</v>
       </c>
       <c r="G153" t="n">
-        <v>289.4616666666661</v>
+        <v>289.5083333333328</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>287.7</v>
+        <v>288.3</v>
       </c>
       <c r="C154" t="n">
-        <v>287.7</v>
+        <v>288</v>
       </c>
       <c r="D154" t="n">
-        <v>287.7</v>
+        <v>289.9</v>
       </c>
       <c r="E154" t="n">
-        <v>287.7</v>
+        <v>288</v>
       </c>
       <c r="F154" t="n">
-        <v>19302.5616</v>
+        <v>37219.4616</v>
       </c>
       <c r="G154" t="n">
-        <v>289.4166666666661</v>
+        <v>289.4616666666661</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5800,10 +5800,10 @@
         <v>287.7</v>
       </c>
       <c r="F155" t="n">
-        <v>108.6258</v>
+        <v>19302.5616</v>
       </c>
       <c r="G155" t="n">
-        <v>289.3483333333328</v>
+        <v>289.4166666666661</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>288</v>
+        <v>287.7</v>
       </c>
       <c r="C156" t="n">
-        <v>288</v>
+        <v>287.7</v>
       </c>
       <c r="D156" t="n">
-        <v>288</v>
+        <v>287.7</v>
       </c>
       <c r="E156" t="n">
-        <v>288</v>
+        <v>287.7</v>
       </c>
       <c r="F156" t="n">
-        <v>1482.1295</v>
+        <v>108.6258</v>
       </c>
       <c r="G156" t="n">
-        <v>289.3083333333328</v>
+        <v>289.3483333333328</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5870,10 +5870,10 @@
         <v>288</v>
       </c>
       <c r="F157" t="n">
-        <v>115.9547</v>
+        <v>1482.1295</v>
       </c>
       <c r="G157" t="n">
-        <v>289.2683333333327</v>
+        <v>289.3083333333328</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5905,10 +5905,10 @@
         <v>288</v>
       </c>
       <c r="F158" t="n">
-        <v>304.4138</v>
+        <v>115.9547</v>
       </c>
       <c r="G158" t="n">
-        <v>289.2499999999994</v>
+        <v>289.2683333333327</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>288.1</v>
+        <v>288</v>
       </c>
       <c r="C159" t="n">
-        <v>287.3</v>
+        <v>288</v>
       </c>
       <c r="D159" t="n">
-        <v>288.1</v>
+        <v>288</v>
       </c>
       <c r="E159" t="n">
-        <v>287.3</v>
+        <v>288</v>
       </c>
       <c r="F159" t="n">
-        <v>4280</v>
+        <v>304.4138</v>
       </c>
       <c r="G159" t="n">
-        <v>289.2133333333328</v>
+        <v>289.2499999999994</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>287.3</v>
+        <v>288.1</v>
       </c>
       <c r="C160" t="n">
         <v>287.3</v>
       </c>
       <c r="D160" t="n">
-        <v>287.3</v>
+        <v>288.1</v>
       </c>
       <c r="E160" t="n">
         <v>287.3</v>
       </c>
       <c r="F160" t="n">
-        <v>1050.9311</v>
+        <v>4280</v>
       </c>
       <c r="G160" t="n">
-        <v>289.1983333333328</v>
+        <v>289.2133333333328</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>287.4</v>
+        <v>287.3</v>
       </c>
       <c r="C161" t="n">
-        <v>287.4</v>
+        <v>287.3</v>
       </c>
       <c r="D161" t="n">
-        <v>287.4</v>
+        <v>287.3</v>
       </c>
       <c r="E161" t="n">
-        <v>287.4</v>
+        <v>287.3</v>
       </c>
       <c r="F161" t="n">
-        <v>1500</v>
+        <v>1050.9311</v>
       </c>
       <c r="G161" t="n">
-        <v>289.1699999999994</v>
+        <v>289.1983333333328</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>289.4</v>
+        <v>287.4</v>
       </c>
       <c r="C162" t="n">
-        <v>289.4</v>
+        <v>287.4</v>
       </c>
       <c r="D162" t="n">
-        <v>289.4</v>
+        <v>287.4</v>
       </c>
       <c r="E162" t="n">
-        <v>289.4</v>
+        <v>287.4</v>
       </c>
       <c r="F162" t="n">
-        <v>15.35590877</v>
+        <v>1500</v>
       </c>
       <c r="G162" t="n">
-        <v>289.1749999999995</v>
+        <v>289.1699999999994</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>289.8</v>
+        <v>289.4</v>
       </c>
       <c r="C163" t="n">
-        <v>289.8</v>
+        <v>289.4</v>
       </c>
       <c r="D163" t="n">
-        <v>289.8</v>
+        <v>289.4</v>
       </c>
       <c r="E163" t="n">
-        <v>289.8</v>
+        <v>289.4</v>
       </c>
       <c r="F163" t="n">
-        <v>42.5578</v>
+        <v>15.35590877</v>
       </c>
       <c r="G163" t="n">
-        <v>289.1866666666662</v>
+        <v>289.1749999999995</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>289.7</v>
+        <v>289.8</v>
       </c>
       <c r="C164" t="n">
-        <v>289.7</v>
+        <v>289.8</v>
       </c>
       <c r="D164" t="n">
-        <v>289.7</v>
+        <v>289.8</v>
       </c>
       <c r="E164" t="n">
-        <v>289.7</v>
+        <v>289.8</v>
       </c>
       <c r="F164" t="n">
-        <v>483.25854332</v>
+        <v>42.5578</v>
       </c>
       <c r="G164" t="n">
-        <v>289.2016666666662</v>
+        <v>289.1866666666662</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>287.8</v>
+        <v>289.7</v>
       </c>
       <c r="C165" t="n">
-        <v>287.6</v>
+        <v>289.7</v>
       </c>
       <c r="D165" t="n">
-        <v>287.8</v>
+        <v>289.7</v>
       </c>
       <c r="E165" t="n">
-        <v>287.6</v>
+        <v>289.7</v>
       </c>
       <c r="F165" t="n">
-        <v>1754.7345</v>
+        <v>483.25854332</v>
       </c>
       <c r="G165" t="n">
-        <v>289.1816666666662</v>
+        <v>289.2016666666662</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,19 +6173,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>287.6</v>
+        <v>287.8</v>
       </c>
       <c r="C166" t="n">
         <v>287.6</v>
       </c>
       <c r="D166" t="n">
-        <v>287.6</v>
+        <v>287.8</v>
       </c>
       <c r="E166" t="n">
         <v>287.6</v>
       </c>
       <c r="F166" t="n">
-        <v>194.3625</v>
+        <v>1754.7345</v>
       </c>
       <c r="G166" t="n">
         <v>289.1816666666662</v>
@@ -6208,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>289</v>
+        <v>287.6</v>
       </c>
       <c r="C167" t="n">
-        <v>289</v>
+        <v>287.6</v>
       </c>
       <c r="D167" t="n">
-        <v>289</v>
+        <v>287.6</v>
       </c>
       <c r="E167" t="n">
-        <v>289</v>
+        <v>287.6</v>
       </c>
       <c r="F167" t="n">
-        <v>19.22145328</v>
+        <v>194.3625</v>
       </c>
       <c r="G167" t="n">
-        <v>289.1799999999996</v>
+        <v>289.1816666666662</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>288.1</v>
+        <v>289</v>
       </c>
       <c r="C168" t="n">
-        <v>288.1</v>
+        <v>289</v>
       </c>
       <c r="D168" t="n">
-        <v>288.1</v>
+        <v>289</v>
       </c>
       <c r="E168" t="n">
-        <v>288.1</v>
+        <v>289</v>
       </c>
       <c r="F168" t="n">
-        <v>651.554</v>
+        <v>19.22145328</v>
       </c>
       <c r="G168" t="n">
-        <v>289.1633333333329</v>
+        <v>289.1799999999996</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,19 +6278,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>289</v>
+        <v>288.1</v>
       </c>
       <c r="C169" t="n">
-        <v>289</v>
+        <v>288.1</v>
       </c>
       <c r="D169" t="n">
-        <v>289</v>
+        <v>288.1</v>
       </c>
       <c r="E169" t="n">
-        <v>289</v>
+        <v>288.1</v>
       </c>
       <c r="F169" t="n">
-        <v>1480.77854672</v>
+        <v>651.554</v>
       </c>
       <c r="G169" t="n">
         <v>289.1633333333329</v>
@@ -6313,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>289.8</v>
+        <v>289</v>
       </c>
       <c r="C170" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D170" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E170" t="n">
-        <v>289.8</v>
+        <v>289</v>
       </c>
       <c r="F170" t="n">
-        <v>5140.3875</v>
+        <v>1480.77854672</v>
       </c>
       <c r="G170" t="n">
-        <v>289.1699999999996</v>
+        <v>289.1633333333329</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>289.7</v>
+        <v>289.8</v>
       </c>
       <c r="C171" t="n">
-        <v>289.7</v>
+        <v>290</v>
       </c>
       <c r="D171" t="n">
-        <v>289.7</v>
+        <v>290</v>
       </c>
       <c r="E171" t="n">
-        <v>289.7</v>
+        <v>289.8</v>
       </c>
       <c r="F171" t="n">
-        <v>319.0411</v>
+        <v>5140.3875</v>
       </c>
       <c r="G171" t="n">
-        <v>289.168333333333</v>
+        <v>289.1699999999996</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6386,19 +6386,19 @@
         <v>289.7</v>
       </c>
       <c r="C172" t="n">
-        <v>289.6</v>
+        <v>289.7</v>
       </c>
       <c r="D172" t="n">
         <v>289.7</v>
       </c>
       <c r="E172" t="n">
-        <v>289.6</v>
+        <v>289.7</v>
       </c>
       <c r="F172" t="n">
-        <v>133</v>
+        <v>319.0411</v>
       </c>
       <c r="G172" t="n">
-        <v>289.1499999999996</v>
+        <v>289.168333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>289.8</v>
+        <v>289.7</v>
       </c>
       <c r="C173" t="n">
-        <v>289.8</v>
+        <v>289.6</v>
       </c>
       <c r="D173" t="n">
-        <v>289.8</v>
+        <v>289.7</v>
       </c>
       <c r="E173" t="n">
-        <v>289.8</v>
+        <v>289.6</v>
       </c>
       <c r="F173" t="n">
-        <v>69.01311249</v>
+        <v>133</v>
       </c>
       <c r="G173" t="n">
-        <v>289.1366666666663</v>
+        <v>289.1499999999996</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>289.9</v>
+        <v>289.8</v>
       </c>
       <c r="C174" t="n">
-        <v>289.9</v>
+        <v>289.8</v>
       </c>
       <c r="D174" t="n">
-        <v>289.9</v>
+        <v>289.8</v>
       </c>
       <c r="E174" t="n">
-        <v>289.9</v>
+        <v>289.8</v>
       </c>
       <c r="F174" t="n">
-        <v>1144</v>
+        <v>69.01311249</v>
       </c>
       <c r="G174" t="n">
-        <v>289.1249999999997</v>
+        <v>289.1366666666663</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>290</v>
+        <v>289.9</v>
       </c>
       <c r="C175" t="n">
         <v>289.9</v>
       </c>
       <c r="D175" t="n">
-        <v>290</v>
+        <v>289.9</v>
       </c>
       <c r="E175" t="n">
         <v>289.9</v>
       </c>
       <c r="F175" t="n">
-        <v>1901.3733</v>
+        <v>1144</v>
       </c>
       <c r="G175" t="n">
-        <v>289.113333333333</v>
+        <v>289.1249999999997</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>289.6</v>
+        <v>290</v>
       </c>
       <c r="C176" t="n">
-        <v>289.6</v>
+        <v>289.9</v>
       </c>
       <c r="D176" t="n">
-        <v>289.6</v>
+        <v>290</v>
       </c>
       <c r="E176" t="n">
-        <v>289.6</v>
+        <v>289.9</v>
       </c>
       <c r="F176" t="n">
-        <v>64.9265</v>
+        <v>1901.3733</v>
       </c>
       <c r="G176" t="n">
-        <v>289.0999999999996</v>
+        <v>289.113333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>289.5</v>
+        <v>289.6</v>
       </c>
       <c r="C177" t="n">
-        <v>289.5</v>
+        <v>289.6</v>
       </c>
       <c r="D177" t="n">
-        <v>289.5</v>
+        <v>289.6</v>
       </c>
       <c r="E177" t="n">
-        <v>289.5</v>
+        <v>289.6</v>
       </c>
       <c r="F177" t="n">
-        <v>396.3721</v>
+        <v>64.9265</v>
       </c>
       <c r="G177" t="n">
-        <v>289.0849999999996</v>
+        <v>289.0999999999996</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>289.4</v>
+        <v>289.5</v>
       </c>
       <c r="C178" t="n">
-        <v>289.4</v>
+        <v>289.5</v>
       </c>
       <c r="D178" t="n">
-        <v>289.4</v>
+        <v>289.5</v>
       </c>
       <c r="E178" t="n">
-        <v>289.4</v>
+        <v>289.5</v>
       </c>
       <c r="F178" t="n">
-        <v>440.566</v>
+        <v>396.3721</v>
       </c>
       <c r="G178" t="n">
-        <v>289.0916666666663</v>
+        <v>289.0849999999996</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>289.3</v>
+        <v>289.4</v>
       </c>
       <c r="C179" t="n">
-        <v>289.3</v>
+        <v>289.4</v>
       </c>
       <c r="D179" t="n">
-        <v>289.3</v>
+        <v>289.4</v>
       </c>
       <c r="E179" t="n">
-        <v>289.3</v>
+        <v>289.4</v>
       </c>
       <c r="F179" t="n">
-        <v>150.0455</v>
+        <v>440.566</v>
       </c>
       <c r="G179" t="n">
-        <v>289.0966666666663</v>
+        <v>289.0916666666663</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>290.3</v>
+        <v>289.3</v>
       </c>
       <c r="C180" t="n">
-        <v>290.3</v>
+        <v>289.3</v>
       </c>
       <c r="D180" t="n">
-        <v>290.3</v>
+        <v>289.3</v>
       </c>
       <c r="E180" t="n">
-        <v>290.3</v>
+        <v>289.3</v>
       </c>
       <c r="F180" t="n">
-        <v>2589.235</v>
+        <v>150.0455</v>
       </c>
       <c r="G180" t="n">
-        <v>289.1183333333329</v>
+        <v>289.0966666666663</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6710,10 +6710,10 @@
         <v>290.3</v>
       </c>
       <c r="F181" t="n">
-        <v>15.039</v>
+        <v>2589.235</v>
       </c>
       <c r="G181" t="n">
-        <v>289.1399999999996</v>
+        <v>289.1183333333329</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>290.4</v>
+        <v>290.3</v>
       </c>
       <c r="C182" t="n">
-        <v>290.5</v>
+        <v>290.3</v>
       </c>
       <c r="D182" t="n">
-        <v>290.5</v>
+        <v>290.3</v>
       </c>
       <c r="E182" t="n">
-        <v>290.4</v>
+        <v>290.3</v>
       </c>
       <c r="F182" t="n">
-        <v>13</v>
+        <v>15.039</v>
       </c>
       <c r="G182" t="n">
-        <v>289.1649999999996</v>
+        <v>289.1399999999996</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>290.5</v>
+        <v>290.4</v>
       </c>
       <c r="C183" t="n">
         <v>290.5</v>
@@ -6777,13 +6777,13 @@
         <v>290.5</v>
       </c>
       <c r="E183" t="n">
-        <v>290.5</v>
+        <v>290.4</v>
       </c>
       <c r="F183" t="n">
-        <v>1380.2139</v>
+        <v>13</v>
       </c>
       <c r="G183" t="n">
-        <v>289.168333333333</v>
+        <v>289.1649999999996</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6815,10 +6815,10 @@
         <v>290.5</v>
       </c>
       <c r="F184" t="n">
-        <v>968.2904</v>
+        <v>1380.2139</v>
       </c>
       <c r="G184" t="n">
-        <v>289.1899999999996</v>
+        <v>289.168333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6850,10 +6850,10 @@
         <v>290.5</v>
       </c>
       <c r="F185" t="n">
-        <v>298.122</v>
+        <v>968.2904</v>
       </c>
       <c r="G185" t="n">
-        <v>289.1933333333329</v>
+        <v>289.1899999999996</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6876,19 +6876,19 @@
         <v>290.5</v>
       </c>
       <c r="C186" t="n">
-        <v>291</v>
+        <v>290.5</v>
       </c>
       <c r="D186" t="n">
-        <v>291</v>
+        <v>290.5</v>
       </c>
       <c r="E186" t="n">
         <v>290.5</v>
       </c>
       <c r="F186" t="n">
-        <v>1254.7348</v>
+        <v>298.122</v>
       </c>
       <c r="G186" t="n">
-        <v>289.2049999999996</v>
+        <v>289.1933333333329</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +6908,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>290.9</v>
+        <v>290.5</v>
       </c>
       <c r="C187" t="n">
-        <v>290.9</v>
+        <v>291</v>
       </c>
       <c r="D187" t="n">
-        <v>290.9</v>
+        <v>291</v>
       </c>
       <c r="E187" t="n">
-        <v>290.9</v>
+        <v>290.5</v>
       </c>
       <c r="F187" t="n">
-        <v>248.4064</v>
+        <v>1254.7348</v>
       </c>
       <c r="G187" t="n">
-        <v>289.2149999999996</v>
+        <v>289.2049999999996</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>291</v>
+        <v>290.9</v>
       </c>
       <c r="C188" t="n">
-        <v>291</v>
+        <v>290.9</v>
       </c>
       <c r="D188" t="n">
-        <v>291</v>
+        <v>290.9</v>
       </c>
       <c r="E188" t="n">
-        <v>291</v>
+        <v>290.9</v>
       </c>
       <c r="F188" t="n">
-        <v>218.0654</v>
+        <v>248.4064</v>
       </c>
       <c r="G188" t="n">
-        <v>289.2249999999996</v>
+        <v>289.2149999999996</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6990,10 +6990,10 @@
         <v>291</v>
       </c>
       <c r="F189" t="n">
-        <v>1080.324</v>
+        <v>218.0654</v>
       </c>
       <c r="G189" t="n">
-        <v>289.248333333333</v>
+        <v>289.2249999999996</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7016,19 +7016,19 @@
         <v>291</v>
       </c>
       <c r="C190" t="n">
-        <v>290.9</v>
+        <v>291</v>
       </c>
       <c r="D190" t="n">
         <v>291</v>
       </c>
       <c r="E190" t="n">
-        <v>290.8</v>
+        <v>291</v>
       </c>
       <c r="F190" t="n">
-        <v>1778.7978</v>
+        <v>1080.324</v>
       </c>
       <c r="G190" t="n">
-        <v>289.253333333333</v>
+        <v>289.248333333333</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>290.9</v>
+        <v>291</v>
       </c>
       <c r="C191" t="n">
         <v>290.9</v>
       </c>
       <c r="D191" t="n">
-        <v>290.9</v>
+        <v>291</v>
       </c>
       <c r="E191" t="n">
-        <v>290.9</v>
+        <v>290.8</v>
       </c>
       <c r="F191" t="n">
-        <v>2781.908</v>
+        <v>1778.7978</v>
       </c>
       <c r="G191" t="n">
-        <v>289.2583333333331</v>
+        <v>289.253333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7086,19 +7086,19 @@
         <v>290.9</v>
       </c>
       <c r="C192" t="n">
-        <v>290.7</v>
+        <v>290.9</v>
       </c>
       <c r="D192" t="n">
         <v>290.9</v>
       </c>
       <c r="E192" t="n">
-        <v>290.7</v>
+        <v>290.9</v>
       </c>
       <c r="F192" t="n">
-        <v>922.0706</v>
+        <v>2781.908</v>
       </c>
       <c r="G192" t="n">
-        <v>289.2733333333331</v>
+        <v>289.2583333333331</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,22 +7118,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>290.4</v>
+        <v>290.9</v>
       </c>
       <c r="C193" t="n">
-        <v>291</v>
+        <v>290.7</v>
       </c>
       <c r="D193" t="n">
-        <v>291</v>
+        <v>290.9</v>
       </c>
       <c r="E193" t="n">
-        <v>290</v>
+        <v>290.7</v>
       </c>
       <c r="F193" t="n">
-        <v>292</v>
+        <v>922.0706</v>
       </c>
       <c r="G193" t="n">
-        <v>289.2966666666665</v>
+        <v>289.2733333333331</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7153,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>289.3</v>
+        <v>290.4</v>
       </c>
       <c r="C194" t="n">
-        <v>289.3</v>
+        <v>291</v>
       </c>
       <c r="D194" t="n">
-        <v>289.3</v>
+        <v>291</v>
       </c>
       <c r="E194" t="n">
-        <v>289.3</v>
+        <v>290</v>
       </c>
       <c r="F194" t="n">
-        <v>119.9999</v>
+        <v>292</v>
       </c>
       <c r="G194" t="n">
-        <v>289.2933333333331</v>
+        <v>289.2966666666665</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7191,19 +7191,19 @@
         <v>289.3</v>
       </c>
       <c r="C195" t="n">
-        <v>289</v>
+        <v>289.3</v>
       </c>
       <c r="D195" t="n">
         <v>289.3</v>
       </c>
       <c r="E195" t="n">
-        <v>289</v>
+        <v>289.3</v>
       </c>
       <c r="F195" t="n">
-        <v>853.2702</v>
+        <v>119.9999</v>
       </c>
       <c r="G195" t="n">
-        <v>289.2666666666665</v>
+        <v>289.2933333333331</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,22 +7223,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>289.9</v>
+        <v>289.3</v>
       </c>
       <c r="C196" t="n">
-        <v>289.9</v>
+        <v>289</v>
       </c>
       <c r="D196" t="n">
-        <v>289.9</v>
+        <v>289.3</v>
       </c>
       <c r="E196" t="n">
-        <v>289.9</v>
+        <v>289</v>
       </c>
       <c r="F196" t="n">
-        <v>15.71231459</v>
+        <v>853.2702</v>
       </c>
       <c r="G196" t="n">
-        <v>289.2733333333332</v>
+        <v>289.2666666666665</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7258,22 +7258,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>289</v>
+        <v>289.9</v>
       </c>
       <c r="C197" t="n">
-        <v>288.6</v>
+        <v>289.9</v>
       </c>
       <c r="D197" t="n">
-        <v>289</v>
+        <v>289.9</v>
       </c>
       <c r="E197" t="n">
-        <v>288.6</v>
+        <v>289.9</v>
       </c>
       <c r="F197" t="n">
-        <v>3163.9795</v>
+        <v>15.71231459</v>
       </c>
       <c r="G197" t="n">
-        <v>289.2666666666665</v>
+        <v>289.2733333333332</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7293,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>288.5</v>
+        <v>289</v>
       </c>
       <c r="C198" t="n">
-        <v>288.5</v>
+        <v>288.6</v>
       </c>
       <c r="D198" t="n">
-        <v>288.5</v>
+        <v>289</v>
       </c>
       <c r="E198" t="n">
-        <v>288.5</v>
+        <v>288.6</v>
       </c>
       <c r="F198" t="n">
-        <v>6062.6042</v>
+        <v>3163.9795</v>
       </c>
       <c r="G198" t="n">
-        <v>289.2683333333331</v>
+        <v>289.2666666666665</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,22 +7328,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>288.6</v>
+        <v>288.5</v>
       </c>
       <c r="C199" t="n">
-        <v>288.6</v>
+        <v>288.5</v>
       </c>
       <c r="D199" t="n">
-        <v>288.6</v>
+        <v>288.5</v>
       </c>
       <c r="E199" t="n">
-        <v>288.6</v>
+        <v>288.5</v>
       </c>
       <c r="F199" t="n">
-        <v>1081.7407</v>
+        <v>6062.6042</v>
       </c>
       <c r="G199" t="n">
-        <v>289.2699999999998</v>
+        <v>289.2683333333331</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7363,19 +7363,19 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>288.5</v>
+        <v>288.6</v>
       </c>
       <c r="C200" t="n">
-        <v>288.5</v>
+        <v>288.6</v>
       </c>
       <c r="D200" t="n">
-        <v>288.5</v>
+        <v>288.6</v>
       </c>
       <c r="E200" t="n">
-        <v>288.5</v>
+        <v>288.6</v>
       </c>
       <c r="F200" t="n">
-        <v>1047.7054</v>
+        <v>1081.7407</v>
       </c>
       <c r="G200" t="n">
         <v>289.2699999999998</v>
@@ -7410,10 +7410,10 @@
         <v>288.5</v>
       </c>
       <c r="F201" t="n">
-        <v>1041.3123</v>
+        <v>1047.7054</v>
       </c>
       <c r="G201" t="n">
-        <v>289.2483333333331</v>
+        <v>289.2699999999998</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,22 +7433,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>288.1</v>
+        <v>288.5</v>
       </c>
       <c r="C202" t="n">
-        <v>288.1</v>
+        <v>288.5</v>
       </c>
       <c r="D202" t="n">
-        <v>288.1</v>
+        <v>288.5</v>
       </c>
       <c r="E202" t="n">
-        <v>288.1</v>
+        <v>288.5</v>
       </c>
       <c r="F202" t="n">
-        <v>2773.4671</v>
+        <v>1041.3123</v>
       </c>
       <c r="G202" t="n">
-        <v>289.2399999999998</v>
+        <v>289.2483333333331</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7480,10 +7480,10 @@
         <v>288.1</v>
       </c>
       <c r="F203" t="n">
-        <v>1736.6209</v>
+        <v>2773.4671</v>
       </c>
       <c r="G203" t="n">
-        <v>289.2416666666664</v>
+        <v>289.2399999999998</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7515,10 +7515,10 @@
         <v>288.1</v>
       </c>
       <c r="F204" t="n">
-        <v>163.489</v>
+        <v>1736.6209</v>
       </c>
       <c r="G204" t="n">
-        <v>289.2166666666664</v>
+        <v>289.2416666666664</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7538,22 +7538,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>288</v>
+        <v>288.1</v>
       </c>
       <c r="C205" t="n">
-        <v>287.5</v>
+        <v>288.1</v>
       </c>
       <c r="D205" t="n">
-        <v>288</v>
+        <v>288.1</v>
       </c>
       <c r="E205" t="n">
-        <v>287.5</v>
+        <v>288.1</v>
       </c>
       <c r="F205" t="n">
-        <v>11826.1256</v>
+        <v>163.489</v>
       </c>
       <c r="G205" t="n">
-        <v>289.1833333333331</v>
+        <v>289.2166666666664</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>288.1</v>
+        <v>288</v>
       </c>
       <c r="C206" t="n">
-        <v>288.1</v>
+        <v>287.5</v>
       </c>
       <c r="D206" t="n">
-        <v>288.1</v>
+        <v>288</v>
       </c>
       <c r="E206" t="n">
-        <v>288.1</v>
+        <v>287.5</v>
       </c>
       <c r="F206" t="n">
-        <v>4153.1407</v>
+        <v>11826.1256</v>
       </c>
       <c r="G206" t="n">
-        <v>289.1599999999997</v>
+        <v>289.1833333333331</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7620,10 +7620,10 @@
         <v>288.1</v>
       </c>
       <c r="F207" t="n">
-        <v>8497.391799999999</v>
+        <v>4153.1407</v>
       </c>
       <c r="G207" t="n">
-        <v>289.1516666666664</v>
+        <v>289.1599999999997</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7655,10 +7655,10 @@
         <v>288.1</v>
       </c>
       <c r="F208" t="n">
-        <v>3387.7904</v>
+        <v>8497.391799999999</v>
       </c>
       <c r="G208" t="n">
-        <v>289.1366666666664</v>
+        <v>289.1516666666664</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7690,10 +7690,10 @@
         <v>288.1</v>
       </c>
       <c r="F209" t="n">
-        <v>200.06</v>
+        <v>3387.7904</v>
       </c>
       <c r="G209" t="n">
-        <v>289.1216666666663</v>
+        <v>289.1366666666664</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7725,10 +7725,10 @@
         <v>288.1</v>
       </c>
       <c r="F210" t="n">
-        <v>1671.8915</v>
+        <v>200.06</v>
       </c>
       <c r="G210" t="n">
-        <v>289.1066666666663</v>
+        <v>289.1216666666663</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7760,10 +7760,10 @@
         <v>288.1</v>
       </c>
       <c r="F211" t="n">
-        <v>3498.2832</v>
+        <v>1671.8915</v>
       </c>
       <c r="G211" t="n">
-        <v>289.098333333333</v>
+        <v>289.1066666666663</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7783,22 +7783,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>287.6</v>
+        <v>288.1</v>
       </c>
       <c r="C212" t="n">
-        <v>287.6</v>
+        <v>288.1</v>
       </c>
       <c r="D212" t="n">
-        <v>287.6</v>
+        <v>288.1</v>
       </c>
       <c r="E212" t="n">
-        <v>287.6</v>
+        <v>288.1</v>
       </c>
       <c r="F212" t="n">
-        <v>1198.5532</v>
+        <v>3498.2832</v>
       </c>
       <c r="G212" t="n">
-        <v>289.0866666666663</v>
+        <v>289.098333333333</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7821,19 +7821,19 @@
         <v>287.6</v>
       </c>
       <c r="C213" t="n">
-        <v>287.2</v>
+        <v>287.6</v>
       </c>
       <c r="D213" t="n">
         <v>287.6</v>
       </c>
       <c r="E213" t="n">
-        <v>287.2</v>
+        <v>287.6</v>
       </c>
       <c r="F213" t="n">
-        <v>12050.6529</v>
+        <v>1198.5532</v>
       </c>
       <c r="G213" t="n">
-        <v>289.073333333333</v>
+        <v>289.0866666666663</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7853,22 +7853,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>288.1</v>
+        <v>287.6</v>
       </c>
       <c r="C214" t="n">
-        <v>288.1</v>
+        <v>287.2</v>
       </c>
       <c r="D214" t="n">
-        <v>288.1</v>
+        <v>287.6</v>
       </c>
       <c r="E214" t="n">
-        <v>288.1</v>
+        <v>287.2</v>
       </c>
       <c r="F214" t="n">
-        <v>7.71259979</v>
+        <v>12050.6529</v>
       </c>
       <c r="G214" t="n">
-        <v>289.0799999999996</v>
+        <v>289.073333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7888,22 +7888,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>287.4</v>
+        <v>288.1</v>
       </c>
       <c r="C215" t="n">
-        <v>287.2</v>
+        <v>288.1</v>
       </c>
       <c r="D215" t="n">
-        <v>287.4</v>
+        <v>288.1</v>
       </c>
       <c r="E215" t="n">
-        <v>287.2</v>
+        <v>288.1</v>
       </c>
       <c r="F215" t="n">
-        <v>20013.2812</v>
+        <v>7.71259979</v>
       </c>
       <c r="G215" t="n">
-        <v>289.0716666666663</v>
+        <v>289.0799999999996</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7923,22 +7923,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>288.1</v>
+        <v>287.4</v>
       </c>
       <c r="C216" t="n">
-        <v>287.1</v>
+        <v>287.2</v>
       </c>
       <c r="D216" t="n">
-        <v>288.1</v>
+        <v>287.4</v>
       </c>
       <c r="E216" t="n">
-        <v>287.1</v>
+        <v>287.2</v>
       </c>
       <c r="F216" t="n">
-        <v>17000.6691</v>
+        <v>20013.2812</v>
       </c>
       <c r="G216" t="n">
-        <v>289.0566666666663</v>
+        <v>289.0716666666663</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>287.2</v>
+        <v>288.1</v>
       </c>
       <c r="C217" t="n">
-        <v>287.2</v>
+        <v>287.1</v>
       </c>
       <c r="D217" t="n">
-        <v>287.2</v>
+        <v>288.1</v>
       </c>
       <c r="E217" t="n">
-        <v>287.2</v>
+        <v>287.1</v>
       </c>
       <c r="F217" t="n">
-        <v>4869.4308</v>
+        <v>17000.6691</v>
       </c>
       <c r="G217" t="n">
-        <v>289.043333333333</v>
+        <v>289.0566666666663</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7999,16 +7999,16 @@
         <v>287.2</v>
       </c>
       <c r="D218" t="n">
-        <v>288.7</v>
+        <v>287.2</v>
       </c>
       <c r="E218" t="n">
         <v>287.2</v>
       </c>
       <c r="F218" t="n">
-        <v>4284</v>
+        <v>4869.4308</v>
       </c>
       <c r="G218" t="n">
-        <v>289.0299999999996</v>
+        <v>289.043333333333</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8028,22 +8028,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>289.5</v>
+        <v>287.2</v>
       </c>
       <c r="C219" t="n">
         <v>287.2</v>
       </c>
       <c r="D219" t="n">
-        <v>289.5</v>
+        <v>288.7</v>
       </c>
       <c r="E219" t="n">
         <v>287.2</v>
       </c>
       <c r="F219" t="n">
-        <v>1810.10898635</v>
+        <v>4284</v>
       </c>
       <c r="G219" t="n">
-        <v>289.028333333333</v>
+        <v>289.0299999999996</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8063,22 +8063,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>287.2</v>
+        <v>289.5</v>
       </c>
       <c r="C220" t="n">
         <v>287.2</v>
       </c>
       <c r="D220" t="n">
-        <v>287.2</v>
+        <v>289.5</v>
       </c>
       <c r="E220" t="n">
         <v>287.2</v>
       </c>
       <c r="F220" t="n">
-        <v>6879.3507</v>
+        <v>1810.10898635</v>
       </c>
       <c r="G220" t="n">
-        <v>289.0266666666664</v>
+        <v>289.028333333333</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8098,22 +8098,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>287.1</v>
+        <v>287.2</v>
       </c>
       <c r="C221" t="n">
-        <v>287.1</v>
+        <v>287.2</v>
       </c>
       <c r="D221" t="n">
-        <v>287.1</v>
+        <v>287.2</v>
       </c>
       <c r="E221" t="n">
-        <v>287.1</v>
+        <v>287.2</v>
       </c>
       <c r="F221" t="n">
-        <v>32.6279</v>
+        <v>6879.3507</v>
       </c>
       <c r="G221" t="n">
-        <v>289.0216666666663</v>
+        <v>289.0266666666664</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8133,22 +8133,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>289</v>
+        <v>287.1</v>
       </c>
       <c r="C222" t="n">
-        <v>289</v>
+        <v>287.1</v>
       </c>
       <c r="D222" t="n">
-        <v>289</v>
+        <v>287.1</v>
       </c>
       <c r="E222" t="n">
-        <v>289</v>
+        <v>287.1</v>
       </c>
       <c r="F222" t="n">
-        <v>91.20999999999999</v>
+        <v>32.6279</v>
       </c>
       <c r="G222" t="n">
-        <v>289.0149999999996</v>
+        <v>289.0216666666663</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8168,22 +8168,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>288.5</v>
+        <v>289</v>
       </c>
       <c r="C223" t="n">
-        <v>288.5</v>
+        <v>289</v>
       </c>
       <c r="D223" t="n">
-        <v>288.5</v>
+        <v>289</v>
       </c>
       <c r="E223" t="n">
-        <v>288.5</v>
+        <v>289</v>
       </c>
       <c r="F223" t="n">
-        <v>2.3543</v>
+        <v>91.20999999999999</v>
       </c>
       <c r="G223" t="n">
-        <v>288.9933333333329</v>
+        <v>289.0149999999996</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8203,22 +8203,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>287.2</v>
+        <v>288.5</v>
       </c>
       <c r="C224" t="n">
-        <v>287.2</v>
+        <v>288.5</v>
       </c>
       <c r="D224" t="n">
-        <v>287.2</v>
+        <v>288.5</v>
       </c>
       <c r="E224" t="n">
-        <v>287.2</v>
+        <v>288.5</v>
       </c>
       <c r="F224" t="n">
-        <v>10089.9278</v>
+        <v>2.3543</v>
       </c>
       <c r="G224" t="n">
-        <v>288.9516666666663</v>
+        <v>288.9933333333329</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8238,22 +8238,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>287.1</v>
+        <v>287.2</v>
       </c>
       <c r="C225" t="n">
-        <v>287.1</v>
+        <v>287.2</v>
       </c>
       <c r="D225" t="n">
-        <v>287.1</v>
+        <v>287.2</v>
       </c>
       <c r="E225" t="n">
-        <v>287.1</v>
+        <v>287.2</v>
       </c>
       <c r="F225" t="n">
-        <v>3457.9415</v>
+        <v>10089.9278</v>
       </c>
       <c r="G225" t="n">
-        <v>288.9433333333329</v>
+        <v>288.9516666666663</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8285,10 +8285,10 @@
         <v>287.1</v>
       </c>
       <c r="F226" t="n">
-        <v>2831.1466</v>
+        <v>3457.9415</v>
       </c>
       <c r="G226" t="n">
-        <v>288.9349999999996</v>
+        <v>288.9433333333329</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8320,10 +8320,10 @@
         <v>287.1</v>
       </c>
       <c r="F227" t="n">
-        <v>7483.7297</v>
+        <v>2831.1466</v>
       </c>
       <c r="G227" t="n">
-        <v>288.9033333333329</v>
+        <v>288.9349999999996</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8355,10 +8355,10 @@
         <v>287.1</v>
       </c>
       <c r="F228" t="n">
-        <v>11323.6097</v>
+        <v>7483.7297</v>
       </c>
       <c r="G228" t="n">
-        <v>288.8866666666663</v>
+        <v>288.9033333333329</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8378,22 +8378,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>287.2</v>
+        <v>287.1</v>
       </c>
       <c r="C229" t="n">
-        <v>287.2</v>
+        <v>287.1</v>
       </c>
       <c r="D229" t="n">
-        <v>287.2</v>
+        <v>287.1</v>
       </c>
       <c r="E229" t="n">
-        <v>287.2</v>
+        <v>287.1</v>
       </c>
       <c r="F229" t="n">
-        <v>3362.3216</v>
+        <v>11323.6097</v>
       </c>
       <c r="G229" t="n">
-        <v>288.8566666666663</v>
+        <v>288.8866666666663</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8413,22 +8413,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>287.1</v>
+        <v>287.2</v>
       </c>
       <c r="C230" t="n">
-        <v>287.1</v>
+        <v>287.2</v>
       </c>
       <c r="D230" t="n">
-        <v>287.1</v>
+        <v>287.2</v>
       </c>
       <c r="E230" t="n">
-        <v>287.1</v>
+        <v>287.2</v>
       </c>
       <c r="F230" t="n">
-        <v>957.9416</v>
+        <v>3362.3216</v>
       </c>
       <c r="G230" t="n">
-        <v>288.8083333333329</v>
+        <v>288.8566666666663</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8460,10 +8460,10 @@
         <v>287.1</v>
       </c>
       <c r="F231" t="n">
-        <v>8789.92148049</v>
+        <v>957.9416</v>
       </c>
       <c r="G231" t="n">
-        <v>288.7649999999995</v>
+        <v>288.8083333333329</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8483,22 +8483,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>287</v>
+        <v>287.1</v>
       </c>
       <c r="C232" t="n">
-        <v>286.9</v>
+        <v>287.1</v>
       </c>
       <c r="D232" t="n">
-        <v>287</v>
+        <v>287.1</v>
       </c>
       <c r="E232" t="n">
-        <v>286.9</v>
+        <v>287.1</v>
       </c>
       <c r="F232" t="n">
-        <v>5481.8136</v>
+        <v>8789.92148049</v>
       </c>
       <c r="G232" t="n">
-        <v>288.7199999999996</v>
+        <v>288.7649999999995</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8518,22 +8518,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>286.1</v>
+        <v>287</v>
       </c>
       <c r="C233" t="n">
-        <v>285.7</v>
+        <v>286.9</v>
       </c>
       <c r="D233" t="n">
-        <v>286.1</v>
+        <v>287</v>
       </c>
       <c r="E233" t="n">
-        <v>285.7</v>
+        <v>286.9</v>
       </c>
       <c r="F233" t="n">
-        <v>4472.1306</v>
+        <v>5481.8136</v>
       </c>
       <c r="G233" t="n">
-        <v>288.6516666666663</v>
+        <v>288.7199999999996</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8553,22 +8553,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>286.9</v>
+        <v>286.1</v>
       </c>
       <c r="C234" t="n">
-        <v>285.4</v>
+        <v>285.7</v>
       </c>
       <c r="D234" t="n">
-        <v>286.9</v>
+        <v>286.1</v>
       </c>
       <c r="E234" t="n">
-        <v>285.4</v>
+        <v>285.7</v>
       </c>
       <c r="F234" t="n">
-        <v>6987.2961</v>
+        <v>4472.1306</v>
       </c>
       <c r="G234" t="n">
-        <v>288.5766666666663</v>
+        <v>288.6516666666663</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8591,19 +8591,19 @@
         <v>286.9</v>
       </c>
       <c r="C235" t="n">
-        <v>286.9</v>
+        <v>285.4</v>
       </c>
       <c r="D235" t="n">
         <v>286.9</v>
       </c>
       <c r="E235" t="n">
-        <v>286.9</v>
+        <v>285.4</v>
       </c>
       <c r="F235" t="n">
-        <v>1002.2487</v>
+        <v>6987.2961</v>
       </c>
       <c r="G235" t="n">
-        <v>288.5266666666663</v>
+        <v>288.5766666666663</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8623,22 +8623,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>285.4</v>
+        <v>286.9</v>
       </c>
       <c r="C236" t="n">
-        <v>285.4</v>
+        <v>286.9</v>
       </c>
       <c r="D236" t="n">
-        <v>285.4</v>
+        <v>286.9</v>
       </c>
       <c r="E236" t="n">
-        <v>285.4</v>
+        <v>286.9</v>
       </c>
       <c r="F236" t="n">
-        <v>167.0006</v>
+        <v>1002.2487</v>
       </c>
       <c r="G236" t="n">
-        <v>288.4566666666663</v>
+        <v>288.5266666666663</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8658,22 +8658,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>286.5</v>
+        <v>285.4</v>
       </c>
       <c r="C237" t="n">
-        <v>286.5</v>
+        <v>285.4</v>
       </c>
       <c r="D237" t="n">
-        <v>286.5</v>
+        <v>285.4</v>
       </c>
       <c r="E237" t="n">
-        <v>286.5</v>
+        <v>285.4</v>
       </c>
       <c r="F237" t="n">
-        <v>970.9011</v>
+        <v>167.0006</v>
       </c>
       <c r="G237" t="n">
-        <v>288.4066666666664</v>
+        <v>288.4566666666663</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8702,13 +8702,13 @@
         <v>286.5</v>
       </c>
       <c r="E238" t="n">
-        <v>285.2</v>
+        <v>286.5</v>
       </c>
       <c r="F238" t="n">
-        <v>2840.5218</v>
+        <v>970.9011</v>
       </c>
       <c r="G238" t="n">
-        <v>288.358333333333</v>
+        <v>288.4066666666664</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8731,19 +8731,19 @@
         <v>286.5</v>
       </c>
       <c r="C239" t="n">
-        <v>285</v>
+        <v>286.5</v>
       </c>
       <c r="D239" t="n">
         <v>286.5</v>
       </c>
       <c r="E239" t="n">
-        <v>285</v>
+        <v>285.2</v>
       </c>
       <c r="F239" t="n">
-        <v>4123.367</v>
+        <v>2840.5218</v>
       </c>
       <c r="G239" t="n">
-        <v>288.2866666666663</v>
+        <v>288.358333333333</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8763,22 +8763,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="C240" t="n">
         <v>285</v>
       </c>
-      <c r="C240" t="n">
-        <v>284</v>
-      </c>
       <c r="D240" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="E240" t="n">
         <v>285</v>
       </c>
-      <c r="E240" t="n">
-        <v>284</v>
-      </c>
       <c r="F240" t="n">
-        <v>28584.0177</v>
+        <v>4123.367</v>
       </c>
       <c r="G240" t="n">
-        <v>288.1816666666663</v>
+        <v>288.2866666666663</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8798,22 +8798,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>284.4</v>
+        <v>285</v>
       </c>
       <c r="C241" t="n">
-        <v>284.3</v>
+        <v>284</v>
       </c>
       <c r="D241" t="n">
-        <v>284.4</v>
+        <v>285</v>
       </c>
       <c r="E241" t="n">
-        <v>284.3</v>
+        <v>284</v>
       </c>
       <c r="F241" t="n">
-        <v>9932.3367</v>
+        <v>28584.0177</v>
       </c>
       <c r="G241" t="n">
-        <v>288.0816666666663</v>
+        <v>288.1816666666663</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8833,22 +8833,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>284.2</v>
+        <v>284.4</v>
       </c>
       <c r="C242" t="n">
-        <v>284.2</v>
+        <v>284.3</v>
       </c>
       <c r="D242" t="n">
-        <v>284.2</v>
+        <v>284.4</v>
       </c>
       <c r="E242" t="n">
-        <v>284.2</v>
+        <v>284.3</v>
       </c>
       <c r="F242" t="n">
-        <v>4569.0095</v>
+        <v>9932.3367</v>
       </c>
       <c r="G242" t="n">
-        <v>287.9766666666663</v>
+        <v>288.0816666666663</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8868,22 +8868,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>284.6</v>
+        <v>284.2</v>
       </c>
       <c r="C243" t="n">
-        <v>284.5</v>
+        <v>284.2</v>
       </c>
       <c r="D243" t="n">
-        <v>284.6</v>
+        <v>284.2</v>
       </c>
       <c r="E243" t="n">
-        <v>284.5</v>
+        <v>284.2</v>
       </c>
       <c r="F243" t="n">
-        <v>9451.739799999999</v>
+        <v>4569.0095</v>
       </c>
       <c r="G243" t="n">
-        <v>287.8766666666663</v>
+        <v>287.9766666666663</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8903,22 +8903,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>286</v>
+        <v>284.6</v>
       </c>
       <c r="C244" t="n">
         <v>284.5</v>
       </c>
       <c r="D244" t="n">
-        <v>286.5</v>
+        <v>284.6</v>
       </c>
       <c r="E244" t="n">
         <v>284.5</v>
       </c>
       <c r="F244" t="n">
-        <v>6393.3473</v>
+        <v>9451.739799999999</v>
       </c>
       <c r="G244" t="n">
-        <v>287.7766666666664</v>
+        <v>287.8766666666663</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8938,22 +8938,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>284.5</v>
+        <v>286</v>
       </c>
       <c r="C245" t="n">
         <v>284.5</v>
       </c>
       <c r="D245" t="n">
-        <v>284.5</v>
+        <v>286.5</v>
       </c>
       <c r="E245" t="n">
         <v>284.5</v>
       </c>
       <c r="F245" t="n">
-        <v>1000</v>
+        <v>6393.3473</v>
       </c>
       <c r="G245" t="n">
-        <v>287.6766666666663</v>
+        <v>287.7766666666664</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8985,10 +8985,10 @@
         <v>284.5</v>
       </c>
       <c r="F246" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G246" t="n">
-        <v>287.568333333333</v>
+        <v>287.6766666666663</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9008,22 +9008,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>284.6</v>
+        <v>284.5</v>
       </c>
       <c r="C247" t="n">
-        <v>284</v>
+        <v>284.5</v>
       </c>
       <c r="D247" t="n">
-        <v>284.6</v>
+        <v>284.5</v>
       </c>
       <c r="E247" t="n">
-        <v>284</v>
+        <v>284.5</v>
       </c>
       <c r="F247" t="n">
-        <v>15880.4164</v>
+        <v>500</v>
       </c>
       <c r="G247" t="n">
-        <v>287.453333333333</v>
+        <v>287.568333333333</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9043,22 +9043,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>284.3</v>
+        <v>284.6</v>
       </c>
       <c r="C248" t="n">
-        <v>284.3</v>
+        <v>284</v>
       </c>
       <c r="D248" t="n">
-        <v>284.3</v>
+        <v>284.6</v>
       </c>
       <c r="E248" t="n">
-        <v>284.3</v>
+        <v>284</v>
       </c>
       <c r="F248" t="n">
-        <v>3500</v>
+        <v>15880.4164</v>
       </c>
       <c r="G248" t="n">
-        <v>287.3416666666663</v>
+        <v>287.453333333333</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>284.6</v>
+        <v>284.3</v>
       </c>
       <c r="C249" t="n">
-        <v>286.1</v>
+        <v>284.3</v>
       </c>
       <c r="D249" t="n">
-        <v>286.1</v>
+        <v>284.3</v>
       </c>
       <c r="E249" t="n">
-        <v>284.6</v>
+        <v>284.3</v>
       </c>
       <c r="F249" t="n">
-        <v>1553.9099</v>
+        <v>3500</v>
       </c>
       <c r="G249" t="n">
-        <v>287.2599999999996</v>
+        <v>287.3416666666663</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9113,22 +9113,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>285.3</v>
+        <v>284.6</v>
       </c>
       <c r="C250" t="n">
-        <v>284.5</v>
+        <v>286.1</v>
       </c>
       <c r="D250" t="n">
-        <v>285.3</v>
+        <v>286.1</v>
       </c>
       <c r="E250" t="n">
-        <v>284.5</v>
+        <v>284.6</v>
       </c>
       <c r="F250" t="n">
-        <v>5000</v>
+        <v>1553.9099</v>
       </c>
       <c r="G250" t="n">
-        <v>287.1533333333329</v>
+        <v>287.2599999999996</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9148,22 +9148,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>284.6</v>
+        <v>285.3</v>
       </c>
       <c r="C251" t="n">
-        <v>284.6</v>
+        <v>284.5</v>
       </c>
       <c r="D251" t="n">
-        <v>284.6</v>
+        <v>285.3</v>
       </c>
       <c r="E251" t="n">
-        <v>284.6</v>
+        <v>284.5</v>
       </c>
       <c r="F251" t="n">
         <v>5000</v>
       </c>
       <c r="G251" t="n">
-        <v>287.0483333333329</v>
+        <v>287.1533333333329</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9183,22 +9183,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>284.5</v>
+        <v>284.6</v>
       </c>
       <c r="C252" t="n">
-        <v>284.2</v>
+        <v>284.6</v>
       </c>
       <c r="D252" t="n">
-        <v>284.5</v>
+        <v>284.6</v>
       </c>
       <c r="E252" t="n">
-        <v>284.2</v>
+        <v>284.6</v>
       </c>
       <c r="F252" t="n">
-        <v>12930.0604</v>
+        <v>5000</v>
       </c>
       <c r="G252" t="n">
-        <v>286.9399999999995</v>
+        <v>287.0483333333329</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9218,22 +9218,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>284.2</v>
+        <v>284.5</v>
       </c>
       <c r="C253" t="n">
         <v>284.2</v>
       </c>
       <c r="D253" t="n">
-        <v>284.2</v>
+        <v>284.5</v>
       </c>
       <c r="E253" t="n">
         <v>284.2</v>
       </c>
       <c r="F253" t="n">
-        <v>545.7443</v>
+        <v>12930.0604</v>
       </c>
       <c r="G253" t="n">
-        <v>286.8266666666662</v>
+        <v>286.9399999999995</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9253,22 +9253,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>285</v>
+        <v>284.2</v>
       </c>
       <c r="C254" t="n">
-        <v>286.1</v>
+        <v>284.2</v>
       </c>
       <c r="D254" t="n">
-        <v>286.1</v>
+        <v>284.2</v>
       </c>
       <c r="E254" t="n">
-        <v>284.3</v>
+        <v>284.2</v>
       </c>
       <c r="F254" t="n">
-        <v>16777.0119</v>
+        <v>545.7443</v>
       </c>
       <c r="G254" t="n">
-        <v>286.7733333333329</v>
+        <v>286.8266666666662</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9288,22 +9288,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C255" t="n">
-        <v>285.2</v>
+        <v>286.1</v>
       </c>
       <c r="D255" t="n">
-        <v>286</v>
+        <v>286.1</v>
       </c>
       <c r="E255" t="n">
-        <v>285.2</v>
+        <v>284.3</v>
       </c>
       <c r="F255" t="n">
-        <v>487.3471</v>
+        <v>16777.0119</v>
       </c>
       <c r="G255" t="n">
-        <v>286.7099999999995</v>
+        <v>286.7733333333329</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9323,22 +9323,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>285.3</v>
+        <v>286</v>
       </c>
       <c r="C256" t="n">
         <v>285.2</v>
       </c>
       <c r="D256" t="n">
-        <v>285.3</v>
+        <v>286</v>
       </c>
       <c r="E256" t="n">
         <v>285.2</v>
       </c>
       <c r="F256" t="n">
-        <v>9831.2742</v>
+        <v>487.3471</v>
       </c>
       <c r="G256" t="n">
-        <v>286.6316666666662</v>
+        <v>286.7099999999995</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9358,22 +9358,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>286.2</v>
+        <v>285.3</v>
       </c>
       <c r="C257" t="n">
-        <v>286.2</v>
+        <v>285.2</v>
       </c>
       <c r="D257" t="n">
-        <v>286.2</v>
+        <v>285.3</v>
       </c>
       <c r="E257" t="n">
-        <v>286.2</v>
+        <v>285.2</v>
       </c>
       <c r="F257" t="n">
-        <v>10</v>
+        <v>9831.2742</v>
       </c>
       <c r="G257" t="n">
-        <v>286.5916666666662</v>
+        <v>286.6316666666662</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9393,22 +9393,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>286.1</v>
+        <v>286.2</v>
       </c>
       <c r="C258" t="n">
-        <v>286.1</v>
+        <v>286.2</v>
       </c>
       <c r="D258" t="n">
-        <v>286.1</v>
+        <v>286.2</v>
       </c>
       <c r="E258" t="n">
-        <v>286.1</v>
+        <v>286.2</v>
       </c>
       <c r="F258" t="n">
-        <v>412.6638</v>
+        <v>10</v>
       </c>
       <c r="G258" t="n">
-        <v>286.5516666666662</v>
+        <v>286.5916666666662</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9428,22 +9428,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>285.3</v>
+        <v>286.1</v>
       </c>
       <c r="C259" t="n">
-        <v>285.3</v>
+        <v>286.1</v>
       </c>
       <c r="D259" t="n">
-        <v>285.3</v>
+        <v>286.1</v>
       </c>
       <c r="E259" t="n">
-        <v>285.3</v>
+        <v>286.1</v>
       </c>
       <c r="F259" t="n">
-        <v>2179.387</v>
+        <v>412.6638</v>
       </c>
       <c r="G259" t="n">
-        <v>286.4966666666662</v>
+        <v>286.5516666666662</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>284.2</v>
+        <v>285.3</v>
       </c>
       <c r="C260" t="n">
-        <v>284.2</v>
+        <v>285.3</v>
       </c>
       <c r="D260" t="n">
-        <v>284.2</v>
+        <v>285.3</v>
       </c>
       <c r="E260" t="n">
-        <v>284.2</v>
+        <v>285.3</v>
       </c>
       <c r="F260" t="n">
-        <v>5000</v>
+        <v>2179.387</v>
       </c>
       <c r="G260" t="n">
-        <v>286.4249999999996</v>
+        <v>286.4966666666662</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9510,10 +9510,10 @@
         <v>284.2</v>
       </c>
       <c r="F261" t="n">
-        <v>1891.2634</v>
+        <v>5000</v>
       </c>
       <c r="G261" t="n">
-        <v>286.3533333333329</v>
+        <v>286.4249999999996</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9536,19 +9536,19 @@
         <v>284.2</v>
       </c>
       <c r="C262" t="n">
-        <v>285.6</v>
+        <v>284.2</v>
       </c>
       <c r="D262" t="n">
-        <v>285.6</v>
+        <v>284.2</v>
       </c>
       <c r="E262" t="n">
-        <v>284.1</v>
+        <v>284.2</v>
       </c>
       <c r="F262" t="n">
-        <v>9547.4719</v>
+        <v>1891.2634</v>
       </c>
       <c r="G262" t="n">
-        <v>286.3116666666663</v>
+        <v>286.3533333333329</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9568,22 +9568,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>284.7</v>
+        <v>284.2</v>
       </c>
       <c r="C263" t="n">
-        <v>284.7</v>
+        <v>285.6</v>
       </c>
       <c r="D263" t="n">
-        <v>284.7</v>
+        <v>285.6</v>
       </c>
       <c r="E263" t="n">
-        <v>284.7</v>
+        <v>284.1</v>
       </c>
       <c r="F263" t="n">
-        <v>145.1</v>
+        <v>9547.4719</v>
       </c>
       <c r="G263" t="n">
-        <v>286.2549999999996</v>
+        <v>286.3116666666663</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9603,22 +9603,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>284</v>
+        <v>284.7</v>
       </c>
       <c r="C264" t="n">
-        <v>284</v>
+        <v>284.7</v>
       </c>
       <c r="D264" t="n">
-        <v>284</v>
+        <v>284.7</v>
       </c>
       <c r="E264" t="n">
-        <v>284</v>
+        <v>284.7</v>
       </c>
       <c r="F264" t="n">
-        <v>1998.1784</v>
+        <v>145.1</v>
       </c>
       <c r="G264" t="n">
-        <v>286.1866666666663</v>
+        <v>286.2549999999996</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9650,10 +9650,10 @@
         <v>284</v>
       </c>
       <c r="F265" t="n">
-        <v>426.2329</v>
+        <v>1998.1784</v>
       </c>
       <c r="G265" t="n">
-        <v>286.128333333333</v>
+        <v>286.1866666666663</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9673,22 +9673,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>284.2</v>
+        <v>284</v>
       </c>
       <c r="C266" t="n">
-        <v>284.1</v>
+        <v>284</v>
       </c>
       <c r="D266" t="n">
-        <v>284.2</v>
+        <v>284</v>
       </c>
       <c r="E266" t="n">
-        <v>284.1</v>
+        <v>284</v>
       </c>
       <c r="F266" t="n">
-        <v>10000</v>
+        <v>426.2329</v>
       </c>
       <c r="G266" t="n">
-        <v>286.0616666666663</v>
+        <v>286.128333333333</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9708,22 +9708,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>284</v>
+        <v>284.2</v>
       </c>
       <c r="C267" t="n">
-        <v>284</v>
+        <v>284.1</v>
       </c>
       <c r="D267" t="n">
-        <v>284</v>
+        <v>284.2</v>
       </c>
       <c r="E267" t="n">
-        <v>284</v>
+        <v>284.1</v>
       </c>
       <c r="F267" t="n">
-        <v>11080.7473</v>
+        <v>10000</v>
       </c>
       <c r="G267" t="n">
-        <v>285.993333333333</v>
+        <v>286.0616666666663</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9755,10 +9755,10 @@
         <v>284</v>
       </c>
       <c r="F268" t="n">
-        <v>1600.1781</v>
+        <v>11080.7473</v>
       </c>
       <c r="G268" t="n">
-        <v>285.9249999999997</v>
+        <v>285.993333333333</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9781,19 +9781,19 @@
         <v>284</v>
       </c>
       <c r="C269" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D269" t="n">
         <v>284</v>
       </c>
       <c r="E269" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F269" t="n">
-        <v>10000</v>
+        <v>1600.1781</v>
       </c>
       <c r="G269" t="n">
-        <v>285.8399999999997</v>
+        <v>285.9249999999997</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9813,22 +9813,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C270" t="n">
         <v>283</v>
       </c>
       <c r="D270" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E270" t="n">
         <v>283</v>
       </c>
       <c r="F270" t="n">
-        <v>1000.2453</v>
+        <v>10000</v>
       </c>
       <c r="G270" t="n">
-        <v>285.7549999999998</v>
+        <v>285.8399999999997</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9851,19 +9851,19 @@
         <v>283</v>
       </c>
       <c r="C271" t="n">
-        <v>282.5</v>
+        <v>283</v>
       </c>
       <c r="D271" t="n">
         <v>283</v>
       </c>
       <c r="E271" t="n">
-        <v>282.5</v>
+        <v>283</v>
       </c>
       <c r="F271" t="n">
-        <v>20000</v>
+        <v>1000.2453</v>
       </c>
       <c r="G271" t="n">
-        <v>285.6616666666665</v>
+        <v>285.7549999999998</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9883,22 +9883,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>282.6</v>
+        <v>283</v>
       </c>
       <c r="C272" t="n">
         <v>282.5</v>
       </c>
       <c r="D272" t="n">
-        <v>282.6</v>
+        <v>283</v>
       </c>
       <c r="E272" t="n">
         <v>282.5</v>
       </c>
       <c r="F272" t="n">
-        <v>10257.1502</v>
+        <v>20000</v>
       </c>
       <c r="G272" t="n">
-        <v>285.5766666666665</v>
+        <v>285.6616666666665</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9918,22 +9918,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>284</v>
+        <v>282.6</v>
       </c>
       <c r="C273" t="n">
-        <v>282.8</v>
+        <v>282.5</v>
       </c>
       <c r="D273" t="n">
-        <v>284</v>
+        <v>282.6</v>
       </c>
       <c r="E273" t="n">
-        <v>282.8</v>
+        <v>282.5</v>
       </c>
       <c r="F273" t="n">
-        <v>500</v>
+        <v>10257.1502</v>
       </c>
       <c r="G273" t="n">
-        <v>285.5033333333331</v>
+        <v>285.5766666666665</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -9953,22 +9953,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C274" t="n">
-        <v>285</v>
+        <v>282.8</v>
       </c>
       <c r="D274" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E274" t="n">
-        <v>285</v>
+        <v>282.8</v>
       </c>
       <c r="F274" t="n">
-        <v>43.5824</v>
+        <v>500</v>
       </c>
       <c r="G274" t="n">
-        <v>285.4516666666665</v>
+        <v>285.5033333333331</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -9988,22 +9988,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C275" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D275" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E275" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F275" t="n">
-        <v>2</v>
+        <v>43.5824</v>
       </c>
       <c r="G275" t="n">
-        <v>285.4316666666664</v>
+        <v>285.4516666666665</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10023,22 +10023,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>285.8</v>
+        <v>286</v>
       </c>
       <c r="C276" t="n">
-        <v>285.8</v>
+        <v>286</v>
       </c>
       <c r="D276" t="n">
-        <v>285.8</v>
+        <v>286</v>
       </c>
       <c r="E276" t="n">
-        <v>285.8</v>
+        <v>286</v>
       </c>
       <c r="F276" t="n">
-        <v>367.5435</v>
+        <v>2</v>
       </c>
       <c r="G276" t="n">
-        <v>285.4099999999998</v>
+        <v>285.4316666666664</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10070,10 +10070,10 @@
         <v>285.8</v>
       </c>
       <c r="F277" t="n">
-        <v>863.9691</v>
+        <v>367.5435</v>
       </c>
       <c r="G277" t="n">
-        <v>285.3866666666664</v>
+        <v>285.4099999999998</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10105,10 +10105,10 @@
         <v>285.8</v>
       </c>
       <c r="F278" t="n">
-        <v>1128.4485</v>
+        <v>863.9691</v>
       </c>
       <c r="G278" t="n">
-        <v>285.3633333333331</v>
+        <v>285.3866666666664</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10128,22 +10128,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>286</v>
+        <v>285.8</v>
       </c>
       <c r="C279" t="n">
-        <v>284.3</v>
+        <v>285.8</v>
       </c>
       <c r="D279" t="n">
-        <v>286</v>
+        <v>285.8</v>
       </c>
       <c r="E279" t="n">
-        <v>284.3</v>
+        <v>285.8</v>
       </c>
       <c r="F279" t="n">
-        <v>516.6583000000001</v>
+        <v>1128.4485</v>
       </c>
       <c r="G279" t="n">
-        <v>285.3149999999997</v>
+        <v>285.3633333333331</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10163,22 +10163,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>285.7</v>
+        <v>286</v>
       </c>
       <c r="C280" t="n">
-        <v>285.7</v>
+        <v>284.3</v>
       </c>
       <c r="D280" t="n">
-        <v>285.7</v>
+        <v>286</v>
       </c>
       <c r="E280" t="n">
-        <v>285.7</v>
+        <v>284.3</v>
       </c>
       <c r="F280" t="n">
-        <v>294.5283</v>
+        <v>516.6583000000001</v>
       </c>
       <c r="G280" t="n">
-        <v>285.2899999999997</v>
+        <v>285.3149999999997</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10198,22 +10198,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>284.7</v>
+        <v>285.7</v>
       </c>
       <c r="C281" t="n">
-        <v>284.7</v>
+        <v>285.7</v>
       </c>
       <c r="D281" t="n">
-        <v>284.7</v>
+        <v>285.7</v>
       </c>
       <c r="E281" t="n">
-        <v>284.7</v>
+        <v>285.7</v>
       </c>
       <c r="F281" t="n">
-        <v>10</v>
+        <v>294.5283</v>
       </c>
       <c r="G281" t="n">
-        <v>285.2499999999998</v>
+        <v>285.2899999999997</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10233,22 +10233,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>284.3</v>
+        <v>284.7</v>
       </c>
       <c r="C282" t="n">
-        <v>284.3</v>
+        <v>284.7</v>
       </c>
       <c r="D282" t="n">
-        <v>284.3</v>
+        <v>284.7</v>
       </c>
       <c r="E282" t="n">
-        <v>284.3</v>
+        <v>284.7</v>
       </c>
       <c r="F282" t="n">
-        <v>989.7077</v>
+        <v>10</v>
       </c>
       <c r="G282" t="n">
-        <v>285.1716666666664</v>
+        <v>285.2499999999998</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10268,22 +10268,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>284.2</v>
+        <v>284.3</v>
       </c>
       <c r="C283" t="n">
-        <v>284.2</v>
+        <v>284.3</v>
       </c>
       <c r="D283" t="n">
-        <v>284.2</v>
+        <v>284.3</v>
       </c>
       <c r="E283" t="n">
-        <v>283.3</v>
+        <v>284.3</v>
       </c>
       <c r="F283" t="n">
-        <v>3940.1138</v>
+        <v>989.7077</v>
       </c>
       <c r="G283" t="n">
-        <v>285.0999999999997</v>
+        <v>285.1716666666664</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10303,22 +10303,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>284.6</v>
+        <v>284.2</v>
       </c>
       <c r="C284" t="n">
-        <v>284.6</v>
+        <v>284.2</v>
       </c>
       <c r="D284" t="n">
-        <v>284.6</v>
+        <v>284.2</v>
       </c>
       <c r="E284" t="n">
-        <v>284.6</v>
+        <v>283.3</v>
       </c>
       <c r="F284" t="n">
-        <v>360</v>
+        <v>3940.1138</v>
       </c>
       <c r="G284" t="n">
-        <v>285.0566666666664</v>
+        <v>285.0999999999997</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10350,10 +10350,10 @@
         <v>284.6</v>
       </c>
       <c r="F285" t="n">
-        <v>175.247</v>
+        <v>360</v>
       </c>
       <c r="G285" t="n">
-        <v>285.0149999999997</v>
+        <v>285.0566666666664</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10373,22 +10373,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>282.9</v>
+        <v>284.6</v>
       </c>
       <c r="C286" t="n">
-        <v>283</v>
+        <v>284.6</v>
       </c>
       <c r="D286" t="n">
-        <v>283</v>
+        <v>284.6</v>
       </c>
       <c r="E286" t="n">
-        <v>281.6</v>
+        <v>284.6</v>
       </c>
       <c r="F286" t="n">
-        <v>43235.1254</v>
+        <v>175.247</v>
       </c>
       <c r="G286" t="n">
-        <v>284.9466666666664</v>
+        <v>285.0149999999997</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10408,22 +10408,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>282.2</v>
+        <v>282.9</v>
       </c>
       <c r="C287" t="n">
-        <v>282.2</v>
+        <v>283</v>
       </c>
       <c r="D287" t="n">
-        <v>282.2</v>
+        <v>283</v>
       </c>
       <c r="E287" t="n">
-        <v>282.2</v>
+        <v>281.6</v>
       </c>
       <c r="F287" t="n">
-        <v>6421.4755</v>
+        <v>43235.1254</v>
       </c>
       <c r="G287" t="n">
-        <v>284.8649999999998</v>
+        <v>284.9466666666664</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10443,22 +10443,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>282</v>
+        <v>282.2</v>
       </c>
       <c r="C288" t="n">
-        <v>281.5</v>
+        <v>282.2</v>
       </c>
       <c r="D288" t="n">
-        <v>282</v>
+        <v>282.2</v>
       </c>
       <c r="E288" t="n">
-        <v>281.5</v>
+        <v>282.2</v>
       </c>
       <c r="F288" t="n">
-        <v>54560.2072</v>
+        <v>6421.4755</v>
       </c>
       <c r="G288" t="n">
-        <v>284.7716666666665</v>
+        <v>284.8649999999998</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10478,22 +10478,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>281.5</v>
+        <v>282</v>
       </c>
       <c r="C289" t="n">
         <v>281.5</v>
       </c>
       <c r="D289" t="n">
-        <v>281.5</v>
+        <v>282</v>
       </c>
       <c r="E289" t="n">
         <v>281.5</v>
       </c>
       <c r="F289" t="n">
-        <v>200</v>
+        <v>54560.2072</v>
       </c>
       <c r="G289" t="n">
-        <v>284.6766666666664</v>
+        <v>284.7716666666665</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10525,10 +10525,10 @@
         <v>281.5</v>
       </c>
       <c r="F290" t="n">
-        <v>9738.5466</v>
+        <v>200</v>
       </c>
       <c r="G290" t="n">
-        <v>284.5833333333331</v>
+        <v>284.6766666666664</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10548,22 +10548,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>281.6</v>
+        <v>281.5</v>
       </c>
       <c r="C291" t="n">
-        <v>281</v>
+        <v>281.5</v>
       </c>
       <c r="D291" t="n">
-        <v>281.6</v>
+        <v>281.5</v>
       </c>
       <c r="E291" t="n">
-        <v>281</v>
+        <v>281.5</v>
       </c>
       <c r="F291" t="n">
-        <v>150371.9749</v>
+        <v>9738.5466</v>
       </c>
       <c r="G291" t="n">
-        <v>284.4816666666665</v>
+        <v>284.5833333333331</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10583,22 +10583,22 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>281</v>
+        <v>281.6</v>
       </c>
       <c r="C292" t="n">
         <v>281</v>
       </c>
       <c r="D292" t="n">
-        <v>281</v>
+        <v>281.6</v>
       </c>
       <c r="E292" t="n">
         <v>281</v>
       </c>
       <c r="F292" t="n">
-        <v>1154.9942</v>
+        <v>150371.9749</v>
       </c>
       <c r="G292" t="n">
-        <v>284.3833333333332</v>
+        <v>284.4816666666665</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10630,10 +10630,10 @@
         <v>281</v>
       </c>
       <c r="F293" t="n">
-        <v>200</v>
+        <v>1154.9942</v>
       </c>
       <c r="G293" t="n">
-        <v>284.3049999999998</v>
+        <v>284.3833333333332</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10665,10 +10665,10 @@
         <v>281</v>
       </c>
       <c r="F294" t="n">
-        <v>365.7959</v>
+        <v>200</v>
       </c>
       <c r="G294" t="n">
-        <v>284.2316666666665</v>
+        <v>284.3049999999998</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10688,22 +10688,22 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>282.7</v>
+        <v>281</v>
       </c>
       <c r="C295" t="n">
-        <v>282.9</v>
+        <v>281</v>
       </c>
       <c r="D295" t="n">
-        <v>282.9</v>
+        <v>281</v>
       </c>
       <c r="E295" t="n">
-        <v>282.1</v>
+        <v>281</v>
       </c>
       <c r="F295" t="n">
-        <v>440</v>
+        <v>365.7959</v>
       </c>
       <c r="G295" t="n">
-        <v>284.1649999999998</v>
+        <v>284.2316666666665</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10723,22 +10723,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>281.9</v>
+        <v>282.7</v>
       </c>
       <c r="C296" t="n">
-        <v>281.9</v>
+        <v>282.9</v>
       </c>
       <c r="D296" t="n">
-        <v>281.9</v>
+        <v>282.9</v>
       </c>
       <c r="E296" t="n">
-        <v>281.9</v>
+        <v>282.1</v>
       </c>
       <c r="F296" t="n">
-        <v>760.4026</v>
+        <v>440</v>
       </c>
       <c r="G296" t="n">
-        <v>284.1066666666665</v>
+        <v>284.1649999999998</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10758,22 +10758,22 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>281.7</v>
+        <v>281.9</v>
       </c>
       <c r="C297" t="n">
-        <v>283.1</v>
+        <v>281.9</v>
       </c>
       <c r="D297" t="n">
-        <v>283.1</v>
+        <v>281.9</v>
       </c>
       <c r="E297" t="n">
-        <v>280.8</v>
+        <v>281.9</v>
       </c>
       <c r="F297" t="n">
-        <v>19330.0471</v>
+        <v>760.4026</v>
       </c>
       <c r="G297" t="n">
-        <v>284.0499999999998</v>
+        <v>284.1066666666665</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -10793,22 +10793,22 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>281.5</v>
+        <v>281.7</v>
       </c>
       <c r="C298" t="n">
-        <v>280.5</v>
+        <v>283.1</v>
       </c>
       <c r="D298" t="n">
-        <v>281.5</v>
+        <v>283.1</v>
       </c>
       <c r="E298" t="n">
-        <v>280.5</v>
+        <v>280.8</v>
       </c>
       <c r="F298" t="n">
-        <v>3639.4998</v>
+        <v>19330.0471</v>
       </c>
       <c r="G298" t="n">
-        <v>283.9499999999998</v>
+        <v>284.0499999999998</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -10828,22 +10828,22 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>281.4</v>
+        <v>281.5</v>
       </c>
       <c r="C299" t="n">
-        <v>281.4</v>
+        <v>280.5</v>
       </c>
       <c r="D299" t="n">
-        <v>281.4</v>
+        <v>281.5</v>
       </c>
       <c r="E299" t="n">
-        <v>281.4</v>
+        <v>280.5</v>
       </c>
       <c r="F299" t="n">
-        <v>320.2</v>
+        <v>3639.4998</v>
       </c>
       <c r="G299" t="n">
-        <v>283.8899999999998</v>
+        <v>283.9499999999998</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -10875,10 +10875,10 @@
         <v>281.4</v>
       </c>
       <c r="F300" t="n">
-        <v>980</v>
+        <v>320.2</v>
       </c>
       <c r="G300" t="n">
-        <v>283.8466666666665</v>
+        <v>283.8899999999998</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -10901,19 +10901,19 @@
         <v>281.4</v>
       </c>
       <c r="C301" t="n">
-        <v>280.7</v>
+        <v>281.4</v>
       </c>
       <c r="D301" t="n">
         <v>281.4</v>
       </c>
       <c r="E301" t="n">
-        <v>280.7</v>
+        <v>281.4</v>
       </c>
       <c r="F301" t="n">
-        <v>1498.3207</v>
+        <v>980</v>
       </c>
       <c r="G301" t="n">
-        <v>283.7866666666665</v>
+        <v>283.8466666666665</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -10933,22 +10933,22 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>280.7</v>
+        <v>281.4</v>
       </c>
       <c r="C302" t="n">
         <v>280.7</v>
       </c>
       <c r="D302" t="n">
-        <v>280.7</v>
+        <v>281.4</v>
       </c>
       <c r="E302" t="n">
         <v>280.7</v>
       </c>
       <c r="F302" t="n">
-        <v>6756.3881</v>
+        <v>1498.3207</v>
       </c>
       <c r="G302" t="n">
-        <v>283.7283333333332</v>
+        <v>283.7866666666665</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>280.7</v>
       </c>
       <c r="F303" t="n">
-        <v>6596.7442</v>
+        <v>6756.3881</v>
       </c>
       <c r="G303" t="n">
-        <v>283.6649999999998</v>
+        <v>283.7283333333332</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11015,10 +11015,10 @@
         <v>280.7</v>
       </c>
       <c r="F304" t="n">
-        <v>89.0213</v>
+        <v>6596.7442</v>
       </c>
       <c r="G304" t="n">
-        <v>283.6016666666665</v>
+        <v>283.6649999999998</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11050,10 +11050,10 @@
         <v>280.7</v>
       </c>
       <c r="F305" t="n">
-        <v>80.3415</v>
+        <v>89.0213</v>
       </c>
       <c r="G305" t="n">
-        <v>283.5383333333332</v>
+        <v>283.6016666666665</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11073,31 +11073,35 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>280.4</v>
+        <v>280.7</v>
       </c>
       <c r="C306" t="n">
-        <v>280.4</v>
+        <v>280.7</v>
       </c>
       <c r="D306" t="n">
-        <v>280.4</v>
+        <v>280.7</v>
       </c>
       <c r="E306" t="n">
-        <v>280.2</v>
+        <v>280.7</v>
       </c>
       <c r="F306" t="n">
-        <v>949.6092</v>
+        <v>80.3415</v>
       </c>
       <c r="G306" t="n">
-        <v>283.4699999999999</v>
+        <v>283.5383333333332</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>280.7</v>
+      </c>
+      <c r="K306" t="n">
+        <v>280.7</v>
+      </c>
       <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
@@ -11117,23 +11121,31 @@
         <v>280.4</v>
       </c>
       <c r="E307" t="n">
-        <v>280.4</v>
+        <v>280.2</v>
       </c>
       <c r="F307" t="n">
-        <v>5172.7766</v>
+        <v>949.6092</v>
       </c>
       <c r="G307" t="n">
-        <v>283.4099999999999</v>
+        <v>283.4699999999999</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>280.7</v>
+      </c>
+      <c r="K307" t="n">
+        <v>280.7</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11143,32 +11155,40 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>280.6</v>
+        <v>280.4</v>
       </c>
       <c r="C308" t="n">
-        <v>280.6</v>
+        <v>280.4</v>
       </c>
       <c r="D308" t="n">
-        <v>280.6</v>
+        <v>280.4</v>
       </c>
       <c r="E308" t="n">
-        <v>280.6</v>
+        <v>280.4</v>
       </c>
       <c r="F308" t="n">
-        <v>478.4215</v>
+        <v>5172.7766</v>
       </c>
       <c r="G308" t="n">
-        <v>283.3483333333332</v>
+        <v>283.4099999999999</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>280.4</v>
+      </c>
+      <c r="K308" t="n">
+        <v>280.7</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11178,32 +11198,38 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
+        <v>280.6</v>
+      </c>
+      <c r="C309" t="n">
+        <v>280.6</v>
+      </c>
+      <c r="D309" t="n">
+        <v>280.6</v>
+      </c>
+      <c r="E309" t="n">
+        <v>280.6</v>
+      </c>
+      <c r="F309" t="n">
+        <v>478.4215</v>
+      </c>
+      <c r="G309" t="n">
+        <v>283.3483333333332</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0</v>
+      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="n">
         <v>280.7</v>
       </c>
-      <c r="C309" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="D309" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="E309" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="F309" t="n">
-        <v>1849.1247</v>
-      </c>
-      <c r="G309" t="n">
-        <v>283.2583333333333</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11225,10 +11251,10 @@
         <v>280.7</v>
       </c>
       <c r="F310" t="n">
-        <v>707.1325000000001</v>
+        <v>1849.1247</v>
       </c>
       <c r="G310" t="n">
-        <v>283.1949999999999</v>
+        <v>283.2583333333333</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11237,8 +11263,14 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>280.7</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11257,13 +11289,13 @@
         <v>280.7</v>
       </c>
       <c r="E311" t="n">
-        <v>280.4</v>
+        <v>280.7</v>
       </c>
       <c r="F311" t="n">
-        <v>1078.9257</v>
+        <v>707.1325000000001</v>
       </c>
       <c r="G311" t="n">
-        <v>283.13</v>
+        <v>283.1949999999999</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -11272,8 +11304,14 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>280.7</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11283,22 +11321,22 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>281.4</v>
+        <v>280.7</v>
       </c>
       <c r="C312" t="n">
-        <v>281.4</v>
+        <v>280.7</v>
       </c>
       <c r="D312" t="n">
-        <v>281.4</v>
+        <v>280.7</v>
       </c>
       <c r="E312" t="n">
-        <v>281.4</v>
+        <v>280.4</v>
       </c>
       <c r="F312" t="n">
-        <v>985.2954999999999</v>
+        <v>1078.9257</v>
       </c>
       <c r="G312" t="n">
-        <v>283.0833333333333</v>
+        <v>283.13</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -11307,8 +11345,14 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>280.7</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11318,7 +11362,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>281.3</v>
+        <v>281.4</v>
       </c>
       <c r="C313" t="n">
         <v>281.4</v>
@@ -11327,27 +11371,27 @@
         <v>281.4</v>
       </c>
       <c r="E313" t="n">
-        <v>281.3</v>
+        <v>281.4</v>
       </c>
       <c r="F313" t="n">
-        <v>2012.7637</v>
+        <v>985.2954999999999</v>
       </c>
       <c r="G313" t="n">
-        <v>283.0366666666667</v>
+        <v>283.0833333333333</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>281.4</v>
-      </c>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>280.7</v>
+      </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M313" t="n">
@@ -11359,7 +11403,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>281.4</v>
+        <v>281.3</v>
       </c>
       <c r="C314" t="n">
         <v>281.4</v>
@@ -11368,24 +11412,24 @@
         <v>281.4</v>
       </c>
       <c r="E314" t="n">
-        <v>281.4</v>
+        <v>281.3</v>
       </c>
       <c r="F314" t="n">
-        <v>122.8668</v>
+        <v>2012.7637</v>
       </c>
       <c r="G314" t="n">
-        <v>282.9583333333334</v>
+        <v>283.0366666666667</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>281.4</v>
-      </c>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>280.7</v>
+      </c>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11412,21 +11456,21 @@
         <v>281.4</v>
       </c>
       <c r="F315" t="n">
-        <v>1166.5815</v>
+        <v>122.8668</v>
       </c>
       <c r="G315" t="n">
-        <v>282.8950000000001</v>
+        <v>282.9583333333334</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>281.4</v>
-      </c>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>280.7</v>
+      </c>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11453,10 +11497,10 @@
         <v>281.4</v>
       </c>
       <c r="F316" t="n">
-        <v>485.1154</v>
+        <v>1166.5815</v>
       </c>
       <c r="G316" t="n">
-        <v>282.8316666666668</v>
+        <v>282.8950000000001</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -11465,7 +11509,9 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>280.7</v>
+      </c>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11480,22 +11526,22 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>280.4</v>
+        <v>281.4</v>
       </c>
       <c r="C317" t="n">
-        <v>280.1</v>
+        <v>281.4</v>
       </c>
       <c r="D317" t="n">
-        <v>280.4</v>
+        <v>281.4</v>
       </c>
       <c r="E317" t="n">
-        <v>280.1</v>
+        <v>281.4</v>
       </c>
       <c r="F317" t="n">
-        <v>4780</v>
+        <v>485.1154</v>
       </c>
       <c r="G317" t="n">
-        <v>282.7300000000001</v>
+        <v>282.8316666666668</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -11504,7 +11550,9 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>280.7</v>
+      </c>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11519,22 +11567,22 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
+        <v>280.4</v>
+      </c>
+      <c r="C318" t="n">
         <v>280.1</v>
       </c>
-      <c r="C318" t="n">
-        <v>278</v>
-      </c>
       <c r="D318" t="n">
+        <v>280.4</v>
+      </c>
+      <c r="E318" t="n">
         <v>280.1</v>
       </c>
-      <c r="E318" t="n">
-        <v>278</v>
-      </c>
       <c r="F318" t="n">
-        <v>50630.9699</v>
+        <v>4780</v>
       </c>
       <c r="G318" t="n">
-        <v>282.5950000000001</v>
+        <v>282.7300000000001</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -11543,7 +11591,9 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>280.7</v>
+      </c>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11558,22 +11608,22 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>278</v>
+        <v>280.1</v>
       </c>
       <c r="C319" t="n">
         <v>278</v>
       </c>
       <c r="D319" t="n">
-        <v>278</v>
+        <v>280.1</v>
       </c>
       <c r="E319" t="n">
         <v>278</v>
       </c>
       <c r="F319" t="n">
-        <v>17437.7878</v>
+        <v>50630.9699</v>
       </c>
       <c r="G319" t="n">
-        <v>282.4733333333334</v>
+        <v>282.5950000000001</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -11582,7 +11632,9 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>280.7</v>
+      </c>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11609,10 +11661,10 @@
         <v>278</v>
       </c>
       <c r="F320" t="n">
-        <v>847.3573</v>
+        <v>17437.7878</v>
       </c>
       <c r="G320" t="n">
-        <v>282.3700000000001</v>
+        <v>282.4733333333334</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -11621,7 +11673,9 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>280.7</v>
+      </c>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11648,10 +11702,10 @@
         <v>278</v>
       </c>
       <c r="F321" t="n">
-        <v>1230.2911</v>
+        <v>847.3573</v>
       </c>
       <c r="G321" t="n">
-        <v>282.2666666666667</v>
+        <v>282.3700000000001</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -11660,7 +11714,9 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>280.7</v>
+      </c>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11678,19 +11734,19 @@
         <v>278</v>
       </c>
       <c r="C322" t="n">
-        <v>278.7</v>
+        <v>278</v>
       </c>
       <c r="D322" t="n">
-        <v>278.7</v>
+        <v>278</v>
       </c>
       <c r="E322" t="n">
         <v>278</v>
       </c>
       <c r="F322" t="n">
-        <v>132.5761</v>
+        <v>1230.2911</v>
       </c>
       <c r="G322" t="n">
-        <v>282.1516666666668</v>
+        <v>282.2666666666667</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -11699,7 +11755,9 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>280.7</v>
+      </c>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11714,22 +11772,22 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
+        <v>278</v>
+      </c>
+      <c r="C323" t="n">
         <v>278.7</v>
       </c>
-      <c r="C323" t="n">
-        <v>278.9</v>
-      </c>
       <c r="D323" t="n">
-        <v>279</v>
+        <v>278.7</v>
       </c>
       <c r="E323" t="n">
-        <v>278.7</v>
+        <v>278</v>
       </c>
       <c r="F323" t="n">
-        <v>2458.7209</v>
+        <v>132.5761</v>
       </c>
       <c r="G323" t="n">
-        <v>282.0550000000001</v>
+        <v>282.1516666666668</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -11738,7 +11796,9 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>280.7</v>
+      </c>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11753,22 +11813,22 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>278.8</v>
+        <v>278.7</v>
       </c>
       <c r="C324" t="n">
-        <v>277.2</v>
+        <v>278.9</v>
       </c>
       <c r="D324" t="n">
         <v>279</v>
       </c>
       <c r="E324" t="n">
-        <v>277.2</v>
+        <v>278.7</v>
       </c>
       <c r="F324" t="n">
-        <v>2113.3606</v>
+        <v>2458.7209</v>
       </c>
       <c r="G324" t="n">
-        <v>281.9416666666668</v>
+        <v>282.0550000000001</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -11777,7 +11837,9 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>280.7</v>
+      </c>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11792,33 +11854,33 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>279</v>
+        <v>278.8</v>
       </c>
       <c r="C325" t="n">
-        <v>278.9</v>
+        <v>277.2</v>
       </c>
       <c r="D325" t="n">
         <v>279</v>
       </c>
       <c r="E325" t="n">
-        <v>278.9</v>
+        <v>277.2</v>
       </c>
       <c r="F325" t="n">
-        <v>165.2627</v>
+        <v>2113.3606</v>
       </c>
       <c r="G325" t="n">
-        <v>281.8566666666668</v>
+        <v>281.9416666666668</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>277.2</v>
-      </c>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>280.7</v>
+      </c>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11833,33 +11895,33 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>278.8</v>
+        <v>279</v>
       </c>
       <c r="C326" t="n">
-        <v>278.8</v>
+        <v>278.9</v>
       </c>
       <c r="D326" t="n">
-        <v>278.8</v>
+        <v>279</v>
       </c>
       <c r="E326" t="n">
-        <v>278.8</v>
+        <v>278.9</v>
       </c>
       <c r="F326" t="n">
-        <v>3537</v>
+        <v>165.2627</v>
       </c>
       <c r="G326" t="n">
-        <v>281.7683333333335</v>
+        <v>281.8566666666668</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>278.9</v>
-      </c>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>280.7</v>
+      </c>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11874,33 +11936,33 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>278.9</v>
+        <v>278.8</v>
       </c>
       <c r="C327" t="n">
         <v>278.8</v>
       </c>
       <c r="D327" t="n">
-        <v>278.9</v>
+        <v>278.8</v>
       </c>
       <c r="E327" t="n">
         <v>278.8</v>
       </c>
       <c r="F327" t="n">
-        <v>4956.4607</v>
+        <v>3537</v>
       </c>
       <c r="G327" t="n">
-        <v>281.6816666666668</v>
+        <v>281.7683333333335</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>278.8</v>
-      </c>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>280.7</v>
+      </c>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11915,33 +11977,33 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>280.4</v>
+        <v>278.9</v>
       </c>
       <c r="C328" t="n">
-        <v>280.4</v>
+        <v>278.8</v>
       </c>
       <c r="D328" t="n">
-        <v>280.4</v>
+        <v>278.9</v>
       </c>
       <c r="E328" t="n">
-        <v>280.4</v>
+        <v>278.8</v>
       </c>
       <c r="F328" t="n">
-        <v>1144.5929</v>
+        <v>4956.4607</v>
       </c>
       <c r="G328" t="n">
-        <v>281.6216666666668</v>
+        <v>281.6816666666668</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>278.8</v>
-      </c>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>280.7</v>
+      </c>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11956,33 +12018,33 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>280</v>
+        <v>280.4</v>
       </c>
       <c r="C329" t="n">
-        <v>280</v>
+        <v>280.4</v>
       </c>
       <c r="D329" t="n">
-        <v>280</v>
+        <v>280.4</v>
       </c>
       <c r="E329" t="n">
-        <v>280</v>
+        <v>280.4</v>
       </c>
       <c r="F329" t="n">
-        <v>3905.3</v>
+        <v>1144.5929</v>
       </c>
       <c r="G329" t="n">
-        <v>281.5716666666668</v>
+        <v>281.6216666666668</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>280.4</v>
-      </c>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>280.7</v>
+      </c>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11992,6 +12054,49 @@
         <v>1</v>
       </c>
     </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>280</v>
+      </c>
+      <c r="C330" t="n">
+        <v>280</v>
+      </c>
+      <c r="D330" t="n">
+        <v>280</v>
+      </c>
+      <c r="E330" t="n">
+        <v>280</v>
+      </c>
+      <c r="F330" t="n">
+        <v>3905.3</v>
+      </c>
+      <c r="G330" t="n">
+        <v>281.5716666666668</v>
+      </c>
+      <c r="H330" t="n">
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" t="n">
+        <v>280.4</v>
+      </c>
+      <c r="K330" t="n">
+        <v>280.7</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M330" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-23 BackTest MTL.xlsx
+++ b/BackTest/2020-01-23 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M330"/>
+  <dimension ref="A1:N340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>2456.5135</v>
       </c>
       <c r="G2" t="n">
+        <v>288.4933333333335</v>
+      </c>
+      <c r="H2" t="n">
         <v>286.7583333333331</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>3239</v>
       </c>
       <c r="G3" t="n">
+        <v>288.5733333333335</v>
+      </c>
+      <c r="H3" t="n">
         <v>286.8183333333331</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>335.6176</v>
       </c>
       <c r="G4" t="n">
+        <v>288.5866666666668</v>
+      </c>
+      <c r="H4" t="n">
         <v>286.9383333333332</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>6055.4866</v>
       </c>
       <c r="G5" t="n">
+        <v>288.6133333333335</v>
+      </c>
+      <c r="H5" t="n">
         <v>287.0466666666665</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>800</v>
       </c>
       <c r="G6" t="n">
+        <v>288.5733333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>287.1866666666665</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>3487.4222</v>
       </c>
       <c r="G7" t="n">
+        <v>288.6400000000001</v>
+      </c>
+      <c r="H7" t="n">
         <v>287.3099999999998</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>878.22</v>
       </c>
       <c r="G8" t="n">
+        <v>288.8000000000001</v>
+      </c>
+      <c r="H8" t="n">
         <v>287.4416666666665</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>600</v>
       </c>
       <c r="G9" t="n">
+        <v>288.92</v>
+      </c>
+      <c r="H9" t="n">
         <v>287.5649999999999</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>2766.49357684</v>
       </c>
       <c r="G10" t="n">
+        <v>289.0333333333334</v>
+      </c>
+      <c r="H10" t="n">
         <v>287.6883333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>455.0699</v>
       </c>
       <c r="G11" t="n">
+        <v>289.0533333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>287.8116666666666</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>7940.2723</v>
       </c>
       <c r="G12" t="n">
+        <v>289.1266666666666</v>
+      </c>
+      <c r="H12" t="n">
         <v>287.9483333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>4262.8176</v>
       </c>
       <c r="G13" t="n">
+        <v>289.2466666666666</v>
+      </c>
+      <c r="H13" t="n">
         <v>288.0483333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>2899.688</v>
       </c>
       <c r="G14" t="n">
+        <v>289.3199999999999</v>
+      </c>
+      <c r="H14" t="n">
         <v>288.1483333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>1641.2196</v>
       </c>
       <c r="G15" t="n">
+        <v>289.4799999999998</v>
+      </c>
+      <c r="H15" t="n">
         <v>288.2166666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>2419.1596</v>
       </c>
       <c r="G16" t="n">
+        <v>289.6399999999998</v>
+      </c>
+      <c r="H16" t="n">
         <v>288.2766666666666</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>2551.097</v>
       </c>
       <c r="G17" t="n">
+        <v>289.7999999999998</v>
+      </c>
+      <c r="H17" t="n">
         <v>288.3366666666665</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>5367.7246</v>
       </c>
       <c r="G18" t="n">
+        <v>289.9533333333331</v>
+      </c>
+      <c r="H18" t="n">
         <v>288.4016666666666</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>717.88</v>
       </c>
       <c r="G19" t="n">
+        <v>290.1066666666665</v>
+      </c>
+      <c r="H19" t="n">
         <v>288.4683333333332</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>533.00137362</v>
       </c>
       <c r="G20" t="n">
+        <v>290.2266666666665</v>
+      </c>
+      <c r="H20" t="n">
         <v>288.5399999999999</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>3.49931318</v>
       </c>
       <c r="G21" t="n">
+        <v>290.3466666666665</v>
+      </c>
+      <c r="H21" t="n">
         <v>288.6116666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>6092.9652</v>
       </c>
       <c r="G22" t="n">
+        <v>290.3866666666665</v>
+      </c>
+      <c r="H22" t="n">
         <v>288.6933333333332</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>4301.2992</v>
       </c>
       <c r="G23" t="n">
+        <v>290.5466666666665</v>
+      </c>
+      <c r="H23" t="n">
         <v>288.7833333333332</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>10.133</v>
       </c>
       <c r="G24" t="n">
+        <v>290.7399999999999</v>
+      </c>
+      <c r="H24" t="n">
         <v>288.8833333333332</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>2521.8329</v>
       </c>
       <c r="G25" t="n">
+        <v>290.9266666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>288.9549999999999</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>14750.5893</v>
       </c>
       <c r="G26" t="n">
+        <v>291.14</v>
+      </c>
+      <c r="H26" t="n">
         <v>289.0316666666665</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>360.1443</v>
       </c>
       <c r="G27" t="n">
+        <v>291.3066666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>289.1033333333332</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>2343.24173167</v>
       </c>
       <c r="G28" t="n">
+        <v>291.4333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>289.1766666666664</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>17.08233686</v>
       </c>
       <c r="G29" t="n">
+        <v>291.5466666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>289.2316666666665</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>6733.6012</v>
       </c>
       <c r="G30" t="n">
+        <v>291.6866666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>289.2983333333331</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>17090.8884</v>
       </c>
       <c r="G31" t="n">
+        <v>291.6933333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>289.3449999999997</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>997.5661</v>
       </c>
       <c r="G32" t="n">
+        <v>291.7</v>
+      </c>
+      <c r="H32" t="n">
         <v>289.3916666666664</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>6.2053</v>
       </c>
       <c r="G33" t="n">
+        <v>291.7066666666668</v>
+      </c>
+      <c r="H33" t="n">
         <v>289.4383333333331</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>1033.8126</v>
       </c>
       <c r="G34" t="n">
+        <v>291.7133333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>289.4983333333331</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>1944.3504</v>
       </c>
       <c r="G35" t="n">
+        <v>291.6733333333335</v>
+      </c>
+      <c r="H35" t="n">
         <v>289.5166666666664</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>4444.36743305</v>
       </c>
       <c r="G36" t="n">
+        <v>291.5933333333335</v>
+      </c>
+      <c r="H36" t="n">
         <v>289.5249999999997</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>1006</v>
       </c>
       <c r="G37" t="n">
+        <v>291.5533333333335</v>
+      </c>
+      <c r="H37" t="n">
         <v>289.5616666666664</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>95.37050000000001</v>
       </c>
       <c r="G38" t="n">
+        <v>291.3933333333335</v>
+      </c>
+      <c r="H38" t="n">
         <v>289.5983333333331</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>1484.2295</v>
       </c>
       <c r="G39" t="n">
+        <v>291.2000000000001</v>
+      </c>
+      <c r="H39" t="n">
         <v>289.6366666666664</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>6888.3344</v>
       </c>
       <c r="G40" t="n">
+        <v>291.0533333333335</v>
+      </c>
+      <c r="H40" t="n">
         <v>289.6849999999998</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>3007.50870459</v>
       </c>
       <c r="G41" t="n">
+        <v>290.9333333333335</v>
+      </c>
+      <c r="H41" t="n">
         <v>289.7483333333331</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>5119.55974023</v>
       </c>
       <c r="G42" t="n">
+        <v>290.8533333333335</v>
+      </c>
+      <c r="H42" t="n">
         <v>289.8233333333331</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>16489.3806</v>
       </c>
       <c r="G43" t="n">
+        <v>290.8266666666668</v>
+      </c>
+      <c r="H43" t="n">
         <v>289.9133333333331</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>4566.3001</v>
       </c>
       <c r="G44" t="n">
+        <v>290.7800000000001</v>
+      </c>
+      <c r="H44" t="n">
         <v>289.9966666666665</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>3682.4024</v>
       </c>
       <c r="G45" t="n">
+        <v>290.6866666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>290.0499999999998</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>1300</v>
       </c>
       <c r="G46" t="n">
+        <v>290.7533333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>290.1266666666664</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>559.8908</v>
       </c>
       <c r="G47" t="n">
+        <v>290.78</v>
+      </c>
+      <c r="H47" t="n">
         <v>290.1933333333331</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>2313.2224</v>
       </c>
       <c r="G48" t="n">
+        <v>290.8066666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>290.2599999999998</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>5112.4371</v>
       </c>
       <c r="G49" t="n">
+        <v>290.8333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>290.3099999999998</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>904.0039</v>
       </c>
       <c r="G50" t="n">
+        <v>290.86</v>
+      </c>
+      <c r="H50" t="n">
         <v>290.3433333333331</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>8.531499999999999</v>
       </c>
       <c r="G51" t="n">
+        <v>291.0133333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>290.3816666666664</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>1014.0224</v>
       </c>
       <c r="G52" t="n">
+        <v>291.08</v>
+      </c>
+      <c r="H52" t="n">
         <v>290.4149999999998</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>618.3167</v>
       </c>
       <c r="G53" t="n">
+        <v>291.1466666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>290.4716666666665</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>2240.7512</v>
       </c>
       <c r="G54" t="n">
+        <v>291.2</v>
+      </c>
+      <c r="H54" t="n">
         <v>290.5149999999998</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>1162.8931</v>
       </c>
       <c r="G55" t="n">
+        <v>291.3266666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>290.5849999999999</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>3921.5347</v>
       </c>
       <c r="G56" t="n">
+        <v>291.2866666666666</v>
+      </c>
+      <c r="H56" t="n">
         <v>290.6033333333332</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>3000</v>
       </c>
       <c r="G57" t="n">
+        <v>291.1866666666666</v>
+      </c>
+      <c r="H57" t="n">
         <v>290.6183333333332</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>1203.4534</v>
       </c>
       <c r="G58" t="n">
+        <v>291.0333333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>290.6349999999999</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>1294.7665</v>
       </c>
       <c r="G59" t="n">
+        <v>290.9</v>
+      </c>
+      <c r="H59" t="n">
         <v>290.6366666666665</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>126.0511</v>
       </c>
       <c r="G60" t="n">
+        <v>290.8133333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>290.6666666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>2307.2785</v>
       </c>
       <c r="G61" t="n">
+        <v>290.6999999999999</v>
+      </c>
+      <c r="H61" t="n">
         <v>290.6966666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>3280</v>
       </c>
       <c r="G62" t="n">
+        <v>290.6266666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>290.7266666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>4339.3016</v>
       </c>
       <c r="G63" t="n">
+        <v>290.5599999999999</v>
+      </c>
+      <c r="H63" t="n">
         <v>290.7566666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>173.3984</v>
       </c>
       <c r="G64" t="n">
+        <v>290.4933333333332</v>
+      </c>
+      <c r="H64" t="n">
         <v>290.7866666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>5104.7971</v>
       </c>
       <c r="G65" t="n">
+        <v>290.5333333333332</v>
+      </c>
+      <c r="H65" t="n">
         <v>290.8233333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>10083.7518</v>
       </c>
       <c r="G66" t="n">
+        <v>290.5066666666665</v>
+      </c>
+      <c r="H66" t="n">
         <v>290.865</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>145.5436</v>
       </c>
       <c r="G67" t="n">
+        <v>290.4999999999999</v>
+      </c>
+      <c r="H67" t="n">
         <v>290.88</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>843.8558</v>
       </c>
       <c r="G68" t="n">
+        <v>290.4466666666665</v>
+      </c>
+      <c r="H68" t="n">
         <v>290.8833333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>4445.8038</v>
       </c>
       <c r="G69" t="n">
+        <v>290.4466666666665</v>
+      </c>
+      <c r="H69" t="n">
         <v>290.8966666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>10</v>
       </c>
       <c r="G70" t="n">
+        <v>290.3266666666666</v>
+      </c>
+      <c r="H70" t="n">
         <v>290.9083333333332</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>7300</v>
       </c>
       <c r="G71" t="n">
+        <v>290.4333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>290.9483333333332</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>798.3857</v>
       </c>
       <c r="G72" t="n">
+        <v>290.5533333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>290.9749999999999</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>668.2605</v>
       </c>
       <c r="G73" t="n">
+        <v>290.5666666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>290.9649999999999</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>2</v>
       </c>
       <c r="G74" t="n">
+        <v>290.6799999999999</v>
+      </c>
+      <c r="H74" t="n">
         <v>290.9766666666665</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>6857.1847</v>
       </c>
       <c r="G75" t="n">
+        <v>290.8</v>
+      </c>
+      <c r="H75" t="n">
         <v>290.9966666666666</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>11616.5051</v>
       </c>
       <c r="G76" t="n">
+        <v>290.8266666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>290.9933333333332</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>1473.42492617</v>
       </c>
       <c r="G77" t="n">
+        <v>290.96</v>
+      </c>
+      <c r="H77" t="n">
         <v>291.0166666666665</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>27.7692</v>
       </c>
       <c r="G78" t="n">
+        <v>290.9933333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>291.0166666666665</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>1393.7817</v>
       </c>
       <c r="G79" t="n">
+        <v>291.0266666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>291.0166666666665</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>704.6727</v>
       </c>
       <c r="G80" t="n">
+        <v>290.9533333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>291.0049999999999</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>7027.5673</v>
       </c>
       <c r="G81" t="n">
+        <v>290.8666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>290.9949999999998</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>2384.2384</v>
       </c>
       <c r="G82" t="n">
+        <v>290.84</v>
+      </c>
+      <c r="H82" t="n">
         <v>290.9933333333332</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>1910.7673</v>
       </c>
       <c r="G83" t="n">
+        <v>290.8466666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>290.9583333333331</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>3021.3329</v>
       </c>
       <c r="G84" t="n">
+        <v>290.8400000000001</v>
+      </c>
+      <c r="H84" t="n">
         <v>290.9216666666665</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>3021.3328</v>
       </c>
       <c r="G85" t="n">
+        <v>290.8333333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>290.8849999999998</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>54.1227</v>
       </c>
       <c r="G86" t="n">
+        <v>290.7200000000001</v>
+      </c>
+      <c r="H86" t="n">
         <v>290.8433333333331</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>1482.031</v>
       </c>
       <c r="G87" t="n">
+        <v>290.6066666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>290.7999999999998</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>6436.0759</v>
       </c>
       <c r="G88" t="n">
+        <v>290.5066666666668</v>
+      </c>
+      <c r="H88" t="n">
         <v>290.7333333333331</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>1968.5983</v>
       </c>
       <c r="G89" t="n">
+        <v>290.4266666666668</v>
+      </c>
+      <c r="H89" t="n">
         <v>290.6966666666664</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>1282</v>
       </c>
       <c r="G90" t="n">
+        <v>290.3466666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>290.6616666666665</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>2067.7</v>
       </c>
       <c r="G91" t="n">
+        <v>290.3533333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>290.6583333333331</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>595.0135</v>
       </c>
       <c r="G92" t="n">
+        <v>290.2533333333334</v>
+      </c>
+      <c r="H92" t="n">
         <v>290.6549999999999</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>167.3668</v>
       </c>
       <c r="G93" t="n">
+        <v>290.2466666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>290.6516666666666</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>281.0221</v>
       </c>
       <c r="G94" t="n">
+        <v>290.2666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>290.6549999999999</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>1473.4249</v>
       </c>
       <c r="G95" t="n">
+        <v>290.26</v>
+      </c>
+      <c r="H95" t="n">
         <v>290.6516666666666</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>8450.2304</v>
       </c>
       <c r="G96" t="n">
+        <v>290.34</v>
+      </c>
+      <c r="H96" t="n">
         <v>290.6816666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>460.3074</v>
       </c>
       <c r="G97" t="n">
+        <v>290.3333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>290.6883333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>1299.2897</v>
       </c>
       <c r="G98" t="n">
+        <v>290.34</v>
+      </c>
+      <c r="H98" t="n">
         <v>290.695</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>7957.4612</v>
       </c>
       <c r="G99" t="n">
+        <v>290.2733333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>290.6899999999999</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>2351.3756</v>
       </c>
       <c r="G100" t="n">
+        <v>290.24</v>
+      </c>
+      <c r="H100" t="n">
         <v>290.6816666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>17250.7124</v>
       </c>
       <c r="G101" t="n">
+        <v>290.1133333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>290.6383333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>4847.1038</v>
       </c>
       <c r="G102" t="n">
+        <v>290.0466666666666</v>
+      </c>
+      <c r="H102" t="n">
         <v>290.5983333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>15.1194</v>
       </c>
       <c r="G103" t="n">
+        <v>290.0666666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>290.5433333333332</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>304.1639</v>
       </c>
       <c r="G104" t="n">
+        <v>289.9733333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>290.4949999999999</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>498.9996</v>
       </c>
       <c r="G105" t="n">
+        <v>289.86</v>
+      </c>
+      <c r="H105" t="n">
         <v>290.4549999999999</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>1179.2137</v>
       </c>
       <c r="G106" t="n">
+        <v>289.7533333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>290.4083333333332</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>4311.4322</v>
       </c>
       <c r="G107" t="n">
+        <v>289.5666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>290.3516666666665</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>3.99515748</v>
       </c>
       <c r="G108" t="n">
+        <v>289.4800000000001</v>
+      </c>
+      <c r="H108" t="n">
         <v>290.3199999999998</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>1754.7345</v>
       </c>
       <c r="G109" t="n">
+        <v>289.3666666666668</v>
+      </c>
+      <c r="H109" t="n">
         <v>290.2883333333331</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>2761.3447</v>
       </c>
       <c r="G110" t="n">
+        <v>289.2733333333335</v>
+      </c>
+      <c r="H110" t="n">
         <v>290.2549999999998</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>398.4859</v>
       </c>
       <c r="G111" t="n">
+        <v>289.1266666666668</v>
+      </c>
+      <c r="H111" t="n">
         <v>290.2099999999998</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>8887.194299999999</v>
       </c>
       <c r="G112" t="n">
+        <v>289.0866666666669</v>
+      </c>
+      <c r="H112" t="n">
         <v>290.1899999999998</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>217.24430683</v>
       </c>
       <c r="G113" t="n">
+        <v>289.1066666666669</v>
+      </c>
+      <c r="H113" t="n">
         <v>290.1849999999998</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>499.8371</v>
       </c>
       <c r="G114" t="n">
+        <v>289.2066666666669</v>
+      </c>
+      <c r="H114" t="n">
         <v>290.1916666666664</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>1373.4765</v>
       </c>
       <c r="G115" t="n">
+        <v>289.2800000000003</v>
+      </c>
+      <c r="H115" t="n">
         <v>290.1699999999997</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>1304.8027</v>
       </c>
       <c r="G116" t="n">
+        <v>289.4400000000003</v>
+      </c>
+      <c r="H116" t="n">
         <v>290.1766666666663</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>16434.0589</v>
       </c>
       <c r="G117" t="n">
+        <v>289.5266666666669</v>
+      </c>
+      <c r="H117" t="n">
         <v>290.1833333333331</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>8372.834800000001</v>
       </c>
       <c r="G118" t="n">
+        <v>289.6133333333335</v>
+      </c>
+      <c r="H118" t="n">
         <v>290.1883333333331</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>152.0849</v>
       </c>
       <c r="G119" t="n">
+        <v>289.6066666666668</v>
+      </c>
+      <c r="H119" t="n">
         <v>290.1716666666664</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>1068.3204</v>
       </c>
       <c r="G120" t="n">
+        <v>289.6200000000001</v>
+      </c>
+      <c r="H120" t="n">
         <v>290.1566666666664</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>1823.1093</v>
       </c>
       <c r="G121" t="n">
+        <v>289.6333333333334</v>
+      </c>
+      <c r="H121" t="n">
         <v>290.1416666666664</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>746.7518</v>
       </c>
       <c r="G122" t="n">
+        <v>289.7266666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>290.1266666666663</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>0.0001</v>
       </c>
       <c r="G123" t="n">
+        <v>289.7200000000001</v>
+      </c>
+      <c r="H123" t="n">
         <v>290.1099999999997</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>11332.96043746</v>
       </c>
       <c r="G124" t="n">
+        <v>289.8000000000001</v>
+      </c>
+      <c r="H124" t="n">
         <v>290.1149999999997</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>1000</v>
       </c>
       <c r="G125" t="n">
+        <v>289.8133333333334</v>
+      </c>
+      <c r="H125" t="n">
         <v>290.0749999999997</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>1449.8127</v>
       </c>
       <c r="G126" t="n">
+        <v>289.86</v>
+      </c>
+      <c r="H126" t="n">
         <v>290.048333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>2</v>
       </c>
       <c r="G127" t="n">
+        <v>289.8933333333334</v>
+      </c>
+      <c r="H127" t="n">
         <v>290.038333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>1070.321</v>
       </c>
       <c r="G128" t="n">
+        <v>289.8666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>290.0399999999996</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>3862.8605</v>
       </c>
       <c r="G129" t="n">
+        <v>289.8533333333334</v>
+      </c>
+      <c r="H129" t="n">
         <v>290.043333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>13913.6718</v>
       </c>
       <c r="G130" t="n">
+        <v>289.7866666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>290.0349999999996</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>488.6986</v>
       </c>
       <c r="G131" t="n">
+        <v>289.7866666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>290.0149999999996</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>419.1357</v>
       </c>
       <c r="G132" t="n">
+        <v>289.8000000000001</v>
+      </c>
+      <c r="H132" t="n">
         <v>289.9949999999996</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>4775.9456</v>
       </c>
       <c r="G133" t="n">
+        <v>289.7600000000001</v>
+      </c>
+      <c r="H133" t="n">
         <v>289.9866666666663</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>13.4693</v>
       </c>
       <c r="G134" t="n">
+        <v>289.8000000000001</v>
+      </c>
+      <c r="H134" t="n">
         <v>289.9516666666662</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>64.90940000000001</v>
       </c>
       <c r="G135" t="n">
+        <v>289.8333333333334</v>
+      </c>
+      <c r="H135" t="n">
         <v>289.9149999999996</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>15.29249827</v>
       </c>
       <c r="G136" t="n">
+        <v>289.9400000000002</v>
+      </c>
+      <c r="H136" t="n">
         <v>289.9199999999995</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>2418.3116</v>
       </c>
       <c r="G137" t="n">
+        <v>289.9733333333335</v>
+      </c>
+      <c r="H137" t="n">
         <v>289.8799999999995</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>2753.3632</v>
       </c>
       <c r="G138" t="n">
+        <v>289.9733333333335</v>
+      </c>
+      <c r="H138" t="n">
         <v>289.8549999999995</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>9141.9704</v>
       </c>
       <c r="G139" t="n">
+        <v>289.8466666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>289.8199999999995</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>10786.3642</v>
       </c>
       <c r="G140" t="n">
+        <v>289.8000000000001</v>
+      </c>
+      <c r="H140" t="n">
         <v>289.7866666666662</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5735,21 @@
         <v>170.8851</v>
       </c>
       <c r="G141" t="n">
+        <v>289.6800000000001</v>
+      </c>
+      <c r="H141" t="n">
         <v>289.7516666666662</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5773,21 @@
         <v>15.71773636</v>
       </c>
       <c r="G142" t="n">
+        <v>289.6466666666668</v>
+      </c>
+      <c r="H142" t="n">
         <v>289.7399999999996</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5811,21 @@
         <v>449.2385</v>
       </c>
       <c r="G143" t="n">
+        <v>289.5333333333335</v>
+      </c>
+      <c r="H143" t="n">
         <v>289.7116666666662</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5849,21 @@
         <v>6405.5703</v>
       </c>
       <c r="G144" t="n">
+        <v>289.3733333333335</v>
+      </c>
+      <c r="H144" t="n">
         <v>289.6766666666662</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5887,21 @@
         <v>853.2702</v>
       </c>
       <c r="G145" t="n">
+        <v>289.3733333333335</v>
+      </c>
+      <c r="H145" t="n">
         <v>289.6699999999995</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5925,21 @@
         <v>515.6468</v>
       </c>
       <c r="G146" t="n">
+        <v>289.3000000000001</v>
+      </c>
+      <c r="H146" t="n">
         <v>289.6599999999996</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +5963,21 @@
         <v>1005.7031</v>
       </c>
       <c r="G147" t="n">
+        <v>289.2266666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>289.6499999999996</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6001,21 @@
         <v>7482.4196</v>
       </c>
       <c r="G148" t="n">
+        <v>289.1466666666668</v>
+      </c>
+      <c r="H148" t="n">
         <v>289.6466666666662</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6039,21 @@
         <v>1973.5473</v>
       </c>
       <c r="G149" t="n">
+        <v>289.1066666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>289.6216666666662</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6077,21 @@
         <v>529.6488000000001</v>
       </c>
       <c r="G150" t="n">
+        <v>289.0733333333334</v>
+      </c>
+      <c r="H150" t="n">
         <v>289.5966666666662</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6115,21 @@
         <v>647.2742</v>
       </c>
       <c r="G151" t="n">
+        <v>288.9666666666668</v>
+      </c>
+      <c r="H151" t="n">
         <v>289.5733333333329</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6153,21 @@
         <v>660.1387999999999</v>
       </c>
       <c r="G152" t="n">
+        <v>288.9066666666668</v>
+      </c>
+      <c r="H152" t="n">
         <v>289.5433333333328</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6191,21 @@
         <v>1824.6303</v>
       </c>
       <c r="G153" t="n">
+        <v>288.8600000000001</v>
+      </c>
+      <c r="H153" t="n">
         <v>289.5083333333328</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6229,21 @@
         <v>37219.4616</v>
       </c>
       <c r="G154" t="n">
+        <v>288.8333333333334</v>
+      </c>
+      <c r="H154" t="n">
         <v>289.4616666666661</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6267,21 @@
         <v>19302.5616</v>
       </c>
       <c r="G155" t="n">
+        <v>288.7800000000001</v>
+      </c>
+      <c r="H155" t="n">
         <v>289.4166666666661</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6305,21 @@
         <v>108.6258</v>
       </c>
       <c r="G156" t="n">
+        <v>288.7266666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>289.3483333333328</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6343,21 @@
         <v>1482.1295</v>
       </c>
       <c r="G157" t="n">
+        <v>288.6066666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>289.3083333333328</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6381,21 @@
         <v>115.9547</v>
       </c>
       <c r="G158" t="n">
+        <v>288.5666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>289.2683333333327</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6419,21 @@
         <v>304.4138</v>
       </c>
       <c r="G159" t="n">
+        <v>288.5666666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>289.2499999999994</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6457,21 @@
         <v>4280</v>
       </c>
       <c r="G160" t="n">
+        <v>288.4133333333334</v>
+      </c>
+      <c r="H160" t="n">
         <v>289.2133333333328</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6495,21 @@
         <v>1050.9311</v>
       </c>
       <c r="G161" t="n">
+        <v>288.2666666666667</v>
+      </c>
+      <c r="H161" t="n">
         <v>289.1983333333328</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6533,21 @@
         <v>1500</v>
       </c>
       <c r="G162" t="n">
+        <v>288.1266666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>289.1699999999994</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6571,21 @@
         <v>15.35590877</v>
       </c>
       <c r="G163" t="n">
+        <v>288.18</v>
+      </c>
+      <c r="H163" t="n">
         <v>289.1749999999995</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6609,21 @@
         <v>42.5578</v>
       </c>
       <c r="G164" t="n">
+        <v>288.2333333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>289.1866666666662</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6647,21 @@
         <v>483.25854332</v>
       </c>
       <c r="G165" t="n">
+        <v>288.28</v>
+      </c>
+      <c r="H165" t="n">
         <v>289.2016666666662</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6685,21 @@
         <v>1754.7345</v>
       </c>
       <c r="G166" t="n">
+        <v>288.1866666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>289.1816666666662</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6723,21 @@
         <v>194.3625</v>
       </c>
       <c r="G167" t="n">
+        <v>288.12</v>
+      </c>
+      <c r="H167" t="n">
         <v>289.1816666666662</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +6761,21 @@
         <v>19.22145328</v>
       </c>
       <c r="G168" t="n">
+        <v>288.1666666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>289.1799999999996</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +6799,21 @@
         <v>651.554</v>
       </c>
       <c r="G169" t="n">
+        <v>288.1733333333333</v>
+      </c>
+      <c r="H169" t="n">
         <v>289.1633333333329</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +6837,21 @@
         <v>1480.77854672</v>
       </c>
       <c r="G170" t="n">
+        <v>288.26</v>
+      </c>
+      <c r="H170" t="n">
         <v>289.1633333333329</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +6875,21 @@
         <v>5140.3875</v>
       </c>
       <c r="G171" t="n">
+        <v>288.4133333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>289.1699999999996</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +6913,21 @@
         <v>319.0411</v>
       </c>
       <c r="G172" t="n">
+        <v>288.5266666666667</v>
+      </c>
+      <c r="H172" t="n">
         <v>289.168333333333</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +6951,21 @@
         <v>133</v>
       </c>
       <c r="G173" t="n">
+        <v>288.6333333333334</v>
+      </c>
+      <c r="H173" t="n">
         <v>289.1499999999996</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +6989,21 @@
         <v>69.01311249</v>
       </c>
       <c r="G174" t="n">
+        <v>288.7533333333334</v>
+      </c>
+      <c r="H174" t="n">
         <v>289.1366666666663</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7027,21 @@
         <v>1144</v>
       </c>
       <c r="G175" t="n">
+        <v>288.9266666666667</v>
+      </c>
+      <c r="H175" t="n">
         <v>289.1249999999997</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7065,21 @@
         <v>1901.3733</v>
       </c>
       <c r="G176" t="n">
+        <v>289.1</v>
+      </c>
+      <c r="H176" t="n">
         <v>289.113333333333</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7103,21 @@
         <v>64.9265</v>
       </c>
       <c r="G177" t="n">
+        <v>289.2466666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>289.0999999999996</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7141,21 @@
         <v>396.3721</v>
       </c>
       <c r="G178" t="n">
+        <v>289.2533333333334</v>
+      </c>
+      <c r="H178" t="n">
         <v>289.0849999999996</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7179,21 @@
         <v>440.566</v>
       </c>
       <c r="G179" t="n">
+        <v>289.2266666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>289.0916666666663</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7217,21 @@
         <v>150.0455</v>
       </c>
       <c r="G180" t="n">
+        <v>289.2</v>
+      </c>
+      <c r="H180" t="n">
         <v>289.0966666666663</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7255,21 @@
         <v>2589.235</v>
       </c>
       <c r="G181" t="n">
+        <v>289.3800000000001</v>
+      </c>
+      <c r="H181" t="n">
         <v>289.1183333333329</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7293,21 @@
         <v>15.039</v>
       </c>
       <c r="G182" t="n">
+        <v>289.5600000000001</v>
+      </c>
+      <c r="H182" t="n">
         <v>289.1399999999996</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7331,21 @@
         <v>13</v>
       </c>
       <c r="G183" t="n">
+        <v>289.66</v>
+      </c>
+      <c r="H183" t="n">
         <v>289.1649999999996</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7369,21 @@
         <v>1380.2139</v>
       </c>
       <c r="G184" t="n">
+        <v>289.82</v>
+      </c>
+      <c r="H184" t="n">
         <v>289.168333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7407,21 @@
         <v>968.2904</v>
       </c>
       <c r="G185" t="n">
+        <v>289.92</v>
+      </c>
+      <c r="H185" t="n">
         <v>289.1899999999996</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7445,21 @@
         <v>298.122</v>
       </c>
       <c r="G186" t="n">
+        <v>289.9533333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>289.1933333333329</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7483,21 @@
         <v>1254.7348</v>
       </c>
       <c r="G187" t="n">
+        <v>290.04</v>
+      </c>
+      <c r="H187" t="n">
         <v>289.2049999999996</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7521,21 @@
         <v>248.4064</v>
       </c>
       <c r="G188" t="n">
+        <v>290.1266666666667</v>
+      </c>
+      <c r="H188" t="n">
         <v>289.2149999999996</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +7559,21 @@
         <v>218.0654</v>
       </c>
       <c r="G189" t="n">
+        <v>290.2066666666666</v>
+      </c>
+      <c r="H189" t="n">
         <v>289.2249999999996</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +7597,21 @@
         <v>1080.324</v>
       </c>
       <c r="G190" t="n">
+        <v>290.28</v>
+      </c>
+      <c r="H190" t="n">
         <v>289.248333333333</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +7635,21 @@
         <v>1778.7978</v>
       </c>
       <c r="G191" t="n">
+        <v>290.3466666666666</v>
+      </c>
+      <c r="H191" t="n">
         <v>289.253333333333</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +7673,21 @@
         <v>2781.908</v>
       </c>
       <c r="G192" t="n">
+        <v>290.4333333333333</v>
+      </c>
+      <c r="H192" t="n">
         <v>289.2583333333331</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +7711,21 @@
         <v>922.0706</v>
       </c>
       <c r="G193" t="n">
+        <v>290.5133333333333</v>
+      </c>
+      <c r="H193" t="n">
         <v>289.2733333333331</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +7749,21 @@
         <v>292</v>
       </c>
       <c r="G194" t="n">
+        <v>290.6199999999999</v>
+      </c>
+      <c r="H194" t="n">
         <v>289.2966666666665</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +7787,21 @@
         <v>119.9999</v>
       </c>
       <c r="G195" t="n">
+        <v>290.6199999999999</v>
+      </c>
+      <c r="H195" t="n">
         <v>289.2933333333331</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +7825,21 @@
         <v>853.2702</v>
       </c>
       <c r="G196" t="n">
+        <v>290.5333333333332</v>
+      </c>
+      <c r="H196" t="n">
         <v>289.2666666666665</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +7863,21 @@
         <v>15.71231459</v>
       </c>
       <c r="G197" t="n">
+        <v>290.5066666666665</v>
+      </c>
+      <c r="H197" t="n">
         <v>289.2733333333332</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,18 +7901,21 @@
         <v>3163.9795</v>
       </c>
       <c r="G198" t="n">
+        <v>290.3799999999999</v>
+      </c>
+      <c r="H198" t="n">
         <v>289.2666666666665</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,18 +7939,21 @@
         <v>6062.6042</v>
       </c>
       <c r="G199" t="n">
+        <v>290.2466666666666</v>
+      </c>
+      <c r="H199" t="n">
         <v>289.2683333333331</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,18 +7977,21 @@
         <v>1081.7407</v>
       </c>
       <c r="G200" t="n">
+        <v>290.1199999999999</v>
+      </c>
+      <c r="H200" t="n">
         <v>289.2699999999998</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7413,18 +8015,21 @@
         <v>1047.7054</v>
       </c>
       <c r="G201" t="n">
+        <v>289.9866666666666</v>
+      </c>
+      <c r="H201" t="n">
         <v>289.2699999999998</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,18 +8053,21 @@
         <v>1041.3123</v>
       </c>
       <c r="G202" t="n">
+        <v>289.8199999999999</v>
+      </c>
+      <c r="H202" t="n">
         <v>289.2483333333331</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,18 +8091,21 @@
         <v>2773.4671</v>
       </c>
       <c r="G203" t="n">
+        <v>289.6333333333333</v>
+      </c>
+      <c r="H203" t="n">
         <v>289.2399999999998</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7518,18 +8129,21 @@
         <v>1736.6209</v>
       </c>
       <c r="G204" t="n">
+        <v>289.44</v>
+      </c>
+      <c r="H204" t="n">
         <v>289.2416666666664</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,18 +8167,21 @@
         <v>163.489</v>
       </c>
       <c r="G205" t="n">
+        <v>289.2466666666667</v>
+      </c>
+      <c r="H205" t="n">
         <v>289.2166666666664</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,18 +8205,21 @@
         <v>11826.1256</v>
       </c>
       <c r="G206" t="n">
+        <v>289.0200000000001</v>
+      </c>
+      <c r="H206" t="n">
         <v>289.1833333333331</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7623,18 +8243,21 @@
         <v>4153.1407</v>
       </c>
       <c r="G207" t="n">
+        <v>288.8333333333334</v>
+      </c>
+      <c r="H207" t="n">
         <v>289.1599999999997</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7658,18 +8281,21 @@
         <v>8497.391799999999</v>
       </c>
       <c r="G208" t="n">
+        <v>288.6600000000001</v>
+      </c>
+      <c r="H208" t="n">
         <v>289.1516666666664</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7693,18 +8319,21 @@
         <v>3387.7904</v>
       </c>
       <c r="G209" t="n">
+        <v>288.4666666666669</v>
+      </c>
+      <c r="H209" t="n">
         <v>289.1366666666664</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7728,18 +8357,21 @@
         <v>200.06</v>
       </c>
       <c r="G210" t="n">
+        <v>288.3866666666669</v>
+      </c>
+      <c r="H210" t="n">
         <v>289.1216666666663</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7763,18 +8395,21 @@
         <v>1671.8915</v>
       </c>
       <c r="G211" t="n">
+        <v>288.3266666666669</v>
+      </c>
+      <c r="H211" t="n">
         <v>289.1066666666663</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7798,18 +8433,21 @@
         <v>3498.2832</v>
       </c>
       <c r="G212" t="n">
+        <v>288.2066666666669</v>
+      </c>
+      <c r="H212" t="n">
         <v>289.098333333333</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7833,18 +8471,21 @@
         <v>1198.5532</v>
       </c>
       <c r="G213" t="n">
+        <v>288.1400000000003</v>
+      </c>
+      <c r="H213" t="n">
         <v>289.0866666666663</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7868,18 +8509,21 @@
         <v>12050.6529</v>
       </c>
       <c r="G214" t="n">
+        <v>288.0533333333336</v>
+      </c>
+      <c r="H214" t="n">
         <v>289.073333333333</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7903,18 +8547,21 @@
         <v>7.71259979</v>
       </c>
       <c r="G215" t="n">
+        <v>288.0200000000003</v>
+      </c>
+      <c r="H215" t="n">
         <v>289.0799999999996</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7938,18 +8585,21 @@
         <v>20013.2812</v>
       </c>
       <c r="G216" t="n">
+        <v>287.9333333333336</v>
+      </c>
+      <c r="H216" t="n">
         <v>289.0716666666663</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7973,18 +8623,21 @@
         <v>17000.6691</v>
       </c>
       <c r="G217" t="n">
+        <v>287.8400000000003</v>
+      </c>
+      <c r="H217" t="n">
         <v>289.0566666666663</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8008,18 +8661,21 @@
         <v>4869.4308</v>
       </c>
       <c r="G218" t="n">
+        <v>287.7800000000003</v>
+      </c>
+      <c r="H218" t="n">
         <v>289.043333333333</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8043,18 +8699,21 @@
         <v>4284</v>
       </c>
       <c r="G219" t="n">
+        <v>287.7200000000002</v>
+      </c>
+      <c r="H219" t="n">
         <v>289.0299999999996</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8078,18 +8737,21 @@
         <v>1810.10898635</v>
       </c>
       <c r="G220" t="n">
+        <v>287.6600000000001</v>
+      </c>
+      <c r="H220" t="n">
         <v>289.028333333333</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8113,18 +8775,21 @@
         <v>6879.3507</v>
       </c>
       <c r="G221" t="n">
+        <v>287.6400000000002</v>
+      </c>
+      <c r="H221" t="n">
         <v>289.0266666666664</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8148,18 +8813,21 @@
         <v>32.6279</v>
       </c>
       <c r="G222" t="n">
+        <v>287.5733333333335</v>
+      </c>
+      <c r="H222" t="n">
         <v>289.0216666666663</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8183,18 +8851,21 @@
         <v>91.20999999999999</v>
       </c>
       <c r="G223" t="n">
+        <v>287.6333333333334</v>
+      </c>
+      <c r="H223" t="n">
         <v>289.0149999999996</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8218,18 +8889,21 @@
         <v>2.3543</v>
       </c>
       <c r="G224" t="n">
+        <v>287.6600000000001</v>
+      </c>
+      <c r="H224" t="n">
         <v>288.9933333333329</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8253,18 +8927,21 @@
         <v>10089.9278</v>
       </c>
       <c r="G225" t="n">
+        <v>287.6000000000001</v>
+      </c>
+      <c r="H225" t="n">
         <v>288.9516666666663</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8288,18 +8965,21 @@
         <v>3457.9415</v>
       </c>
       <c r="G226" t="n">
+        <v>287.5333333333334</v>
+      </c>
+      <c r="H226" t="n">
         <v>288.9433333333329</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8323,18 +9003,21 @@
         <v>2831.1466</v>
       </c>
       <c r="G227" t="n">
+        <v>287.4666666666668</v>
+      </c>
+      <c r="H227" t="n">
         <v>288.9349999999996</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8358,18 +9041,21 @@
         <v>7483.7297</v>
       </c>
       <c r="G228" t="n">
+        <v>287.4333333333334</v>
+      </c>
+      <c r="H228" t="n">
         <v>288.9033333333329</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8393,18 +9079,21 @@
         <v>11323.6097</v>
       </c>
       <c r="G229" t="n">
+        <v>287.4266666666668</v>
+      </c>
+      <c r="H229" t="n">
         <v>288.8866666666663</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8428,18 +9117,21 @@
         <v>3362.3216</v>
       </c>
       <c r="G230" t="n">
+        <v>287.3666666666667</v>
+      </c>
+      <c r="H230" t="n">
         <v>288.8566666666663</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8463,18 +9155,21 @@
         <v>957.9416</v>
       </c>
       <c r="G231" t="n">
+        <v>287.3600000000001</v>
+      </c>
+      <c r="H231" t="n">
         <v>288.8083333333329</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8498,18 +9193,21 @@
         <v>8789.92148049</v>
       </c>
       <c r="G232" t="n">
+        <v>287.3600000000001</v>
+      </c>
+      <c r="H232" t="n">
         <v>288.7649999999995</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8533,18 +9231,21 @@
         <v>5481.8136</v>
       </c>
       <c r="G233" t="n">
+        <v>287.3400000000001</v>
+      </c>
+      <c r="H233" t="n">
         <v>288.7199999999996</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8568,18 +9269,21 @@
         <v>4472.1306</v>
       </c>
       <c r="G234" t="n">
+        <v>287.2400000000001</v>
+      </c>
+      <c r="H234" t="n">
         <v>288.6516666666663</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8603,18 +9307,21 @@
         <v>6987.2961</v>
       </c>
       <c r="G235" t="n">
+        <v>287.1200000000001</v>
+      </c>
+      <c r="H235" t="n">
         <v>288.5766666666663</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8638,18 +9345,21 @@
         <v>1002.2487</v>
       </c>
       <c r="G236" t="n">
+        <v>287.1000000000001</v>
+      </c>
+      <c r="H236" t="n">
         <v>288.5266666666663</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8673,18 +9383,21 @@
         <v>167.0006</v>
       </c>
       <c r="G237" t="n">
+        <v>286.9866666666667</v>
+      </c>
+      <c r="H237" t="n">
         <v>288.4566666666663</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8708,18 +9421,21 @@
         <v>970.9011</v>
       </c>
       <c r="G238" t="n">
+        <v>286.82</v>
+      </c>
+      <c r="H238" t="n">
         <v>288.4066666666664</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8743,18 +9459,21 @@
         <v>2840.5218</v>
       </c>
       <c r="G239" t="n">
+        <v>286.6866666666667</v>
+      </c>
+      <c r="H239" t="n">
         <v>288.358333333333</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8778,18 +9497,21 @@
         <v>4123.367</v>
       </c>
       <c r="G240" t="n">
+        <v>286.54</v>
+      </c>
+      <c r="H240" t="n">
         <v>288.2866666666663</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8813,18 +9535,21 @@
         <v>28584.0177</v>
       </c>
       <c r="G241" t="n">
+        <v>286.3333333333333</v>
+      </c>
+      <c r="H241" t="n">
         <v>288.1816666666663</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8848,18 +9573,21 @@
         <v>9932.3367</v>
       </c>
       <c r="G242" t="n">
+        <v>286.1466666666666</v>
+      </c>
+      <c r="H242" t="n">
         <v>288.0816666666663</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8883,18 +9611,21 @@
         <v>4569.0095</v>
       </c>
       <c r="G243" t="n">
+        <v>285.9533333333333</v>
+      </c>
+      <c r="H243" t="n">
         <v>287.9766666666663</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8918,18 +9649,21 @@
         <v>9451.739799999999</v>
       </c>
       <c r="G244" t="n">
+        <v>285.7799999999999</v>
+      </c>
+      <c r="H244" t="n">
         <v>287.8766666666663</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8953,18 +9687,21 @@
         <v>6393.3473</v>
       </c>
       <c r="G245" t="n">
+        <v>285.6</v>
+      </c>
+      <c r="H245" t="n">
         <v>287.7766666666664</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8988,18 +9725,21 @@
         <v>1000</v>
       </c>
       <c r="G246" t="n">
+        <v>285.4266666666666</v>
+      </c>
+      <c r="H246" t="n">
         <v>287.6766666666663</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9023,18 +9763,21 @@
         <v>500</v>
       </c>
       <c r="G247" t="n">
+        <v>285.2533333333332</v>
+      </c>
+      <c r="H247" t="n">
         <v>287.568333333333</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9058,18 +9801,21 @@
         <v>15880.4164</v>
       </c>
       <c r="G248" t="n">
+        <v>285.0599999999999</v>
+      </c>
+      <c r="H248" t="n">
         <v>287.453333333333</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9093,18 +9839,21 @@
         <v>3500</v>
       </c>
       <c r="G249" t="n">
+        <v>284.9666666666666</v>
+      </c>
+      <c r="H249" t="n">
         <v>287.3416666666663</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9128,18 +9877,21 @@
         <v>1553.9099</v>
       </c>
       <c r="G250" t="n">
+        <v>285.0133333333333</v>
+      </c>
+      <c r="H250" t="n">
         <v>287.2599999999996</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9163,18 +9915,21 @@
         <v>5000</v>
       </c>
       <c r="G251" t="n">
+        <v>284.8533333333334</v>
+      </c>
+      <c r="H251" t="n">
         <v>287.1533333333329</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9198,18 +9953,21 @@
         <v>5000</v>
       </c>
       <c r="G252" t="n">
+        <v>284.8000000000001</v>
+      </c>
+      <c r="H252" t="n">
         <v>287.0483333333329</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9233,18 +9991,21 @@
         <v>12930.0604</v>
       </c>
       <c r="G253" t="n">
+        <v>284.6466666666667</v>
+      </c>
+      <c r="H253" t="n">
         <v>286.9399999999995</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9268,18 +10029,21 @@
         <v>545.7443</v>
       </c>
       <c r="G254" t="n">
+        <v>284.4933333333334</v>
+      </c>
+      <c r="H254" t="n">
         <v>286.8266666666662</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9303,18 +10067,21 @@
         <v>16777.0119</v>
       </c>
       <c r="G255" t="n">
+        <v>284.5666666666667</v>
+      </c>
+      <c r="H255" t="n">
         <v>286.7733333333329</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9338,18 +10105,21 @@
         <v>487.3471</v>
       </c>
       <c r="G256" t="n">
+        <v>284.6466666666667</v>
+      </c>
+      <c r="H256" t="n">
         <v>286.7099999999995</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9373,18 +10143,21 @@
         <v>9831.2742</v>
       </c>
       <c r="G257" t="n">
+        <v>284.7066666666667</v>
+      </c>
+      <c r="H257" t="n">
         <v>286.6316666666662</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9408,18 +10181,21 @@
         <v>10</v>
       </c>
       <c r="G258" t="n">
+        <v>284.84</v>
+      </c>
+      <c r="H258" t="n">
         <v>286.5916666666662</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9443,18 +10219,21 @@
         <v>412.6638</v>
       </c>
       <c r="G259" t="n">
+        <v>284.9466666666667</v>
+      </c>
+      <c r="H259" t="n">
         <v>286.5516666666662</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9478,18 +10257,21 @@
         <v>2179.387</v>
       </c>
       <c r="G260" t="n">
+        <v>285.0000000000001</v>
+      </c>
+      <c r="H260" t="n">
         <v>286.4966666666662</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9513,18 +10295,21 @@
         <v>5000</v>
       </c>
       <c r="G261" t="n">
+        <v>284.9800000000001</v>
+      </c>
+      <c r="H261" t="n">
         <v>286.4249999999996</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9548,18 +10333,21 @@
         <v>1891.2634</v>
       </c>
       <c r="G262" t="n">
+        <v>284.96</v>
+      </c>
+      <c r="H262" t="n">
         <v>286.3533333333329</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9583,18 +10371,21 @@
         <v>9547.4719</v>
       </c>
       <c r="G263" t="n">
+        <v>285.0666666666667</v>
+      </c>
+      <c r="H263" t="n">
         <v>286.3116666666663</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9618,18 +10409,21 @@
         <v>145.1</v>
       </c>
       <c r="G264" t="n">
+        <v>285.0933333333334</v>
+      </c>
+      <c r="H264" t="n">
         <v>286.2549999999996</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9653,18 +10447,21 @@
         <v>1998.1784</v>
       </c>
       <c r="G265" t="n">
+        <v>284.9533333333333</v>
+      </c>
+      <c r="H265" t="n">
         <v>286.1866666666663</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9688,18 +10485,21 @@
         <v>426.2329</v>
       </c>
       <c r="G266" t="n">
+        <v>284.92</v>
+      </c>
+      <c r="H266" t="n">
         <v>286.128333333333</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9723,18 +10523,21 @@
         <v>10000</v>
       </c>
       <c r="G267" t="n">
+        <v>284.8866666666667</v>
+      </c>
+      <c r="H267" t="n">
         <v>286.0616666666663</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9758,18 +10561,21 @@
         <v>11080.7473</v>
       </c>
       <c r="G268" t="n">
+        <v>284.8733333333333</v>
+      </c>
+      <c r="H268" t="n">
         <v>285.993333333333</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9793,18 +10599,21 @@
         <v>1600.1781</v>
       </c>
       <c r="G269" t="n">
+        <v>284.86</v>
+      </c>
+      <c r="H269" t="n">
         <v>285.9249999999997</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9828,18 +10637,21 @@
         <v>10000</v>
       </c>
       <c r="G270" t="n">
+        <v>284.6533333333334</v>
+      </c>
+      <c r="H270" t="n">
         <v>285.8399999999997</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9863,18 +10675,21 @@
         <v>1000.2453</v>
       </c>
       <c r="G271" t="n">
+        <v>284.5066666666667</v>
+      </c>
+      <c r="H271" t="n">
         <v>285.7549999999998</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9898,18 +10713,21 @@
         <v>20000</v>
       </c>
       <c r="G272" t="n">
+        <v>284.3266666666667</v>
+      </c>
+      <c r="H272" t="n">
         <v>285.6616666666665</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9933,18 +10751,21 @@
         <v>10257.1502</v>
       </c>
       <c r="G273" t="n">
+        <v>284.08</v>
+      </c>
+      <c r="H273" t="n">
         <v>285.5766666666665</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9968,18 +10789,21 @@
         <v>500</v>
       </c>
       <c r="G274" t="n">
+        <v>283.86</v>
+      </c>
+      <c r="H274" t="n">
         <v>285.5033333333331</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10003,18 +10827,21 @@
         <v>43.5824</v>
       </c>
       <c r="G275" t="n">
+        <v>283.84</v>
+      </c>
+      <c r="H275" t="n">
         <v>285.4516666666665</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10038,18 +10865,21 @@
         <v>2</v>
       </c>
       <c r="G276" t="n">
+        <v>283.96</v>
+      </c>
+      <c r="H276" t="n">
         <v>285.4316666666664</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10073,18 +10903,21 @@
         <v>367.5435</v>
       </c>
       <c r="G277" t="n">
+        <v>284.0666666666667</v>
+      </c>
+      <c r="H277" t="n">
         <v>285.4099999999998</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10108,18 +10941,21 @@
         <v>863.9691</v>
       </c>
       <c r="G278" t="n">
+        <v>284.08</v>
+      </c>
+      <c r="H278" t="n">
         <v>285.3866666666664</v>
       </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10143,18 +10979,21 @@
         <v>1128.4485</v>
       </c>
       <c r="G279" t="n">
+        <v>284.1533333333334</v>
+      </c>
+      <c r="H279" t="n">
         <v>285.3633333333331</v>
       </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10178,18 +11017,21 @@
         <v>516.6583000000001</v>
       </c>
       <c r="G280" t="n">
+        <v>284.1733333333334</v>
+      </c>
+      <c r="H280" t="n">
         <v>285.3149999999997</v>
       </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10213,18 +11055,21 @@
         <v>294.5283</v>
       </c>
       <c r="G281" t="n">
+        <v>284.2866666666667</v>
+      </c>
+      <c r="H281" t="n">
         <v>285.2899999999997</v>
       </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10248,18 +11093,21 @@
         <v>10</v>
       </c>
       <c r="G282" t="n">
+        <v>284.3266666666667</v>
+      </c>
+      <c r="H282" t="n">
         <v>285.2499999999998</v>
       </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10283,18 +11131,21 @@
         <v>989.7077</v>
       </c>
       <c r="G283" t="n">
+        <v>284.3466666666667</v>
+      </c>
+      <c r="H283" t="n">
         <v>285.1716666666664</v>
       </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10318,18 +11169,21 @@
         <v>3940.1138</v>
       </c>
       <c r="G284" t="n">
+        <v>284.36</v>
+      </c>
+      <c r="H284" t="n">
         <v>285.0999999999997</v>
       </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10353,18 +11207,21 @@
         <v>360</v>
       </c>
       <c r="G285" t="n">
+        <v>284.4666666666668</v>
+      </c>
+      <c r="H285" t="n">
         <v>285.0566666666664</v>
       </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10388,18 +11245,21 @@
         <v>175.247</v>
       </c>
       <c r="G286" t="n">
+        <v>284.5733333333334</v>
+      </c>
+      <c r="H286" t="n">
         <v>285.0149999999997</v>
       </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10423,18 +11283,21 @@
         <v>43235.1254</v>
       </c>
       <c r="G287" t="n">
+        <v>284.6066666666667</v>
+      </c>
+      <c r="H287" t="n">
         <v>284.9466666666664</v>
       </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10458,18 +11321,25 @@
         <v>6421.4755</v>
       </c>
       <c r="G288" t="n">
+        <v>284.5866666666668</v>
+      </c>
+      <c r="H288" t="n">
         <v>284.8649999999998</v>
       </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
       <c r="I288" t="n">
-        <v>0</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
+        <v>1</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" t="n">
+        <v>283</v>
+      </c>
+      <c r="L288" t="n">
+        <v>283</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10493,18 +11363,29 @@
         <v>54560.2072</v>
       </c>
       <c r="G289" t="n">
+        <v>284.5000000000001</v>
+      </c>
+      <c r="H289" t="n">
         <v>284.7716666666665</v>
       </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
       <c r="I289" t="n">
-        <v>0</v>
-      </c>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
+        <v>1</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" t="n">
+        <v>282.2</v>
+      </c>
+      <c r="L289" t="n">
+        <v>283</v>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10528,18 +11409,29 @@
         <v>200</v>
       </c>
       <c r="G290" t="n">
+        <v>284.2666666666667</v>
+      </c>
+      <c r="H290" t="n">
         <v>284.6766666666664</v>
       </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
       <c r="I290" t="n">
-        <v>0</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
+        <v>1</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="L290" t="n">
+        <v>283</v>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N290" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10563,18 +11455,29 @@
         <v>9738.5466</v>
       </c>
       <c r="G291" t="n">
+        <v>283.9666666666668</v>
+      </c>
+      <c r="H291" t="n">
         <v>284.5833333333331</v>
       </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
       <c r="I291" t="n">
-        <v>0</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
+        <v>1</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="L291" t="n">
+        <v>283</v>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N291" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10598,18 +11501,29 @@
         <v>150371.9749</v>
       </c>
       <c r="G292" t="n">
+        <v>283.6466666666667</v>
+      </c>
+      <c r="H292" t="n">
         <v>284.4816666666665</v>
       </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
       <c r="I292" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
+        <v>1</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="L292" t="n">
+        <v>283</v>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N292" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10633,18 +11547,27 @@
         <v>1154.9942</v>
       </c>
       <c r="G293" t="n">
+        <v>283.3266666666667</v>
+      </c>
+      <c r="H293" t="n">
         <v>284.3833333333332</v>
       </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
+      <c r="L293" t="n">
+        <v>283</v>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N293" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10668,18 +11591,27 @@
         <v>200</v>
       </c>
       <c r="G294" t="n">
+        <v>283.0066666666667</v>
+      </c>
+      <c r="H294" t="n">
         <v>284.3049999999998</v>
       </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
+      <c r="L294" t="n">
+        <v>283</v>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N294" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10703,18 +11635,27 @@
         <v>365.7959</v>
       </c>
       <c r="G295" t="n">
+        <v>282.7866666666667</v>
+      </c>
+      <c r="H295" t="n">
         <v>284.2316666666665</v>
       </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
+      <c r="L295" t="n">
+        <v>283</v>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N295" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10738,18 +11679,29 @@
         <v>440</v>
       </c>
       <c r="G296" t="n">
+        <v>282.6</v>
+      </c>
+      <c r="H296" t="n">
         <v>284.1649999999998</v>
       </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
       <c r="I296" t="n">
-        <v>0</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
+        <v>1</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="n">
+        <v>281</v>
+      </c>
+      <c r="L296" t="n">
+        <v>283</v>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N296" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10773,18 +11725,27 @@
         <v>760.4026</v>
       </c>
       <c r="G297" t="n">
+        <v>282.4133333333333</v>
+      </c>
+      <c r="H297" t="n">
         <v>284.1066666666665</v>
       </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
+      <c r="L297" t="n">
+        <v>283</v>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N297" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10808,18 +11769,27 @@
         <v>19330.0471</v>
       </c>
       <c r="G298" t="n">
+        <v>282.3333333333333</v>
+      </c>
+      <c r="H298" t="n">
         <v>284.0499999999998</v>
       </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
+      <c r="L298" t="n">
+        <v>283</v>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N298" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10843,18 +11813,27 @@
         <v>3639.4998</v>
       </c>
       <c r="G299" t="n">
+        <v>282.0866666666667</v>
+      </c>
+      <c r="H299" t="n">
         <v>283.9499999999998</v>
       </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
+      <c r="L299" t="n">
+        <v>283</v>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N299" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10878,18 +11857,27 @@
         <v>320.2</v>
       </c>
       <c r="G300" t="n">
+        <v>281.8733333333333</v>
+      </c>
+      <c r="H300" t="n">
         <v>283.8899999999998</v>
       </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
+      <c r="L300" t="n">
+        <v>283</v>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N300" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10913,18 +11901,29 @@
         <v>980</v>
       </c>
       <c r="G301" t="n">
+        <v>281.6599999999999</v>
+      </c>
+      <c r="H301" t="n">
         <v>283.8466666666665</v>
       </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
       <c r="I301" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
+        <v>1</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="n">
+        <v>281.4</v>
+      </c>
+      <c r="L301" t="n">
+        <v>283</v>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N301" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10948,18 +11947,29 @@
         <v>1498.3207</v>
       </c>
       <c r="G302" t="n">
+        <v>281.5066666666665</v>
+      </c>
+      <c r="H302" t="n">
         <v>283.7866666666665</v>
       </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
       <c r="I302" t="n">
-        <v>0</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
+        <v>1</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="n">
+        <v>281.4</v>
+      </c>
+      <c r="L302" t="n">
+        <v>283</v>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N302" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10983,18 +11993,29 @@
         <v>6756.3881</v>
       </c>
       <c r="G303" t="n">
+        <v>281.4066666666666</v>
+      </c>
+      <c r="H303" t="n">
         <v>283.7283333333332</v>
       </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
       <c r="I303" t="n">
-        <v>0</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
+        <v>1</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" t="n">
+        <v>280.7</v>
+      </c>
+      <c r="L303" t="n">
+        <v>283</v>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N303" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11018,18 +12039,27 @@
         <v>6596.7442</v>
       </c>
       <c r="G304" t="n">
+        <v>281.3533333333332</v>
+      </c>
+      <c r="H304" t="n">
         <v>283.6649999999998</v>
       </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
+      <c r="L304" t="n">
+        <v>283</v>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N304" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11053,18 +12083,29 @@
         <v>89.0213</v>
       </c>
       <c r="G305" t="n">
+        <v>281.2999999999999</v>
+      </c>
+      <c r="H305" t="n">
         <v>283.6016666666665</v>
       </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
       <c r="I305" t="n">
-        <v>0</v>
-      </c>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
+        <v>1</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="n">
+        <v>280.7</v>
+      </c>
+      <c r="L305" t="n">
+        <v>283</v>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N305" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11088,22 +12129,29 @@
         <v>80.3415</v>
       </c>
       <c r="G306" t="n">
+        <v>281.2466666666666</v>
+      </c>
+      <c r="H306" t="n">
         <v>283.5383333333332</v>
       </c>
-      <c r="H306" t="n">
-        <v>1</v>
-      </c>
       <c r="I306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J306" t="n">
-        <v>280.7</v>
+        <v>0</v>
       </c>
       <c r="K306" t="n">
         <v>280.7</v>
       </c>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
+      <c r="L306" t="n">
+        <v>283</v>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N306" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11127,26 +12175,29 @@
         <v>949.6092</v>
       </c>
       <c r="G307" t="n">
+        <v>281.2066666666665</v>
+      </c>
+      <c r="H307" t="n">
         <v>283.4699999999999</v>
       </c>
-      <c r="H307" t="n">
-        <v>1</v>
-      </c>
       <c r="I307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J307" t="n">
-        <v>280.7</v>
+        <v>0</v>
       </c>
       <c r="K307" t="n">
         <v>280.7</v>
       </c>
-      <c r="L307" t="inlineStr">
+      <c r="L307" t="n">
+        <v>283</v>
+      </c>
+      <c r="M307" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M307" t="n">
+      <c r="N307" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11170,26 +12221,27 @@
         <v>5172.7766</v>
       </c>
       <c r="G308" t="n">
+        <v>281.1666666666665</v>
+      </c>
+      <c r="H308" t="n">
         <v>283.4099999999999</v>
       </c>
-      <c r="H308" t="n">
-        <v>1</v>
-      </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
       <c r="J308" t="n">
-        <v>280.4</v>
-      </c>
-      <c r="K308" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="L308" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>283</v>
+      </c>
+      <c r="M308" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M308" t="n">
+      <c r="N308" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11213,24 +12265,27 @@
         <v>478.4215</v>
       </c>
       <c r="G309" t="n">
+        <v>281.1399999999998</v>
+      </c>
+      <c r="H309" t="n">
         <v>283.3483333333332</v>
       </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="L309" t="inlineStr">
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>283</v>
+      </c>
+      <c r="M309" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M309" t="n">
+      <c r="N309" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11254,24 +12309,27 @@
         <v>1849.1247</v>
       </c>
       <c r="G310" t="n">
+        <v>281.1199999999998</v>
+      </c>
+      <c r="H310" t="n">
         <v>283.2583333333333</v>
       </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="L310" t="inlineStr">
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>283</v>
+      </c>
+      <c r="M310" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M310" t="n">
+      <c r="N310" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11295,24 +12353,27 @@
         <v>707.1325000000001</v>
       </c>
       <c r="G311" t="n">
+        <v>280.9733333333332</v>
+      </c>
+      <c r="H311" t="n">
         <v>283.1949999999999</v>
       </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="L311" t="inlineStr">
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>283</v>
+      </c>
+      <c r="M311" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M311" t="n">
+      <c r="N311" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11336,24 +12397,27 @@
         <v>1078.9257</v>
       </c>
       <c r="G312" t="n">
+        <v>280.8933333333332</v>
+      </c>
+      <c r="H312" t="n">
         <v>283.13</v>
       </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="L312" t="inlineStr">
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>283</v>
+      </c>
+      <c r="M312" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M312" t="n">
+      <c r="N312" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11377,24 +12441,27 @@
         <v>985.2954999999999</v>
       </c>
       <c r="G313" t="n">
+        <v>280.7799999999998</v>
+      </c>
+      <c r="H313" t="n">
         <v>283.0833333333333</v>
       </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="L313" t="inlineStr">
+      <c r="J313" t="n">
+        <v>0</v>
+      </c>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>283</v>
+      </c>
+      <c r="M313" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M313" t="n">
+      <c r="N313" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11418,24 +12485,27 @@
         <v>2012.7637</v>
       </c>
       <c r="G314" t="n">
+        <v>280.8399999999998</v>
+      </c>
+      <c r="H314" t="n">
         <v>283.0366666666667</v>
       </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="L314" t="inlineStr">
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>283</v>
+      </c>
+      <c r="M314" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M314" t="n">
+      <c r="N314" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11459,24 +12529,27 @@
         <v>122.8668</v>
       </c>
       <c r="G315" t="n">
+        <v>280.8399999999998</v>
+      </c>
+      <c r="H315" t="n">
         <v>282.9583333333334</v>
       </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="L315" t="inlineStr">
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>283</v>
+      </c>
+      <c r="M315" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M315" t="n">
+      <c r="N315" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11500,24 +12573,27 @@
         <v>1166.5815</v>
       </c>
       <c r="G316" t="n">
+        <v>280.8399999999998</v>
+      </c>
+      <c r="H316" t="n">
         <v>282.8950000000001</v>
       </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="L316" t="inlineStr">
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>283</v>
+      </c>
+      <c r="M316" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M316" t="n">
+      <c r="N316" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11541,24 +12617,27 @@
         <v>485.1154</v>
       </c>
       <c r="G317" t="n">
+        <v>280.8866666666664</v>
+      </c>
+      <c r="H317" t="n">
         <v>282.8316666666668</v>
       </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="L317" t="inlineStr">
+      <c r="J317" t="n">
+        <v>0</v>
+      </c>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>283</v>
+      </c>
+      <c r="M317" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M317" t="n">
+      <c r="N317" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11582,24 +12661,27 @@
         <v>4780</v>
       </c>
       <c r="G318" t="n">
+        <v>280.8466666666665</v>
+      </c>
+      <c r="H318" t="n">
         <v>282.7300000000001</v>
       </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="L318" t="inlineStr">
+      <c r="J318" t="n">
+        <v>0</v>
+      </c>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>283</v>
+      </c>
+      <c r="M318" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M318" t="n">
+      <c r="N318" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11623,24 +12705,27 @@
         <v>50630.9699</v>
       </c>
       <c r="G319" t="n">
+        <v>280.6666666666665</v>
+      </c>
+      <c r="H319" t="n">
         <v>282.5950000000001</v>
       </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="L319" t="inlineStr">
+      <c r="J319" t="n">
+        <v>0</v>
+      </c>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>283</v>
+      </c>
+      <c r="M319" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M319" t="n">
+      <c r="N319" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11664,24 +12749,27 @@
         <v>17437.7878</v>
       </c>
       <c r="G320" t="n">
+        <v>280.4866666666665</v>
+      </c>
+      <c r="H320" t="n">
         <v>282.4733333333334</v>
       </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="L320" t="inlineStr">
+      <c r="J320" t="n">
+        <v>0</v>
+      </c>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>283</v>
+      </c>
+      <c r="M320" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M320" t="n">
+      <c r="N320" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11705,24 +12793,27 @@
         <v>847.3573</v>
       </c>
       <c r="G321" t="n">
+        <v>280.3066666666665</v>
+      </c>
+      <c r="H321" t="n">
         <v>282.3700000000001</v>
       </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="L321" t="inlineStr">
+      <c r="J321" t="n">
+        <v>0</v>
+      </c>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>283</v>
+      </c>
+      <c r="M321" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M321" t="n">
+      <c r="N321" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11746,24 +12837,27 @@
         <v>1230.2911</v>
       </c>
       <c r="G322" t="n">
+        <v>280.1466666666665</v>
+      </c>
+      <c r="H322" t="n">
         <v>282.2666666666667</v>
       </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="L322" t="inlineStr">
+      <c r="J322" t="n">
+        <v>0</v>
+      </c>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>283</v>
+      </c>
+      <c r="M322" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M322" t="n">
+      <c r="N322" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11787,24 +12881,27 @@
         <v>132.5761</v>
       </c>
       <c r="G323" t="n">
+        <v>280.0333333333332</v>
+      </c>
+      <c r="H323" t="n">
         <v>282.1516666666668</v>
       </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="L323" t="inlineStr">
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>283</v>
+      </c>
+      <c r="M323" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M323" t="n">
+      <c r="N323" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11828,24 +12925,29 @@
         <v>2458.7209</v>
       </c>
       <c r="G324" t="n">
+        <v>279.9199999999998</v>
+      </c>
+      <c r="H324" t="n">
         <v>282.0550000000001</v>
       </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
       <c r="I324" t="n">
-        <v>0</v>
-      </c>
-      <c r="J324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0</v>
+      </c>
       <c r="K324" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="L324" t="inlineStr">
+        <v>278.7</v>
+      </c>
+      <c r="L324" t="n">
+        <v>283</v>
+      </c>
+      <c r="M324" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M324" t="n">
+      <c r="N324" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11869,24 +12971,29 @@
         <v>2113.3606</v>
       </c>
       <c r="G325" t="n">
+        <v>279.6866666666665</v>
+      </c>
+      <c r="H325" t="n">
         <v>281.9416666666668</v>
       </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
       <c r="I325" t="n">
-        <v>0</v>
-      </c>
-      <c r="J325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0</v>
+      </c>
       <c r="K325" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="L325" t="inlineStr">
+        <v>278.9</v>
+      </c>
+      <c r="L325" t="n">
+        <v>283</v>
+      </c>
+      <c r="M325" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M325" t="n">
+      <c r="N325" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11910,24 +13017,29 @@
         <v>165.2627</v>
       </c>
       <c r="G326" t="n">
+        <v>279.5666666666665</v>
+      </c>
+      <c r="H326" t="n">
         <v>281.8566666666668</v>
       </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
       <c r="I326" t="n">
-        <v>0</v>
-      </c>
-      <c r="J326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0</v>
+      </c>
       <c r="K326" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="L326" t="inlineStr">
+        <v>277.2</v>
+      </c>
+      <c r="L326" t="n">
+        <v>283</v>
+      </c>
+      <c r="M326" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M326" t="n">
+      <c r="N326" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11951,24 +13063,29 @@
         <v>3537</v>
       </c>
       <c r="G327" t="n">
+        <v>279.4399999999998</v>
+      </c>
+      <c r="H327" t="n">
         <v>281.7683333333335</v>
       </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
       <c r="I327" t="n">
-        <v>0</v>
-      </c>
-      <c r="J327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0</v>
+      </c>
       <c r="K327" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="L327" t="inlineStr">
+        <v>278.9</v>
+      </c>
+      <c r="L327" t="n">
+        <v>283</v>
+      </c>
+      <c r="M327" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M327" t="n">
+      <c r="N327" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11992,24 +13109,29 @@
         <v>4956.4607</v>
       </c>
       <c r="G328" t="n">
+        <v>279.2666666666665</v>
+      </c>
+      <c r="H328" t="n">
         <v>281.6816666666668</v>
       </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
       <c r="I328" t="n">
-        <v>0</v>
-      </c>
-      <c r="J328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0</v>
+      </c>
       <c r="K328" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="L328" t="inlineStr">
+        <v>278.8</v>
+      </c>
+      <c r="L328" t="n">
+        <v>283</v>
+      </c>
+      <c r="M328" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M328" t="n">
+      <c r="N328" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12033,24 +13155,29 @@
         <v>1144.5929</v>
       </c>
       <c r="G329" t="n">
+        <v>279.1999999999999</v>
+      </c>
+      <c r="H329" t="n">
         <v>281.6216666666668</v>
       </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
       <c r="I329" t="n">
-        <v>0</v>
-      </c>
-      <c r="J329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0</v>
+      </c>
       <c r="K329" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="L329" t="inlineStr">
+        <v>278.8</v>
+      </c>
+      <c r="L329" t="n">
+        <v>283</v>
+      </c>
+      <c r="M329" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M329" t="n">
+      <c r="N329" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12074,26 +13201,481 @@
         <v>3905.3</v>
       </c>
       <c r="G330" t="n">
+        <v>279.1066666666666</v>
+      </c>
+      <c r="H330" t="n">
         <v>281.5716666666668</v>
       </c>
-      <c r="H330" t="n">
-        <v>1</v>
-      </c>
       <c r="I330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J330" t="n">
+        <v>0</v>
+      </c>
+      <c r="K330" t="n">
         <v>280.4</v>
       </c>
-      <c r="K330" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="L330" t="inlineStr">
+      <c r="L330" t="n">
+        <v>283</v>
+      </c>
+      <c r="M330" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M330" t="n">
+      <c r="N330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>280</v>
+      </c>
+      <c r="C331" t="n">
+        <v>280</v>
+      </c>
+      <c r="D331" t="n">
+        <v>280</v>
+      </c>
+      <c r="E331" t="n">
+        <v>280</v>
+      </c>
+      <c r="F331" t="n">
+        <v>648.5335</v>
+      </c>
+      <c r="G331" t="n">
+        <v>279.0133333333333</v>
+      </c>
+      <c r="H331" t="n">
+        <v>281.5216666666668</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0</v>
+      </c>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>283</v>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>280.9</v>
+      </c>
+      <c r="C332" t="n">
+        <v>280.3</v>
+      </c>
+      <c r="D332" t="n">
+        <v>282.2</v>
+      </c>
+      <c r="E332" t="n">
+        <v>280.3</v>
+      </c>
+      <c r="F332" t="n">
+        <v>19705.15503919</v>
+      </c>
+      <c r="G332" t="n">
+        <v>278.9399999999999</v>
+      </c>
+      <c r="H332" t="n">
+        <v>281.4850000000002</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0</v>
+      </c>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>283</v>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>280.3</v>
+      </c>
+      <c r="C333" t="n">
+        <v>280</v>
+      </c>
+      <c r="D333" t="n">
+        <v>280.3</v>
+      </c>
+      <c r="E333" t="n">
+        <v>280</v>
+      </c>
+      <c r="F333" t="n">
+        <v>11874.0536</v>
+      </c>
+      <c r="G333" t="n">
+        <v>278.9333333333333</v>
+      </c>
+      <c r="H333" t="n">
+        <v>281.4433333333335</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0</v>
+      </c>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>283</v>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>279.5</v>
+      </c>
+      <c r="C334" t="n">
+        <v>279.5</v>
+      </c>
+      <c r="D334" t="n">
+        <v>279.5</v>
+      </c>
+      <c r="E334" t="n">
+        <v>279.5</v>
+      </c>
+      <c r="F334" t="n">
+        <v>1861.8697</v>
+      </c>
+      <c r="G334" t="n">
+        <v>279.0333333333332</v>
+      </c>
+      <c r="H334" t="n">
+        <v>281.3883333333335</v>
+      </c>
+      <c r="I334" t="n">
+        <v>0</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0</v>
+      </c>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>283</v>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="C335" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="D335" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="E335" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="F335" t="n">
+        <v>7064.3198</v>
+      </c>
+      <c r="G335" t="n">
+        <v>279.1199999999999</v>
+      </c>
+      <c r="H335" t="n">
+        <v>281.2933333333335</v>
+      </c>
+      <c r="I335" t="n">
+        <v>1</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0</v>
+      </c>
+      <c r="K335" t="n">
+        <v>279.5</v>
+      </c>
+      <c r="L335" t="n">
+        <v>283</v>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="C336" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="D336" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="E336" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="F336" t="n">
+        <v>4856.6029</v>
+      </c>
+      <c r="G336" t="n">
+        <v>279.2066666666666</v>
+      </c>
+      <c r="H336" t="n">
+        <v>281.1816666666668</v>
+      </c>
+      <c r="I336" t="n">
+        <v>1</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0</v>
+      </c>
+      <c r="K336" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="L336" t="n">
+        <v>283</v>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="C337" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="D337" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="E337" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="F337" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="G337" t="n">
+        <v>279.2933333333333</v>
+      </c>
+      <c r="H337" t="n">
+        <v>281.0733333333335</v>
+      </c>
+      <c r="I337" t="n">
+        <v>1</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0</v>
+      </c>
+      <c r="K337" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="L337" t="n">
+        <v>283</v>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="C338" t="n">
+        <v>279.5</v>
+      </c>
+      <c r="D338" t="n">
+        <v>279.5</v>
+      </c>
+      <c r="E338" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="F338" t="n">
+        <v>7718.055</v>
+      </c>
+      <c r="G338" t="n">
+        <v>279.3466666666666</v>
+      </c>
+      <c r="H338" t="n">
+        <v>280.9683333333335</v>
+      </c>
+      <c r="I338" t="n">
+        <v>1</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0</v>
+      </c>
+      <c r="K338" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="L338" t="n">
+        <v>283</v>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>279.4</v>
+      </c>
+      <c r="C339" t="n">
+        <v>279.4</v>
+      </c>
+      <c r="D339" t="n">
+        <v>279.4</v>
+      </c>
+      <c r="E339" t="n">
+        <v>279.4</v>
+      </c>
+      <c r="F339" t="n">
+        <v>2114.4675</v>
+      </c>
+      <c r="G339" t="n">
+        <v>279.38</v>
+      </c>
+      <c r="H339" t="n">
+        <v>280.8616666666668</v>
+      </c>
+      <c r="I339" t="n">
+        <v>1</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0</v>
+      </c>
+      <c r="K339" t="n">
+        <v>279.5</v>
+      </c>
+      <c r="L339" t="n">
+        <v>283</v>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="C340" t="n">
+        <v>278.1</v>
+      </c>
+      <c r="D340" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="E340" t="n">
+        <v>278.1</v>
+      </c>
+      <c r="F340" t="n">
+        <v>16058.3789</v>
+      </c>
+      <c r="G340" t="n">
+        <v>279.44</v>
+      </c>
+      <c r="H340" t="n">
+        <v>280.7583333333335</v>
+      </c>
+      <c r="I340" t="n">
+        <v>1</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0</v>
+      </c>
+      <c r="K340" t="n">
+        <v>279.4</v>
+      </c>
+      <c r="L340" t="n">
+        <v>283</v>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N340" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-23 BackTest MTL.xlsx
+++ b/BackTest/2020-01-23 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1309,7 +1309,7 @@
         <v>19405.21468129</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>18358.87338129</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>18358.87338129</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>18358.87338129</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>14358.87338129</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>14360.77368128999</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>14360.77368128999</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>12833.77368128999</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>12833.77368128999</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>11044.77368128999</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>36058.91688129</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>48262.00678128999</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>51161.69478129</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>49520.47518129</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>49520.47518129</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>49520.47518129</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>49520.47518129</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>49520.47518129</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>50053.47655491</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>50053.47655491</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>48251.67755491</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>45729.84465491</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>60480.43395491</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>60840.57825491</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>63183.81998658</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>63166.73764971999</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>56433.13644972</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>39342.24804972</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>39342.24804972</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>39342.24804972</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>39342.24804972</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>39342.24804972</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>34897.88061667</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>34897.88061667</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>34897.88061667</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>33413.65111667</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>40301.98551667</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>43309.49422126</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>48429.05396149</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>64918.43456148999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>60352.13446148999</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>56669.73206148999</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>57969.73206148999</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>57409.84126148999</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>57409.84126148999</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>57409.84126148999</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>52526.89496149</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>57631.69206149</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>67715.44386149</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>67569.90026148999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>66726.04446148999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>66726.04446148999</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>66716.04446148999</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>74016.04446148999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>74016.04446148999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>73347.78396148999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>63178.93458765998</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>59922.95318765997</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>53486.87728765997</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>55455.47558765997</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>55455.47558765997</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>53387.77558765997</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>53387.77558765997</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>53387.77558765997</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>53668.79768765997</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>52195.37278765997</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>60645.60318765997</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>60185.29578765998</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>60185.29578765998</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>54579.21018765998</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>41676.60198765997</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>41676.60198765997</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>37369.16494513996</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>37369.16494513996</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>35006.30614513996</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>43893.50044513996</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>44110.74475196996</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>43610.90765196996</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>43610.90765196996</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>43610.90765196996</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>27176.84875196996</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>27176.84875196996</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>27024.76385196996</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>27024.76385196996</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>27024.76385196996</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>27024.76385196996</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>38357.72428942996</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>37357.72428942996</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>29245.42428942996</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>29245.42428942996</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>24456.00938942996</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>24391.09998942996</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>24406.39248769996</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>21988.08088769996</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>19234.71768769996</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>10092.74728769996</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>20879.11148769996</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>20879.11148769996</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>20894.82922405995</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>20445.59072405996</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>14040.02042405996</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>14893.29062405996</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>14377.64382405996</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>14377.64382405996</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>6895.224224059956</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>8868.771524059955</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>8868.771524059955</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>8868.771524059955</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>8208.632724059955</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>6384.002424059955</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-30835.45917594005</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-50138.02077594005</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-50138.02077594005</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-48655.89127594005</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-48655.89127594005</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-52935.89127594005</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-52935.89127594005</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-51420.53536717005</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-51377.97756717005</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-51861.23611049005</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-53615.97061049005</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-53615.97061049005</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-53596.74915721005</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-54248.30315721004</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-52767.52461049004</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-47627.13711049005</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-47946.17821049005</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-46866.16509800005</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-47327.46369800005</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-45328.84019800005</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-45328.84019800005</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-45315.84019800005</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-45315.84019800005</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-45315.84019800005</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-44061.10539800005</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-44309.51179800005</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-44091.44639800005</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-44091.44639800005</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-45870.24419800005</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-45870.24419800005</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-46792.31479800005</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-46500.31479800005</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-46620.31469800005</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-47473.58489800005</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-47457.87258341006</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-50621.85208341006</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-56684.45628341006</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-55602.71558341006</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-56650.42098341005</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-56650.42098341005</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-59423.88808341006</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-59423.88808341006</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-59423.88808341006</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-71250.01368341006</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-67096.87298341005</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-67096.87298341005</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-67096.87298341005</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-67096.87298341005</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-67096.87298341005</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-67096.87298341005</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-68295.42618341005</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-80346.07908341005</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-80338.36648362005</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-100351.64768362</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-117352.31678362</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-112482.88598362</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-112482.88598362</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-112482.88598362</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-112482.88598362</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-112515.51388362</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-112424.30388362</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-112426.65818362</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-122516.5859836201</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-125974.5274836201</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-125974.5274836201</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-125974.5274836201</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-125974.5274836201</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-122612.2058836201</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-123570.1474836201</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-123570.1474836201</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-129051.9610836201</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-140511.3877836201</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-138705.2385836201</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-171412.6232836201</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-166049.2960836201</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-156597.55628362</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-156597.55628362</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-163577.11128362</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-162099.03728362</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-164242.31568362</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-195145.02408362</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-195145.02408362</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-195661.68238362</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-195367.15408362</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-195377.15408362</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-199946.97558362</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-199946.97558362</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-243182.10098362</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-249603.57648362</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-304163.78368362</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12298,14 +12298,10 @@
         <v>-440343.7345836199</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
-      </c>
-      <c r="I361" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="J361" t="n">
-        <v>280.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
@@ -12335,19 +12331,11 @@
         <v>-440343.7345836199</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
-      </c>
-      <c r="I362" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="J362" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12376,19 +12364,11 @@
         <v>-440343.7345836199</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
-      </c>
-      <c r="I363" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="J363" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12978,11 +12958,17 @@
         <v>-493258.8958836198</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>278</v>
+      </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13011,11 +12997,17 @@
         <v>-490800.1749836198</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>278.7</v>
+      </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13044,11 +13036,17 @@
         <v>-492913.5355836198</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>278.9</v>
+      </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13077,15 +13075,17 @@
         <v>-492748.2728836198</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I384" t="n">
         <v>277.2</v>
       </c>
-      <c r="J384" t="n">
-        <v>277.2</v>
-      </c>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13114,15 +13114,15 @@
         <v>-496285.2728836198</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>277.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>278.9</v>
+      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L385" t="n">
@@ -13153,15 +13153,15 @@
         <v>-496285.2728836198</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>277.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>278.8</v>
+      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L386" t="n">
@@ -13192,11 +13192,17 @@
         <v>-495140.6799836198</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>278.8</v>
+      </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13225,11 +13231,17 @@
         <v>-499045.9799836198</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>280.4</v>
+      </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13258,11 +13270,17 @@
         <v>-499045.9799836198</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>280</v>
+      </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13291,11 +13309,17 @@
         <v>-479340.8249444298</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>280</v>
+      </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13328,7 +13352,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13361,7 +13389,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13394,7 +13426,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13423,11 +13459,17 @@
         <v>-500141.0680444298</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>279.3</v>
+      </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13456,15 +13498,17 @@
         <v>-500141.0680444298</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I395" t="n">
         <v>279.3</v>
       </c>
-      <c r="J395" t="n">
-        <v>279.3</v>
-      </c>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13493,17 +13537,15 @@
         <v>-492423.0130444298</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I396" t="n">
         <v>279.3</v>
       </c>
-      <c r="J396" t="n">
-        <v>279.3</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L396" t="n">
@@ -13534,14 +13576,12 @@
         <v>-494537.4805444298</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I397" t="n">
         <v>279.5</v>
       </c>
-      <c r="J397" t="n">
-        <v>279.3</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13575,14 +13615,12 @@
         <v>-510595.8594444298</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I398" t="n">
         <v>279.4</v>
       </c>
-      <c r="J398" t="n">
-        <v>279.3</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13594,6 +13632,6 @@
       <c r="M398" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest MTL.xlsx
+++ b/BackTest/2020-01-23 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1573,7 +1573,7 @@
         <v>12833.77368128999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>11044.77368128999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>5735.226681289995</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>5735.226681289995</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>5735.226681289995</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>5759.888781289995</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>5731.959481289995</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>5731.959481289995</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>5731.959481289995</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>5743.658181289995</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>7040.877381289994</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>13920.22808129</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>22714.45988128999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>22714.45988128999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>22714.45988128999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>24230.00808128999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>23877.00808128999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>23877.00808128999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>36058.91688129</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>48262.00678128999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>49520.47518129</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>49520.47518129</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>49520.47518129</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>49520.47518129</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>49520.47518129</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>50053.47655491</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>50053.47655491</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>39342.24804972</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>39342.24804972</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>39342.24804972</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>39342.24804972</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>34897.88061667</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>34897.88061667</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>34897.88061667</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>33413.65111667</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>40301.98551667</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>43309.49422126</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>48429.05396149</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>64918.43456148999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>60352.13446148999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>56669.73206148999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>57969.73206148999</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>52526.89496149</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>57631.69206149</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>67715.44386149</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>67569.90026148999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>66726.04446148999</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>66726.04446148999</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>66716.04446148999</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>74016.04446148999</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>74016.04446148999</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>73347.78396148999</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>59922.95318765997</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>53486.87728765997</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>55455.47558765997</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>55455.47558765997</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>53387.77558765997</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>53387.77558765997</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>53387.77558765997</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>53668.79768765997</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>52195.37278765997</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>60645.60318765997</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>60185.29578765998</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>60185.29578765998</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>54579.21018765998</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>35006.30614513996</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>43893.50044513996</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>44110.74475196996</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>43610.90765196996</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>43610.90765196996</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>43610.90765196996</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>27176.84875196996</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>27176.84875196996</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>27024.76385196996</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>27024.76385196996</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>38357.72428942996</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>24456.00938942996</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>24391.09998942996</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>24406.39248769996</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>21988.08088769996</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>19234.71768769996</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>10092.74728769996</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>20879.11148769996</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>20879.11148769996</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>20894.82922405995</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>20445.59072405996</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>14040.02042405996</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>14893.29062405996</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>14377.64382405996</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>14377.64382405996</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>6895.224224059956</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>8868.771524059955</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>8868.771524059955</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>8868.771524059955</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>8208.632724059955</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>6384.002424059955</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-30835.45917594005</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-50138.02077594005</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-50138.02077594005</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-48655.89127594005</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-48655.89127594005</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-52935.89127594005</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-52935.89127594005</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-51420.53536717005</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-51377.97756717005</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-51861.23611049005</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-53615.97061049005</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-53615.97061049005</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-53596.74915721005</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-54248.30315721004</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-52767.52461049004</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-47627.13711049005</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-47946.17821049005</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-46866.16509800005</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-47327.46369800005</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-45328.84019800005</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-45328.84019800005</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-45315.84019800005</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-45315.84019800005</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-45315.84019800005</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-44061.10539800005</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-44309.51179800005</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-44091.44639800005</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-44091.44639800005</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-45870.24419800005</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-45870.24419800005</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-46792.31479800005</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-46500.31479800005</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-46620.31469800005</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-47473.58489800005</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-47457.87258341006</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-50621.85208341006</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-56684.45628341006</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-55602.71558341006</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-56650.42098341005</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-56650.42098341005</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-59423.88808341006</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-59423.88808341006</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-59423.88808341006</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-71250.01368341006</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-67096.87298341005</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-67096.87298341005</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-67096.87298341005</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-67096.87298341005</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-67096.87298341005</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-67096.87298341005</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-68295.42618341005</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-80346.07908341005</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-80338.36648362005</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-100351.64768362</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-117352.31678362</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-112482.88598362</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-112482.88598362</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-112482.88598362</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-112482.88598362</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-112515.51388362</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-112424.30388362</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-112426.65818362</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-122516.5859836201</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-125974.5274836201</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-125974.5274836201</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-125974.5274836201</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-125974.5274836201</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-122612.2058836201</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-123570.1474836201</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-123570.1474836201</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-129051.9610836201</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-140511.3877836201</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -13231,11 +13231,9 @@
         <v>-499045.9799836198</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>280.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
@@ -13270,11 +13268,9 @@
         <v>-499045.9799836198</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
@@ -13422,9 +13418,11 @@
         <v>-500141.0680444298</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>279.5</v>
+      </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
@@ -13632,6 +13630,6 @@
       <c r="M398" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest MTL.xlsx
+++ b/BackTest/2020-01-23 BackTest MTL.xlsx
@@ -1573,7 +1573,7 @@
         <v>12833.77368128999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>11044.77368128999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>5735.226681289995</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>5735.226681289995</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>5735.226681289995</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>5759.888781289995</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>5731.959481289995</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>5731.959481289995</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>5731.959481289995</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>5743.658181289995</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>7040.877381289994</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>13920.22808129</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>22714.45988128999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>22714.45988128999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>22714.45988128999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>24230.00808128999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>23877.00808128999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>23877.00808128999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>51161.69478129</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>49520.47518129</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>49520.47518129</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>49520.47518129</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>50053.47655491</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>50053.47655491</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>43960.51135491</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>48261.81055491</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>48251.67755491</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>45729.84465491</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>60480.43395491</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>60840.57825491</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>63183.81998658</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>63166.73764971999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>56433.13644972</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>39342.24804972</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>39342.24804972</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>39342.24804972</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>39342.24804972</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>39342.24804972</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>34897.88061667</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>34897.88061667</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>34897.88061667</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>33413.65111667</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>40301.98551667</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>48429.05396149</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>64918.43456148999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>60352.13446148999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>56669.73206148999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>57969.73206148999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>57409.84126148999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>57409.84126148999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>57409.84126148999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>57409.84126148999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>57418.37276148999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>56404.35036148999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>56404.35036148999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>54163.59916148999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>55326.49226148999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>51404.95756148999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>48404.95756148999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>49608.41096148999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>48313.64446149</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>48187.59336149</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>48187.59336149</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>52526.89496149</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>52526.89496149</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>57631.69206149</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>67715.44386149</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>67569.90026148999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>66726.04446148999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>74016.04446148999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>73347.78396148999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>73349.78396148999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>73349.78396148999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>61733.27886148998</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>63206.70378765999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>63178.93458765998</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>63178.93458765998</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>63178.93458765998</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>70206.50188765998</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>53668.79768765997</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>52195.37278765997</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>60185.29578765998</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-46792.31479800005</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-46620.31469800005</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -12997,11 +12997,9 @@
         <v>-490800.1749836198</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>278.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
@@ -13231,9 +13229,11 @@
         <v>-499045.9799836198</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>280.4</v>
+      </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
@@ -13268,9 +13268,11 @@
         <v>-499045.9799836198</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>280</v>
+      </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
@@ -13381,9 +13383,11 @@
         <v>-493076.7482444298</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>280</v>
+      </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
@@ -13418,11 +13422,9 @@
         <v>-500141.0680444298</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>279.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
